--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="377">
   <si>
     <t>numpy和python中的数学指标</t>
   </si>
@@ -904,7 +904,40 @@
     <t>plt.hist</t>
   </si>
   <si>
-    <t>集合学习</t>
+    <t>模型加载与保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模型的 "保存" 和 "加载" 功能非常强大，
+但它用起来是非常简单的。
+</t>
+  </si>
+  <si>
+    <t>pickle 是一个序列化模块，可以将想要保存的数据，
+import pickle 
+pickle.dump(model,f)
+pickle.load(f)</t>
+  </si>
+  <si>
+    <t>训练集和测试集的划分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+训练集和测试集的划分，有专门的接口。
+sklearn.model_selection
+划分 "训练集"和"测试集"</t>
+  </si>
+  <si>
+    <t>训练数据要随机打乱（要随机，但是每次随机要一样的随机规则（随机种子random_state=7））</t>
+  </si>
+  <si>
+    <t>常用的 "训练集"和 "测试集" 划分比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:1 8:2 7:3
+</t>
+  </si>
+  <si>
+    <t>集成学习</t>
   </si>
   <si>
     <t>单个模型得到的预测结果总是片面的，
@@ -915,170 +948,372 @@
     <t>它不止针对 “决策树”，其它模型同样适用。</t>
   </si>
   <si>
-    <t>训练集和测试集的划分</t>
-  </si>
-  <si>
-    <t>sklearn.model_selection
-训练集和测试集的划分，有专门的接口。</t>
-  </si>
-  <si>
-    <t>训练数据要随机打乱（要随机，但是每次随机要一样的随机规则（随机种子random_state=7））</t>
-  </si>
-  <si>
-    <t>要按照类别，等比划分，“测试集”和“训练集”
- stratify=y #按照 "y值(类别)"进行等比划分</t>
-  </si>
-  <si>
-    <t>基于“模型的学习”</t>
-  </si>
-  <si>
-    <t>根据“数据的分布状态”，找到一个数学公式去表达它。</t>
-  </si>
-  <si>
-    <t>基于“实例的学习”</t>
-  </si>
-  <si>
-    <t>“相似的输入” 必定产生 “相似的输出”。</t>
-  </si>
-  <si>
-    <t>超参数</t>
-  </si>
-  <si>
-    <t>学习率</t>
-  </si>
-  <si>
-    <t>下降的速度 0.01</t>
-  </si>
-  <si>
-    <t>梯度爆炸</t>
-  </si>
-  <si>
-    <t>死循环</t>
-  </si>
-  <si>
-    <t>比较震荡</t>
-  </si>
-  <si>
-    <t>比较平缓</t>
-  </si>
-  <si>
-    <t>轮数</t>
-  </si>
-  <si>
-    <t>指更新多少次参数</t>
-  </si>
-  <si>
-    <t>正则化系数（惩罚项系数）</t>
-  </si>
-  <si>
-    <t>Lasso回归 和 岭回归</t>
-  </si>
-  <si>
-    <t>最高次项</t>
-  </si>
-  <si>
-    <t>多项式回归</t>
-  </si>
-  <si>
-    <t>模型深度</t>
-  </si>
-  <si>
-    <t>max_depth “决策树”的时候 “预剪枝”。</t>
-  </si>
-  <si>
-    <t>弱模型数量</t>
-  </si>
-  <si>
-    <t>n_estimators - 集合学习
-AdaBoost、GBDT</t>
-  </si>
-  <si>
-    <t>交叉熵，也是求极小值。tk * log(yk)</t>
-  </si>
-  <si>
-    <t>邻域半径</t>
-  </si>
-  <si>
-    <t>噪声密度聚类：也是这种办法</t>
-  </si>
-  <si>
     <t>线性回归</t>
   </si>
   <si>
-    <t>数据符合线性分布，我们就想找到一条线性模型。
-是让 "这条直线" 到达 "所有样本点" 的  "距离" 达到最小值。</t>
-  </si>
-  <si>
-    <t>求损失函数极小值</t>
-  </si>
-  <si>
-    <t>均方差公式</t>
-  </si>
-  <si>
-    <t>最小二乘法（不能解决所有情况）</t>
-  </si>
-  <si>
-    <t>求导，导数为0，</t>
+    <t>线性模型：y=kx+b</t>
+  </si>
+  <si>
+    <t>自然界最简单的模型之一，
+一个（或多个）自变量对另一个因变量的影响是呈简单的比例、线性关系</t>
+  </si>
+  <si>
+    <t>"二维空间" 内表现为一条直线
+"三维空间" 内表现为一个平面
+"更高维度" 下的线性模型很难用几何图形来表示（称为 "超平面"）</t>
+  </si>
+  <si>
+    <t>根据一组输入值和输出值（称为样本），寻找一个 "线性模型"，
+能 "最佳程度" 上拟合于 "给定的数值分布"，从而再给定新的输入时预测输出</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 我们要把 "数据" 带到 "线性模型" 里面去，找到k和b 的值的过程，就是 "线性回归"的过程</t>
+  </si>
+  <si>
+    <t>重要性</t>
+  </si>
+  <si>
+    <t>"线性模型" 形式简单、易于建模，却蕴含着 "机器学习"中一些重要的 "基本思想"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">许多 "功能强大" 的 "非线性模型" 可以在 "线性模型" 基础上 "引入层级结构" 或 "高维映射"而得. </t>
+  </si>
+  <si>
+    <t>推导过程</t>
+  </si>
+  <si>
+    <t>（1）目的：</t>
+  </si>
+  <si>
+    <t>让"这条直线" 到达 "所有样本点" 的  "距离" 达到最小值</t>
+  </si>
+  <si>
+    <t>（2）怎么表达"每一个样本" 到 "这条直线" 的 "距离" 呢？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "真实值" -  "预测值"  = 距离</t>
+  </si>
+  <si>
+    <t>（3）怎么让 "所有距离" 都  "同时达到"  最小的值？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其实就是： 针对 "所有样本它的真实值" 到 "模型预测值" 的距离，它们的 "平均值" 达到最小 </t>
+  </si>
+  <si>
+    <t>（4）如何确定 "直线到所有样本" 足够近呢？</t>
+  </si>
+  <si>
+    <r>
+      <t>可以使用 "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>损失函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 来进行度量
+损失函数值越小，表明模型预测值和真实值之间差异越小，模型性能越好；
+损失函数值越大，模型预测值和真实值之间差异越大，模型性能越差.</t>
+    </r>
+  </si>
+  <si>
+    <t>“损失函数”是机器学习中的一个 “广义概念”，用于衡量 “模型的预测值” 与 “真实值” 之间的 “不一致程度”。</t>
+  </si>
+  <si>
+    <r>
+      <t>（5）回归问题常用的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>损失函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是什么</t>
+    </r>
+  </si>
+  <si>
+    <t>在回归问题中，"均方差" 是常用的损失函数
+loss = 1/2 * ∑(Yi' - Yi)^2</t>
+  </si>
+  <si>
+    <t>均方差：
+均：指平均，求和除以个数，差指误差
+均方差: 名字由 "平均、平方、误差" 而来。</t>
+  </si>
+  <si>
+    <t>最小二乘法</t>
+  </si>
+  <si>
+    <t>什么是“最小二乘法”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于 "均方误差最小化" 来进行 模型求解的方法称为 "最小二乘法". 
+ "最小二乘法（Least Squares Method）" 这个名字的含义直接源于 "其核心原理"：
+   "最小化误差" 的 "平方和"。
+     这里的 "二乘" 指的是 "平方"（即"数的二次方"），而 "最小" 指的是 "寻找参数值" 使得这个 "平方和" 尽可能小。
+</t>
+  </si>
+  <si>
+    <t>最小二乘法 与 导数</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">最小二乘法：就是试图找到一条直线，
+是所有样本到直线的 "欧式距离" 之和最小.  可以将损失函数 "对w和b分别求导" ，
+得到损失函数的 "导函数" ，并令 "导函数为0" 即可得到 "w和b的最优解".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求导，导数为0，</t>
+    </r>
   </si>
   <si>
     <t>梯度下降法</t>
   </si>
   <si>
-    <t>迭代解：梯度下降法：这时不使用导数为0，
+    <t>为什么使用梯度下降</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在实际计算中，通过 "最小二乘法" 求解 "最优参数" 有一定的问题：
+（1）最小二乘法需要计算逆矩阵，有可能逆矩阵不存在
+（2）当样本特征数量较多时，计算逆矩阵非常耗时甚至不可行. </t>
+  </si>
+  <si>
+    <t>什么是梯度下降法</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">按照 "负梯度" 不停地 "调整函数权值" 的过程就叫作 "梯度下降法".
+它也叫 "蒙眼下山法"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这时不使用导数为0，
 沿着梯度的相反方向来更新参数。</t>
+    </r>
+  </si>
+  <si>
+    <t>参数更新法则：
+    w1 = w1 - learning_rate * d1
+    w0 = w0 - learning_rate * d0</t>
   </si>
   <si>
     <t>"参数更新法则":
 参数：需要更新的值，需要有一个初始始值
 权重：1，随机数每次不一样，不能为0
-偏置：1，0或1。
-求  导：单变量函数
-求偏导：多变量函数</t>
-  </si>
-  <si>
-    <t>sklearn.里面并不是使用“梯度下降法”</t>
-  </si>
-  <si>
-    <t>所以没有 学习率等参数，
-但是：深度学习使用的是梯度下降法来求参数最优值（"极小值"）的。
+偏置：1，0或1。</t>
+  </si>
+  <si>
+    <t>真正的需求：</t>
+  </si>
+  <si>
+    <t>"真正的需求" 并不是一个  "二维"的，它可能有多个权重需要求：
+y = w1*x1 + w2*x2+ w0</t>
+  </si>
+  <si>
+    <t>"单变量函数"是求导，
+"多变量函数"求偏导</t>
+  </si>
+  <si>
+    <t>代码实现：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> （1）使用 "python语言" 基于 "梯度下降" 实现线性回归</t>
+  </si>
+  <si>
+    <t>learning_rate = 0.01 #超参数：学习率
+epoch = 200     # 超参数：学习轮数</t>
+  </si>
+  <si>
+    <t>打印出每一轮模参数是怎么更新的
+以及它的损失值是多少，我们可以打印出来
+另外：把w1、w0、loss的值 收集起来，画出来进行观察</t>
+  </si>
+  <si>
+    <t>（2）sklearn接口来实现  "线性回归"
+import sklearn.linear_model as lm
+model = lm.LinearRegression()</t>
+  </si>
+  <si>
+    <r>
+      <t>sklearn.里面并不是使用“梯度下降法”
+所以没有 学习率等参数，
+但是：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>深度学习使用的是 “梯度下降法”来求参数最优值（"极小值"）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的。
 不管使用什么样的方式，只要能把 "最优模型参数"
 求出来就可以了。</t>
-  </si>
-  <si>
-    <t>sklearn.linear_model，线性模块</t>
-  </si>
-  <si>
-    <t>关于线性模型，不止有线性回归。</t>
+    </r>
+  </si>
+  <si>
+    <t>可以打印权重和偏置：
+print('coef_：',model.coef_) #权重，所有权重，返回列表，几组x就有几组权重
+print('intercept_：',model.intercept_) #偏置</t>
+  </si>
+  <si>
+    <t>什么叫 "拟合"</t>
+  </si>
+  <si>
+    <t>假设我有一组数据，我想用一个 "线性模型" 来表达这组数据，这个过程就叫 "拟合"
+什么叫"拟合"，用 "模型" 表达 "当前样本分布状态" 和 "分布情况"
+   //拟合的有好有坏</t>
+  </si>
+  <si>
+    <t>过拟合：
+什么叫"拟合"，用 "模型" 表达 "当前样本分布状态" 和 "分布情况"
+   //拟合的有好有坏
+过拟合 ：  模型相对比较复杂，过于拟合训练样本，训练过的数据很准，没训练过的就很差。
+    //过于拟合训练集，做过的都会，没做过的，都不会以
+    //拟合的过头了，太好了，
+    //泛化能力（新样本的适应能力）变差，
+    //必须针对 大部分样本都能预测很准，才可以
+欠拟合 ：  数据比较"复杂"，模型比较"简单"了，
+    导致模型没有"足够能力"表达这组数据
+     //拟合的不够，</t>
+  </si>
+  <si>
+    <t>欠拟合解决办法：提高模型复杂度，如增加特征、增加模型最高次幂等等；</t>
+  </si>
+  <si>
+    <t>欠拟合 ：  数据比较"复杂"，模型比较"简单"了，
+    导致模型没有"足够能力"表达这组数据
+     //拟合的不够，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">过拟合解决办法：降低模型复杂度，如减少特征、降低模型最高次幂等等. </t>
   </si>
   <si>
     <t>线性回归-变种：</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasso回归 </t>
+    <r>
+      <t xml:space="preserve">"过拟合" 还有一个 "常见的原因"，
+就是模型 "参数值太大"，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为了解决：过拟合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+正则化是指，在 "目标函数后面" 添加一个 "范数" ，来 "防止过拟合" 的手段。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasso回归 ：
+</t>
   </si>
   <si>
     <t>如果在 "圴方误差" 后面加上（γ*）L1范数，它就是“lasso回归”</t>
   </si>
   <si>
-    <t>为了解决：过拟合</t>
-  </si>
-  <si>
-    <t>都可以通过循环打印：不同参数的分数来找到最合适的系数</t>
-  </si>
-  <si>
-    <t>岭回归</t>
+    <t>岭（Ridge）回归
+ridge = lm.Ridge(alpha=98, max_iter=1000)
+alpha指 "正则化系数"，默认值是1</t>
   </si>
   <si>
     <t>如果在 "圴方误差" 后面加上（γ*）L2范数，它就是“岭回归”</t>
   </si>
   <si>
-    <t>自变量的高次项（例如平方、立方）被包括在模型中的线性回归。
+    <t>通过循环的方式：
+打印找出最优的参数</t>
+  </si>
+  <si>
+    <t>为了解决：欠拟合</t>
+  </si>
+  <si>
+    <t>多项式（poly）回归</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自变量的高次项（例如平方、立方）被包括在模型中的线性回归。
 需要额外用到两个模块
+</t>
+  </si>
+  <si>
+    <t>实现：
+（1）通过代码自己实现
+"多项式回归模型" 实现原理就是在 "数据里面"增加高次项， 再去求 "解参数的过程"
+（2）通过代码实现：
 import sklearn.pipeline as pl
-import sklearn.preprocessing as sp</t>
-  </si>
-  <si>
-    <t>为了解决：欠拟合</t>
+import sklearn.preprocessing as sp
+model = pl.make_pipeline(sp.PolynomialFeatures(3), lm.LinearRegression() )</t>
   </si>
   <si>
     <t xml:space="preserve">决策树-回归问题
@@ -1481,7 +1716,8 @@
 a(i)越小越好，b(i)越大越好</t>
   </si>
   <si>
-    <t>评估模型</t>
+    <t xml:space="preserve">评估模型
+sklearn.metrics as sm </t>
   </si>
   <si>
     <t>回归业务</t>
@@ -1491,6 +1727,16 @@
 评估模型的好坏
 r2_score
 分类问题的"损失函数"</t>
+  </si>
+  <si>
+    <t>（1）平均绝对误差-MAE ：
+单个 "观测值" 与 "预测值" 的偏差的绝对值的平均
+（2）均方误差-MSE
+单个 "样本" 到"预测值" 的平方平均值；
+（3）中位数绝对偏差-MAD
+与数据中值绝对偏差的中值；
+（4）r2_score得分
+趋向于1，模型越好；趋向于0，模型越差.</t>
   </si>
   <si>
     <t>分类业务</t>
@@ -1727,7 +1973,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1909,13 +2155,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1936,7 +2188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,12 +2213,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,10 +2473,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2240,10 +2486,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2387,7 +2633,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2411,16 +2657,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2429,89 +2675,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2531,10 +2777,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2615,20 +2861,92 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2680,18 +2998,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2758,37 +3076,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3157,13 +3463,13 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="80" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -3171,33 +3477,33 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="80" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="80" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -3205,57 +3511,57 @@
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="6"/>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="94" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="6"/>
-      <c r="C12" s="70" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="95" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="I13" s="93"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3286,28 +3592,28 @@
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
       <c r="D9" s="1" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="4:7">
@@ -3315,31 +3621,31 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3404,16 +3710,16 @@
       <c r="C13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="102" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3421,9 +3727,9 @@
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80" t="s">
+      <c r="D14" s="99"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -3434,14 +3740,14 @@
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="81"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="83"/>
+      <c r="G15" s="107"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
       <c r="A16" s="14"/>
@@ -3458,7 +3764,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="14"/>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="108" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -3482,11 +3788,11 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14"/>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="15" t="s">
         <v>42</v>
       </c>
@@ -3504,14 +3810,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="14"/>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="108" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="108" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -3521,10 +3827,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="88"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="15" t="s">
         <v>47</v>
       </c>
@@ -3532,10 +3838,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="14"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="88"/>
+      <c r="E23" s="112"/>
       <c r="F23" s="15" t="s">
         <v>48</v>
       </c>
@@ -3543,10 +3849,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="14"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="88"/>
+      <c r="E24" s="112"/>
       <c r="F24" s="15" t="s">
         <v>49</v>
       </c>
@@ -3554,7 +3860,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="14"/>
-      <c r="B25" s="88"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="19"/>
       <c r="D25" s="15"/>
       <c r="E25" s="19"/>
@@ -3563,7 +3869,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="14"/>
-      <c r="B26" s="88"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="15" t="s">
         <v>50</v>
       </c>
@@ -3576,7 +3882,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="14"/>
-      <c r="B27" s="88"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="15" t="s">
         <v>52</v>
       </c>
@@ -3589,7 +3895,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="14"/>
-      <c r="B28" s="88"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="15" t="s">
         <v>54</v>
       </c>
@@ -3600,7 +3906,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="14"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="15" t="s">
         <v>55</v>
       </c>
@@ -3658,78 +3964,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="68" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="95" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="98" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="98" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="72"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="96"/>
+      <c r="C9" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="98" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="72"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="98" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3748,7 +4054,7 @@
   <sheetPr/>
   <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -3762,228 +4068,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="85" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="61" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="63" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="86" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="85" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="62" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="67" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="86" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="68" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="68" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="68" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="68" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="68" t="s">
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="68" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="68"/>
+      <c r="G16" s="92"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="68" t="s">
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="68"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="92"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="68"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="68" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="68"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="68" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="68"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4010,10 +4316,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4027,346 +4333,343 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="67"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="67"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="67"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="67"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="68" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="67"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="67"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="70" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="46" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="70" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="46" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="70" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="47"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="46" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="73" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="46" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="70" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="46" t="s">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="70" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="46" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="70" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="47"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="70" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="46" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="70" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="76" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="53"/>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="77"/>
+      <c r="B23" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="76" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="53"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="76" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="53"/>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="76"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="53"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="76" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="53"/>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="76" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="53"/>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="76" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="53"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="76" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="55"/>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="76" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" customFormat="1"/>
-    <row r="32" customFormat="1"/>
-    <row r="33" ht="57" customHeight="1" spans="1:5">
-      <c r="A33" s="7" t="s">
+    <row r="31" ht="60" customHeight="1"/>
+    <row r="32" ht="90" customHeight="1" spans="1:3">
+      <c r="A32" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="56"/>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="81" t="s">
         <v>190</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -4379,186 +4682,38 @@
       <c r="E34" s="16"/>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" ht="67" customHeight="1" spans="1:6">
-      <c r="A35" s="7"/>
+    <row r="35" ht="73" customHeight="1" spans="1:5">
+      <c r="A35" s="82"/>
       <c r="B35" s="5" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="E35" s="83"/>
+    </row>
+    <row r="36" ht="57" customHeight="1" spans="1:5">
+      <c r="A36" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="57"/>
-      <c r="B37" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" ht="27" spans="1:3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>217</v>
-      </c>
+      <c r="E36" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B21"/>
@@ -4572,346 +4727,492 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="19.0530973451327" customWidth="1"/>
-    <col min="3" max="3" width="31.929203539823" customWidth="1"/>
-    <col min="4" max="4" width="39.0353982300885" customWidth="1"/>
-    <col min="5" max="5" width="53.6991150442478" customWidth="1"/>
-    <col min="6" max="6" width="79.0619469026549" customWidth="1"/>
+    <col min="1" max="1" width="19.0530973451327" customWidth="1"/>
+    <col min="2" max="2" width="31.929203539823" customWidth="1"/>
+    <col min="3" max="3" width="65.6725663716814" customWidth="1"/>
+    <col min="4" max="4" width="64.0088495575221" customWidth="1"/>
+    <col min="5" max="5" width="79.0619469026549" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="67" customHeight="1" spans="1:5">
       <c r="A1" s="32" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" ht="54" spans="1:5">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="1:5">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="32"/>
+      <c r="B4" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="32"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" ht="27" spans="1:5">
+      <c r="A6" s="32"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" ht="67.5" spans="1:5">
+      <c r="A7" s="32"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:5">
+      <c r="A8" s="32"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="E8" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33" t="s">
+    </row>
+    <row r="9" ht="121.5" spans="1:5">
+      <c r="A9" s="32"/>
+      <c r="B9" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="C9" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" ht="81" spans="1:5">
+      <c r="A10" s="32"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" ht="94.5" spans="1:6">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35" t="s">
+      <c r="D10" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" ht="72" customHeight="1" spans="1:5">
+      <c r="A11" s="32"/>
+      <c r="B11" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="C11" s="41" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="5" ht="81" spans="1:6">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" ht="67.5" spans="1:5">
+      <c r="A12" s="32"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="35" t="s">
+      <c r="D12" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" ht="54" spans="1:5">
+      <c r="A13" s="32"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33" t="s">
+      <c r="D13" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" ht="27" spans="1:5">
+      <c r="A14" s="32"/>
+      <c r="B14" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="C14" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="D14" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" ht="63" customHeight="1" spans="1:5">
+      <c r="A15" s="32"/>
+      <c r="B15" s="42" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="35" t="s">
+      <c r="C15" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" ht="67.5" spans="1:6">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="34" t="s">
+    </row>
+    <row r="16" ht="81" spans="1:5">
+      <c r="A16" s="32"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" ht="31.5" spans="1:6">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34" t="s">
+      <c r="D16" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="E16" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="33" t="s">
+    </row>
+    <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
+      <c r="A17" s="32"/>
+      <c r="B17" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="C17" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="D17" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
+      <c r="E17" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="34" t="s">
+    </row>
+    <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
+      <c r="A18" s="32"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="32"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34" t="s">
+      <c r="E18" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34" t="s">
+    </row>
+    <row r="19" ht="72" customHeight="1" spans="1:5">
+      <c r="A19" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34" t="s">
+      <c r="B19" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33" t="s">
+      <c r="C19" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D19" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="32"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="33" t="s">
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" ht="109" customHeight="1" spans="1:5">
+      <c r="A20" s="45"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D20" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="33" t="s">
+      <c r="E20" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="35" t="s">
+    </row>
+    <row r="21" ht="40.5" spans="1:5">
+      <c r="A21" s="45"/>
+      <c r="B21" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="C21" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" ht="54" spans="1:6">
-      <c r="A19" s="32"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34" t="s">
+      <c r="D21" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="E21" s="54"/>
+    </row>
+    <row r="22" ht="121.5" spans="1:5">
+      <c r="A22" s="45"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="32"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="32"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33" t="s">
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" ht="33" customHeight="1" spans="1:5">
+      <c r="A23" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="B23" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" ht="54" spans="1:6">
-      <c r="A21" s="32"/>
-      <c r="B21" s="37" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="60"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="58"/>
+      <c r="B24" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C24" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D24" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E24" s="60"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="58"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="D25" s="58" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="32"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34" t="s">
+      <c r="E25" s="60"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="58"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" ht="40.5" spans="1:6">
-      <c r="A23" s="32"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="33" t="s">
+      <c r="E26" s="60"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="58"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="E27" s="60"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="58"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E28" s="60"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="58"/>
+      <c r="B29" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="C29" s="48" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="24" ht="67.5" spans="1:6">
-      <c r="A24" s="32"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="39" t="s">
+      <c r="D29" s="58"/>
+      <c r="E29" s="60"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="58"/>
+      <c r="B30" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="C30" s="48" t="s">
         <v>272</v>
       </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="60"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="58"/>
+      <c r="B31" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" s="60"/>
+    </row>
+    <row r="32" ht="54" spans="1:5">
+      <c r="A32" s="58"/>
+      <c r="B32" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="60"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="58"/>
+      <c r="B33" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="60"/>
+    </row>
+    <row r="34" ht="54" spans="1:5">
+      <c r="A34" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="62"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="58"/>
+    </row>
+    <row r="36" ht="40.5" spans="1:5">
+      <c r="A36" s="62"/>
+      <c r="B36" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" ht="67.5" spans="1:5">
+      <c r="A37" s="62"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>291</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:A24"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C11:C15"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E20:E22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4923,7 +5224,7 @@
   <sheetPr/>
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
@@ -4938,16 +5239,16 @@
   <sheetData>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" s="20" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="E2" s="22"/>
     </row>
@@ -4955,10 +5256,10 @@
       <c r="A3" s="24"/>
       <c r="B3" s="21"/>
       <c r="C3" s="25" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -4966,26 +5267,26 @@
       <c r="A4" s="24"/>
       <c r="B4" s="21"/>
       <c r="C4" s="25" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5" ht="37" customHeight="1" spans="1:5">
       <c r="A5" s="24"/>
       <c r="B5" s="21" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4993,10 +5294,10 @@
       <c r="B6" s="21"/>
       <c r="C6" s="27"/>
       <c r="D6" s="22" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="1:5">
@@ -5005,7 +5306,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="25"/>
       <c r="E7" s="22" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:5">
@@ -5014,7 +5315,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="25"/>
       <c r="E8" s="22" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:5">
@@ -5023,7 +5324,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="25"/>
       <c r="E9" s="22" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5031,7 +5332,7 @@
       <c r="B10" s="21"/>
       <c r="C10" s="27"/>
       <c r="D10" s="26" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="E10" s="22"/>
     </row>
@@ -5040,10 +5341,10 @@
       <c r="B11" s="21"/>
       <c r="C11" s="27"/>
       <c r="D11" s="21" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5052,7 +5353,7 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="25" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5061,7 +5362,7 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="25" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5070,32 +5371,32 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="25" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" ht="81" spans="1:5">
       <c r="A15" s="24"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="24"/>
       <c r="B16" s="20" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="E16" s="23"/>
     </row>
@@ -5104,25 +5405,25 @@
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="23" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" ht="188" customHeight="1" spans="1:5">
       <c r="A18" s="24"/>
       <c r="B18" s="20" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" ht="81" spans="1:5">
@@ -5130,10 +5431,10 @@
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="23" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5175,16 +5476,16 @@
   <sheetData>
     <row r="3" spans="5:9">
       <c r="E3" s="13" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="I3" s="15"/>
     </row>
@@ -5192,7 +5493,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="15" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -5201,7 +5502,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -5210,7 +5511,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -5218,26 +5519,26 @@
     <row r="7" ht="132" customHeight="1" spans="5:9">
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" ht="51" customHeight="1" spans="5:9">
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="G8" s="16" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="I8" s="19"/>
     </row>
@@ -5245,19 +5546,19 @@
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
       <c r="G9" s="16" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="13"/>
       <c r="F10" s="17" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -5284,11 +5585,12 @@
   <dimension ref="E7:H16"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="5" max="5" width="24.4336283185841" customWidth="1"/>
     <col min="6" max="6" width="14.8053097345133" customWidth="1"/>
     <col min="7" max="7" width="25.4867256637168" customWidth="1"/>
     <col min="8" max="8" width="54.1681415929204" customWidth="1"/>
@@ -5297,97 +5599,99 @@
     <row r="7" ht="130" customHeight="1" spans="5:8">
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" ht="54" spans="5:8">
-      <c r="E8" s="6" t="s">
-        <v>328</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" ht="114" customHeight="1" spans="5:8">
+      <c r="E8" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="H8" s="7"/>
+        <v>349</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="9" ht="54" spans="5:8">
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" ht="121.5" spans="5:8">
-      <c r="E10" s="6"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="10"/>
       <c r="G10" s="1"/>
       <c r="H10" s="11" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" ht="79" customHeight="1" spans="5:8">
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" ht="54" customHeight="1" spans="5:8">
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
       <c r="H12" s="9" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" ht="55" customHeight="1" spans="5:8">
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="12"/>
       <c r="G13" s="1"/>
       <c r="H13" s="5" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="5:8">
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" ht="81" spans="5:8">
-      <c r="E15" s="6"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="5" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" ht="27" spans="5:8">
-      <c r="E16" s="6"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
@@ -12,11 +12,11 @@
     <sheet name="0.分类" sheetId="11" r:id="rId3"/>
     <sheet name="0.预处理" sheetId="2" r:id="rId4"/>
     <sheet name="基础" sheetId="1" r:id="rId5"/>
-    <sheet name="1.回归问题" sheetId="4" r:id="rId6"/>
-    <sheet name="2.分类业务" sheetId="3" r:id="rId7"/>
-    <sheet name="3.聚类问题" sheetId="7" r:id="rId8"/>
-    <sheet name="模型评估" sheetId="5" r:id="rId9"/>
-    <sheet name="模型优化" sheetId="6" r:id="rId10"/>
+    <sheet name="1.回归" sheetId="4" r:id="rId6"/>
+    <sheet name="2.分类" sheetId="3" r:id="rId7"/>
+    <sheet name="3.聚类" sheetId="7" r:id="rId8"/>
+    <sheet name="评估" sheetId="5" r:id="rId9"/>
+    <sheet name="优化" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="460">
   <si>
     <t>numpy和python中的数学指标</t>
   </si>
@@ -1004,6 +1004,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>可以使用 "</t>
     </r>
     <r>
@@ -1035,6 +1042,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>（5）回归问题常用的</t>
     </r>
     <r>
@@ -1085,6 +1099,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">最小二乘法：就是试图找到一条直线，
 是所有样本到直线的 "欧式距离" 之和最小.  可以将损失函数 "对w和b分别求导" ，
 得到损失函数的 "导函数" ，并令 "导函数为0" 即可得到 "w和b的最优解".
@@ -1118,6 +1139,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">按照 "负梯度" 不停地 "调整函数权值" 的过程就叫作 "梯度下降法".
 它也叫 "蒙眼下山法"
 </t>
@@ -1179,6 +1207,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>sklearn.里面并不是使用“梯度下降法”
 所以没有 学习率等参数，
 但是：</t>
@@ -1249,6 +1284,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">"过拟合" 还有一个 "常见的原因"，
 就是模型 "参数值太大"，
 </t>
@@ -1316,68 +1358,164 @@
 model = pl.make_pipeline(sp.PolynomialFeatures(3), lm.LinearRegression() )</t>
   </si>
   <si>
-    <t xml:space="preserve">决策树-回归问题
-</t>
+    <t>决策树-回归问题
+（弱模型）</t>
+  </si>
+  <si>
+    <t>“机器学习”分类：
+注意：是机器学习</t>
+  </si>
+  <si>
+    <t>基于 "模型的学习"</t>
+  </si>
+  <si>
+    <t>根据 "数据的分布状态"，找到一个数学公式去表达它。</t>
+  </si>
+  <si>
+    <t>基于 "实例的学习"</t>
+  </si>
+  <si>
+    <t>"相似的输入" 必定产生 "相似的输出"。</t>
+  </si>
+  <si>
+    <t>核心思想：</t>
+  </si>
+  <si>
+    <t>相似的输入必会产生相似的输出</t>
+  </si>
+  <si>
+    <t>将 "具有相同属性" 的样本划分到 "一个叶子节点下" ，从而实现 "分类或回归"</t>
+  </si>
+  <si>
+    <t>sklearn 中提供的 "树形结构"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "树形结构" 就是一个二叉树结构。</t>
+  </si>
+  <si>
+    <t>决策树底层结构 为二叉树
+cart树：中文名 "回归" 与  "分类" 树
+: 回归mse</t>
+  </si>
+  <si>
+    <t>一棵决策树包含一个根节点、若干个内部节点和若干个叶子节点</t>
+  </si>
+  <si>
+    <t>树</t>
+  </si>
+  <si>
+    <t>二叉树</t>
+  </si>
+  <si>
+    <t>每个节点，只分出 "两个子节点"。</t>
+  </si>
+  <si>
+    <t>完全二叉树</t>
+  </si>
+  <si>
+    <t>完全二叉树：每个节点，一定会有两个子节点。</t>
+  </si>
+  <si>
+    <t>"回归问题"  与 "分类问题" 
+都会用到 决策树，区别是什么</t>
+  </si>
+  <si>
+    <t>它们划分最优特征的方式不同：
+回归问题是：基于“均方误差”来寻找最优特征和值的</t>
+  </si>
+  <si>
+    <t>“决策树”优先划分？</t>
+  </si>
+  <si>
+    <t>"优先划分" 特征属性比较强的 "特征"，</t>
+  </si>
+  <si>
+    <t>特殊属性有哪些：
+//=================回归问题
+（1）MSE:均方误差
+//=================分类问题
+（2）信息熵
+（3）信息增益
+（4）增益率</t>
+  </si>
+  <si>
+    <t>决策树“两大问题”</t>
+  </si>
+  <si>
+    <t>如何“选取最优特征”？</t>
+  </si>
+  <si>
+    <t>（回归问题）划分最优分割特殊的方式：
+均方误差。</t>
+  </si>
+  <si>
+    <t>当前节点，何时“停止分裂”？</t>
+  </si>
+  <si>
+    <t>“特征已经”用完了</t>
+  </si>
+  <si>
+    <t>子节点中“没有样本”了</t>
+  </si>
+  <si>
+    <t>树达到了人为预先设定的“最大深度”</t>
+  </si>
+  <si>
+    <t>节点的“样本数量”达到了“人为设定的阈值”。</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>决策树底层结构</t>
+      <t>代码实现：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>“单颗决策树”</t>
+    </r>
+  </si>
+  <si>
+    <t>import sklearn.tree as st
+st.DecisionTreeRegressor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">需要指定树的深度：max_depth=8，
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>为二叉树
-cart: 回归mse</t>
+      <t>不指定深度会过拟合。</t>
     </r>
   </si>
   <si>
-    <t>决策树两大问题</t>
-  </si>
-  <si>
-    <t>如何“选取最优特征”？</t>
-  </si>
-  <si>
-    <t>（回归问题）划分最优分割特殊的方式：均方误差。</t>
-  </si>
-  <si>
-    <t>当前节点，何时“停止分裂”？</t>
-  </si>
-  <si>
-    <t>“特征已经”用完了</t>
-  </si>
-  <si>
-    <t>子节点中“没有样本”了</t>
-  </si>
-  <si>
-    <t>树达到了人为预先设定的“最大深度”</t>
-  </si>
-  <si>
-    <t>节点的“样本数量”达到了“人为设定的阈值”。</t>
-  </si>
-  <si>
-    <t>决策树即能做“回归”又能做“分类”</t>
-  </si>
-  <si>
-    <t>区别在于它们划分“最优特征”的方式不一样。</t>
+    <t>决策树与matplotlib</t>
   </si>
   <si>
     <t xml:space="preserve">sklearn 里面的 "决策树" ,还封装了 matplotlib的。 </t>
@@ -1395,8 +1533,17 @@
     <t>feature_importances_</t>
   </si>
   <si>
-    <t xml:space="preserve">决策树 “模型本身”也有一个随机性，
+    <t>"划分决策树" 的目的</t>
+  </si>
+  <si>
+    <t>"相同特征的样本" 放到 "同一个节点下"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">随机种子
 </t>
+  </si>
+  <si>
+    <t>决策树 “模型本身”也有一个随机性，</t>
   </si>
   <si>
     <t>注意区别：训练集 和 测试集 里面的随机种子
@@ -1404,37 +1551,107 @@
 （2）一个是模型的</t>
   </si>
   <si>
-    <t>（弱模型）</t>
-  </si>
-  <si>
-    <t>单个模型得到的预测结果总是片面的</t>
+    <t>cart树</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "cart树（Classification and Regression Tree）（中文名 "回归" 与  "分类" 树）"</t>
+  </si>
+  <si>
+    <t>cart树在回归时的步骤：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（1）第一步：原始数据集S，此时树的深度depth=0，
+（2）第二步：针对集合S，遍历 "每一个特征"的"每一个value"，
+     用 "该value" 将原数据集S分裂成 "2个集合"：
+          左集合left(&lt;=value的样本)
+          右集合right(&gt;value的样本)
+     分别计算"两个集合"的均方误差，会得到两个均方误差，
+     两个均方误差“相加”最小的value,
+     这个就是 "最佳分割特征" 以及 "最佳分割值"
+（3）第三步：找到 "最佳分割特征" 以及 "最佳分割value" 之后，
+ 用该value将集合S分裂成2个集合，这时深度加一depth += 1。
+（4）复步骤2,3，直到达到 "终止条件" 。
+（5）中止条件：没有样本、没有特征、达到指定深度、达到指定样本数等等。
+        </t>
   </si>
   <si>
     <t>基于-“决策树”-集成学习</t>
   </si>
   <si>
+    <t>就算是 决策树 ，效果也不是很好，因为它是弱模型，预测结果不会很好
+单个模型得到的预测结果总是片面的</t>
+  </si>
+  <si>
     <t>Boosting类：</t>
   </si>
   <si>
-    <t>每颗树和每颗树之间是 “有一定的联系” 的</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>划分标准：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+每颗树和每颗树之间是 “有一定的联系” 的</t>
+    </r>
   </si>
   <si>
     <t>AdaBoost（正向激励、自适应、增强）：核心是调整权重值
 sklearn.ensemble</t>
   </si>
   <si>
-    <t>（1）分配 "初始权重"，构建一棵 "带有权重的决策树"
-（2）对那些 "预测值" 与 "实际值不同的样本"，提高其权重，由此形成 "第二棵决策树"。依次类推
-（3）通过各个树分别预测*权重来得到预测值。</t>
+    <t xml:space="preserve">（1）第一步：为“样本”分配 "初始权重"，构建一棵 "带有权重的决策树"
+（2）第二步：将“训练样本”代入模型，预测，对那些 "预测值" 与 "实际值不同的样本"，提高其权重，由此形成 "第二棵决策树"。依次类推
+（3）第三步：最后：通过 “各个树分别预测”* “权重”来得到预测值。
+</t>
   </si>
   <si>
     <t>GBDT：梯度提升</t>
   </si>
   <si>
+    <t xml:space="preserve">   （1）"多轮迭代"，每轮迭代产生一个"弱分类器（决策树）"，
+   （2）"每个分类器" 在上一轮分类器的残差**（残差在数理统计中是指实际观察值与估计值（拟合值）之间的差）**基础上进行训练。
+              基于 "预测结果的残差" 设计 "损失函数"。 "GBDT训练的过程" 即是 "求该损失函数最小值" 的过程。</t>
+  </si>
+  <si>
     <t>Bagging类：指（打包）</t>
   </si>
   <si>
-    <t>每颗树和每颗树之间是 “没有联系” 的</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>划分标准：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+每颗树和每颗树之间是 “没有联系” 的</t>
+    </r>
   </si>
   <si>
     <t>自助聚合
@@ -1477,10 +1694,6 @@
 而且 "还随机选择部分特征"，</t>
   </si>
   <si>
-    <t>分类问题:
-预测值是离散值</t>
-  </si>
-  <si>
     <t>逻辑回归
 （线性回归+逻辑函数）</t>
   </si>
@@ -1508,7 +1721,54 @@
 是不是2类别：是、不是</t>
   </si>
   <si>
+    <t>逻辑回归的流程：</t>
+  </si>
+  <si>
+    <t>（1）第一步：根据样本数据，构建"线性回归模型"，预测输出（连续）
+（2）第二步： "逻辑函数" 作用下，将连续值转换为 "两个离散值（0或1）"</t>
+  </si>
+  <si>
+    <t>为什么要 将 "线性" 转为 "非线性"？</t>
+  </si>
+  <si>
+    <t>因为 "线性模型" 的表达能力不是那么强。
+"水果的直径" 示例，能说1明这个问题</t>
+  </si>
+  <si>
+    <t>分类时，按样本等比划分。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stratify=y #按照 "y值(类别)"进行等比划分</t>
+  </si>
+  <si>
     <t>决策树-分类问题</t>
+  </si>
+  <si>
+    <t>如何选取特征？</t>
+  </si>
+  <si>
+    <t>信息熵</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "度量样本集合纯度" 的 "常用指标"</t>
+  </si>
+  <si>
+    <t>信息增益</t>
+  </si>
+  <si>
+    <t>用 "划分前的信息熵" 减去 "划分后的信息熵"，就是决策树获得的 "信息增益"</t>
+  </si>
+  <si>
+    <t>增益率</t>
+  </si>
+  <si>
+    <t>信息增益与熵值的比率</t>
+  </si>
+  <si>
+    <t>基尼系数（gini）</t>
+  </si>
+  <si>
+    <t>"基尼系数" 和 "信息熵的套路" 是相同的，只是计算方式不同。</t>
   </si>
   <si>
     <t>将 "具有相同属性" 的样本划分到 
@@ -1524,226 +1784,6 @@
   <si>
     <t xml:space="preserve">如何“选取最优特征”？
 （分类问题） </t>
-  </si>
-  <si>
-    <t>信息熵</t>
-  </si>
-  <si>
-    <t>ID3决策树:信息增益："著名的ID3决策树" 学习算法就是以 "信息增益" 为 "准则" 来划分属性。
-（不是二叉树）</t>
-  </si>
-  <si>
-    <t>C4.5算法使用的是:增益率。
-（不是二叉树）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cart树，使用的是基尼系数。
-//=============================
-cart树在作回归时，使用的是均方误差
-在分类问题时，使用的是基尼系数。
-</t>
-  </si>
-  <si>
-    <t>代码实现
-（和回归问题一样，都有，只是获取结果的方式不相同）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdaBoost </t>
-  </si>
-  <si>
-    <t>自助聚合</t>
-  </si>
-  <si>
-    <t>随机森林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>获取结果的方式：投票</t>
-  </si>
-  <si>
-    <t>"回归问题" 是去拿 "平均值"，
-而 "回归问题" 是：投票,谁的样本多就取谁。</t>
-  </si>
-  <si>
-    <t>支持向量机
-（它比较出名）
-（寻找最优的超平面）</t>
-  </si>
-  <si>
-    <t>解决了 “线性不可分” 的问题
-它能解决“线性可分”，又能解决“线性不可分”
-（它支持少量的样本分类，）不支持许多样本进行分类。</t>
-  </si>
-  <si>
-    <t>线性可分</t>
-  </si>
-  <si>
-    <t>线性不可分：
-一维升二维
-二维升三维
-它是通过 "升维变换"来解决“线性不可分”的问题</t>
-  </si>
-  <si>
-    <t>核函数
-（1）线性核函数，在原始空间进行升维变换
-（2）多项式核函数（增加多次项）（用得少，因为复杂度太高，比较费时间）
-（3）径向基核函数（也叫高斯核函数，中间密集周围稀疏）（用得多，性能比较高）
-等等。</t>
-  </si>
-  <si>
-    <t>朴素贝页斯
-（它以参数少而出名）
-（朴素 指 "特征独立假设"
-贝页斯 R指贝叶斯定理）</t>
-  </si>
-  <si>
-    <t>通过计算概率区分类别
-（自然语言处理：）</t>
-  </si>
-  <si>
-    <t>贝页斯定理组成：
-（1）事件概率
-（2）联合概率
-（3）条件概率
-事件独立性：两个事件相互不影响 
-先验概率 与 后验概率 ,后验概率的计算要以先验概率为基础
-贝页斯定理 ： 
-P(A|B) = P(A)*P(B|A)/P(B)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朴素 + 贝页斯：
-</t>
-  </si>
-  <si>
-    <t>朴素-贝叶斯分类器：
-（1）高斯朴素贝叶斯：样本的值是连续的
-（2）多项式朴素贝叶斯：样本的值是离散值
-（3）伯努利朴素贝叶斯：样本是二元离散值的时候。</t>
-  </si>
-  <si>
-    <t>特征独立的情况先，优先使用</t>
-  </si>
-  <si>
-    <t>聚类
-（只传X值就可以了）
-（聚类属于无监督学习）
-（大部分是有监督学习）
-（聚类是无监督的里面的产要形式）
-（无监督学习其它还有什么模型呢：主成分析，高斯混合模型）</t>
-  </si>
-  <si>
-    <t>相似度度量方式</t>
-  </si>
-  <si>
-    <t>欧氏距离</t>
-  </si>
-  <si>
-    <t>两点之前连线的长度</t>
-  </si>
-  <si>
-    <t>曼哈顿距离</t>
-  </si>
-  <si>
-    <t>闵氏距离，p=1就是欧式，p=2是曼哈顿</t>
-  </si>
-  <si>
-    <t>切比雪夫距离</t>
-  </si>
-  <si>
-    <t>聚类算法分类</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原型：基于中心
-基于“原型”的聚类
-</t>
-  </si>
-  <si>
-    <t>K-Means
-：K-均值聚类(每次局部更新)
-（可以预测）
-案例：
-3个楼开3个超市
-“噪声敏感”
-“聚类结果不稳定”</t>
-  </si>
-  <si>
-    <t>k-means和DBSCAN 
-是互补的</t>
-  </si>
-  <si>
-    <t>密度：它没有中心，有噪声（-1表示噪声）
-    （邻域半径，最小样本数量）
-基于“密度”的聚类</t>
-  </si>
-  <si>
-    <t>DBSCAN
-“噪声不敏感”
-“聚类结果不稳定”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">层次：
-基于“层次”的聚类，
-</t>
-  </si>
-  <si>
-    <t>没有中心
-AgglomerativeClustering
-（凝聚层次，没有边界，没有噪声，也没有核心点的概念
-）
-需要提前给出一个K
-“噪声不敏感”
-“聚类结果不稳定”</t>
-  </si>
-  <si>
-    <t>它与k-means和dbscan都有一点像
-需要值，但又不基于中心。</t>
-  </si>
-  <si>
-    <t>聚类，可以做预测、推荐</t>
-  </si>
-  <si>
-    <t>聚类业务</t>
-  </si>
-  <si>
-    <t>内密外疏</t>
-  </si>
-  <si>
-    <t>使用 轮廓系数 系数来衡量
-S(i) = (b(i) - a(i)) / max{a(i),b(i)}
-a(i)越小越好，b(i)越大越好</t>
-  </si>
-  <si>
-    <t xml:space="preserve">评估模型
-sklearn.metrics as sm </t>
-  </si>
-  <si>
-    <t>回归业务</t>
-  </si>
-  <si>
-    <t>sklearn.metrics
-评估模型的好坏
-r2_score
-分类问题的"损失函数"</t>
-  </si>
-  <si>
-    <t>（1）平均绝对误差-MAE ：
-单个 "观测值" 与 "预测值" 的偏差的绝对值的平均
-（2）均方误差-MSE
-单个 "样本" 到"预测值" 的平方平均值；
-（3）中位数绝对偏差-MAD
-与数据中值绝对偏差的中值；
-（4）r2_score得分
-趋向于1，模型越好；趋向于0，模型越差.</t>
-  </si>
-  <si>
-    <t>分类业务</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 分类问题评估指标：
-</t>
   </si>
   <si>
     <r>
@@ -1754,7 +1794,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">简单任务：精度（准确率）、错误率。
+      <t xml:space="preserve">ID3决策树:信息增益："著名的ID3决策树" 学习算法就是以 "信息增益" 为 "准则" 来划分属性。
 </t>
     </r>
     <r>
@@ -1766,8 +1806,368 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（针对全部样本）</t>
+      <t>（不是二叉树）</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C4.5算法使用的是:增益率。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（不是二叉树）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cart树，使用的是基尼系数。
+//=============================
+cart树在作回归时，使用的是均方误差
+在分类问题时，使用的是基尼系数。
+</t>
+  </si>
+  <si>
+    <t>与回归问题时是相同的。</t>
+  </si>
+  <si>
+    <t>AdaBoost</t>
+  </si>
+  <si>
+    <t>都有</t>
+  </si>
+  <si>
+    <t>自助聚合</t>
+  </si>
+  <si>
+    <t>随机森林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>获取结果的方式：投票</t>
+  </si>
+  <si>
+    <t>"回归问题" 是去拿 "平均值"，
+而 "回归问题" 是：投票,谁的样本多就取谁。</t>
+  </si>
+  <si>
+    <t>支持向量机
+（它比较出名）
+（寻找最优的超平面）</t>
+  </si>
+  <si>
+    <t>"线性模型"</t>
+  </si>
+  <si>
+    <t>在 "二维空间" 是一条直线，
+在 "三维空间" 是一个平面，
+更高维度下的 "线性模型" 很难用几何图形来表示（称为超平面）</t>
+  </si>
+  <si>
+    <t>解决了 “线性不可分” 的问题
+它能解决“线性可分”，又能解决“线性不可分”
+（它支持少量的样本分类，）不支持许多样本进行分类。</t>
+  </si>
+  <si>
+    <t>线性可分</t>
+  </si>
+  <si>
+    <t>线性不可分：
+一维升二维
+二维升三维
+它是通过 "升维变换"来解决“线性不可分”的问题</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>它的目的是寻找一个 "超平面" 来对样本进行分割，
+"分割的原则" 是 "间隔最大化"（即数据集的边缘点到分界线的距离d最大，如下图），
+最终转化为一个 "凸二次规划问题" 来求解</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所谓 "支持向量" </t>
+  </si>
+  <si>
+    <t>虚线穿过边缘点</t>
+  </si>
+  <si>
+    <t>核函数</t>
+  </si>
+  <si>
+    <t>线性核函数（Linear）</t>
+  </si>
+  <si>
+    <t>仅在原始空间寻求线性分类边界，主要用于线性可分问题</t>
+  </si>
+  <si>
+    <t>多项式核函数（Polynomial Kernel）</t>
+  </si>
+  <si>
+    <t>"增加高次项特征的方法" 做升维变换（效率低，用的秒）</t>
+  </si>
+  <si>
+    <t>径向基核函数（Radial Basis Function Kernel）（也叫"高斯核函数"）</t>
+  </si>
+  <si>
+    <t>很强的灵活性，应用很广泛</t>
+  </si>
+  <si>
+    <t>支持向量机：（经常被简写为SVM）</t>
+  </si>
+  <si>
+    <t>它是一个二分类模型，"逻辑回归" 也是："二分类"模型</t>
+  </si>
+  <si>
+    <t>朴素贝页斯
+（它以参数少而出名）
+（朴素 指 "特征独立假设"
+贝页斯 R指贝叶斯定理）</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>反映  "随机事件" 出现的 "可能性大小"</t>
+  </si>
+  <si>
+    <t>概率分类</t>
+  </si>
+  <si>
+    <t>事件概率</t>
+  </si>
+  <si>
+    <t>事件的概率
+我们可以将随机事件记为A或B，则
+ P（A）//A的概率.
+ P（B）//B的概率.</t>
+  </si>
+  <si>
+    <t>聚合概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "多个条件" 且 "所有条件同时成立"的概率，
+A:你吃早饭
+B:我吃早饭
+P ( A , B )
+或
+P(AB)
+或
+P(A \bigcap B)</t>
+  </si>
+  <si>
+    <t>条件概率</t>
+  </si>
+  <si>
+    <t>在 "某个条件"， "另一个事件" 的概率。
+P(A|B)
+p(下雨|阴天)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 事件的独立性</t>
+  </si>
+  <si>
+    <t>两个事件互不影响，</t>
+  </si>
+  <si>
+    <t>A:你吃早饭 0.24  B:我吃早饭
+这两个事件的发生，不相互影响。</t>
+  </si>
+  <si>
+    <t>先验概率与后验概率</t>
+  </si>
+  <si>
+    <t>"后验概率" 要以 "先验证概率" 为基础</t>
+  </si>
+  <si>
+    <t>(1)先验概率：
+直接问你他姓什么
+P(姓)
+（2）后验概率：
+//问你来自牛家村的人，他姓什么
+P(姓|牛)</t>
+  </si>
+  <si>
+    <t>贝叶斯定理</t>
+  </si>
+  <si>
+    <t>P(A|B) = P(A) * P(B|A) / P(B)
+B的条件下A发生的概率  =  A的事件概率 * A条件下B发生的概率  /  B的事件概率</t>
+  </si>
+  <si>
+    <t>"朴素"贝叶斯</t>
+  </si>
+  <si>
+    <t>朴素 + 贝页斯：</t>
+  </si>
+  <si>
+    <t>"朴素" 指 "事件之间相互独立" 无影响
+根据 "贝叶斯公式" 计算结果进行分类的模型</t>
+  </si>
+  <si>
+    <t>朴素-贝叶斯分类器：
+（1）高斯朴素贝叶斯：样本的值是连续的
+（2）多项式朴素贝叶斯：样本的值是离散值
+（3）伯努利朴素贝叶斯：样本是二元离散值的时候。</t>
+  </si>
+  <si>
+    <t>特征独立的情况先，优先使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聚类
+（只传X值就可以了）
+（聚类属于无监督学习）
+（大部分是有监督学习）
+（聚类是无监督的里面的主要形式）
+</t>
+  </si>
+  <si>
+    <t>相似度度量方式</t>
+  </si>
+  <si>
+    <t>欧氏距离</t>
+  </si>
+  <si>
+    <t>两点之前连线的长度</t>
+  </si>
+  <si>
+    <t>曼哈顿距离</t>
+  </si>
+  <si>
+    <t>闵氏距离，p=1就是欧式，p=2是曼哈顿</t>
+  </si>
+  <si>
+    <t>切比雪夫距离</t>
+  </si>
+  <si>
+    <t>聚类算法分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原型：基于中心
+基于“原型”的聚类
+</t>
+  </si>
+  <si>
+    <t>K-Means
+：K-均值聚类(每次局部更新)
+（可以预测）
+案例：
+3个楼开3个超市
+“噪声敏感”
+“聚类结果不稳定”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（1）第一步：根据事先 "已知的聚类数"，"随机选择" 若干样本作为 "聚类中心"，计算 "每个样本" 与 "每个聚类中心" 的 "欧式距离" 。
+样本离哪个 "聚类中心" 近，就算 "哪个聚类中心" 的聚类，
+完成一次聚类划分.
+（2）第二步：计算每个聚类的 "几何中心"，
+如果 "几何中心" 与 "聚类中心" 不重合，
+再以 "几何中心" 作为"新的聚类中心"，重新划分聚类. 
+（3）重复以上过程，
+  直到某一次聚类划分后，//
+  所得到的 "各个几何中心" 与其 "所依据的聚类中心" 
+  重合或足够接近为止.  </t>
+  </si>
+  <si>
+    <t>k-means和DBSCAN 
+是互补的</t>
+  </si>
+  <si>
+    <t>密度：它没有中心，有噪声（-1表示噪声）
+    （邻域半径，最小样本数量）
+基于“密度”的聚类</t>
+  </si>
+  <si>
+    <t>DBSCAN
+“噪声不敏感”
+“聚类结果不稳定”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">层次：
+基于“层次”的聚类，
+</t>
+  </si>
+  <si>
+    <t>没有中心
+AgglomerativeClustering
+（凝聚层次，没有边界，没有噪声，也没有核心点的概念
+）
+需要提前给出一个K
+“噪声不敏感”
+“聚类结果不稳定”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>它与k-means和dbscan都有一点像
+需要值，但又不基于中心。</t>
+  </si>
+  <si>
+    <t>聚类，可以做预测、推荐</t>
+  </si>
+  <si>
+    <t>聚类业务</t>
+  </si>
+  <si>
+    <t>内密外疏</t>
+  </si>
+  <si>
+    <t>使用 轮廓系数 系数来衡量
+S(i) = (b(i) - a(i)) / max{a(i),b(i)}
+a(i)越小越好，b(i)越大越好</t>
+  </si>
+  <si>
+    <t>轮廓系数</t>
+  </si>
+  <si>
+    <t>score = sm.silhouette_score
+取值范围是 -1 到 1
+这个值大于0就算比较合理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">评估模型
+sklearn.metrics as sm </t>
+  </si>
+  <si>
+    <t>回归业务</t>
+  </si>
+  <si>
+    <t>sklearn.metrics
+评估模型的好坏
+r2_score
+分类问题的"损失函数"</t>
+  </si>
+  <si>
+    <t>（1）平均绝对误差-MAE ：
+单个 "观测值" 与 "预测值" 的偏差的绝对值的平均
+（2）均方误差-MSE
+单个 "样本" 到"预测值" 的平方平均值；
+（3）中位数绝对偏差-MAD
+与数据中值绝对偏差的中值；
+（4）r2_score得分
+趋向于1，模型越好；趋向于0，模型越差.</t>
+  </si>
+  <si>
+    <t>损失函数：</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1777,9 +2177,71 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+用于衡量 “模型的预测值” 与 “真实值” 之间的 “不一致程度”。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如：均方误差。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> "回归问题" 里面是要 "越接近越好"。
+"分类问题" 里面， "对了" 就好，"不对" 就不好。</t>
+  </si>
+  <si>
+    <t>分类业务</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+如：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"交叉熵"：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"交叉熵"  是度量  "两个类别"  之间的  "概率"  的差异信息的</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 分类问题评估指标：</t>
+  </si>
+  <si>
+    <t>简单任务：精度（准确率）、错误率。
+（针对全部样本）
 （多个类别放在一起统计）
 精度 + 错误率 = 1</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1895,8 +2357,38 @@
 "验证曲线"是指根据不同的评估系数，来评估模型的优劣.</t>
   </si>
   <si>
-    <t>但是：两个最优参数放在一起，不一定是最优的参数，
-如以， 验证曲线一次只能验证一个参数，所以 "验证曲线" 的弊端也就是这个</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但是：两个最优参数放在一起，不一定是最优的参数，
+如以， 验证曲线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一次只能验证一个参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>， 所以 "验证曲线" 的弊端也就是这个</t>
+    </r>
   </si>
   <si>
     <t>学习曲线
@@ -1913,11 +2405,31 @@
     <t>（1）可能给上全部数据都还不够</t>
   </si>
   <si>
-    <t>（1）样本数量均衡化:样本上采样。
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（1）样本数量均衡化:样本上采样。
 （2）样本数量均衡化:样本下采样。
 （3）class_weight='balanced'
-（4）置信概率：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（4）置信概率：
 print(model.predict_proba(test_x))</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1973,7 +2485,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2160,14 +2672,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2182,6 +2688,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2189,6 +2707,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2207,6 +2731,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2468,15 +2998,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2496,6 +3017,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2633,7 +3163,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2657,16 +3187,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2675,25 +3205,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2756,8 +3274,20 @@
     <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2767,7 +3297,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2776,7 +3306,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2785,9 +3327,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2797,301 +3336,358 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3463,13 +4059,13 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="98" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -3477,33 +4073,33 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="7"/>
-      <c r="C7" s="80" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="98" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="7"/>
-      <c r="C8" s="80" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="80"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="7"/>
-      <c r="C9" s="80" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="98" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -3511,57 +4107,57 @@
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="7"/>
-      <c r="C10" s="80" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="80"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="7"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="113" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="7"/>
-      <c r="C12" s="94" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="114" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="I13" s="113"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="I13" s="135"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3579,8 +4175,8 @@
   <sheetPr/>
   <dimension ref="D9:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3592,60 +4188,60 @@
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
       <c r="D9" s="1" t="s">
-        <v>363</v>
+        <v>446</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>364</v>
+        <v>447</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>365</v>
+        <v>448</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>366</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" ht="67.5" spans="4:7">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" ht="99" customHeight="1" spans="4:7">
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>370</v>
+      <c r="G11" s="4" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>373</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>374</v>
+        <v>457</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>376</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -3679,252 +4275,252 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="102" t="s">
+      <c r="G13" s="123" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104" t="s">
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="15" t="s">
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="107"/>
+      <c r="G15" s="129"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="14"/>
-      <c r="B17" s="108" t="s">
+      <c r="A17" s="124"/>
+      <c r="B17" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="14"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="124"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="14"/>
-      <c r="B19" s="109" t="s">
+      <c r="A19" s="124"/>
+      <c r="B19" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="108" t="s">
+      <c r="A21" s="124"/>
+      <c r="B21" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="108" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="15" t="s">
+      <c r="A22" s="124"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="15" t="s">
+      <c r="A23" s="124"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="14"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="15" t="s">
+      <c r="A24" s="124"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="14"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="14"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="15" t="s">
+      <c r="A26" s="124"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="15" t="s">
+      <c r="A27" s="124"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="14"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="15" t="s">
+      <c r="A28" s="124"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="14"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="15" t="s">
+      <c r="A29" s="124"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="14"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="15" t="s">
+      <c r="A30" s="124"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3964,78 +4560,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="86" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="93"/>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="114" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="117" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="96"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="115"/>
+      <c r="C8" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="117" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="96"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="117" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="96"/>
-      <c r="C10" s="97" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="117" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4054,8 +4650,8 @@
   <sheetPr/>
   <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4068,228 +4664,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="104" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="86" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="105" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="85" t="s">
+      <c r="E5" s="106"/>
+      <c r="F5" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="104" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="87" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88" t="s">
+      <c r="E6" s="106"/>
+      <c r="F6" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="105" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="104" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="86" t="s">
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="85"/>
+      <c r="G8" s="104"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="91" t="s">
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="105" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="92" t="s">
+      <c r="D10" s="103"/>
+      <c r="E10" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="92" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="92" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="92" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="92" t="s">
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="92" t="s">
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="103"/>
+      <c r="C16" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="111"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="92" t="s">
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="92"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="111"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84" t="s">
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="92"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="111"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="92" t="s">
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="92"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="111"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="92" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="92"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4333,332 +4929,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="85"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="84"/>
+      <c r="B4" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="85"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="67"/>
+      <c r="D5" s="85"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="67"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66" t="s">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="85"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="86" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="67"/>
+      <c r="D10" s="85"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="85"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="88" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="70" t="s">
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="88" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="70" t="s">
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="88" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="71"/>
-      <c r="B15" s="69" t="s">
+      <c r="A15" s="89"/>
+      <c r="B15" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="73"/>
+      <c r="D15" s="91"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="70" t="s">
+      <c r="A16" s="89"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="91" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="70" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="88" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="70" t="s">
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="88" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="70" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="88" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="71"/>
-      <c r="B20" s="69" t="s">
+      <c r="A20" s="89"/>
+      <c r="B20" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="88" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="70" t="s">
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="88" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="94" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="77"/>
-      <c r="B23" s="75" t="s">
+      <c r="A23" s="95"/>
+      <c r="B23" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="94" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="77"/>
-      <c r="B24" s="75" t="s">
+      <c r="A24" s="95"/>
+      <c r="B24" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="94" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="77"/>
-      <c r="B25" s="75" t="s">
+      <c r="A25" s="95"/>
+      <c r="B25" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="76"/>
+      <c r="D25" s="94"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="77"/>
-      <c r="B26" s="75" t="s">
+      <c r="A26" s="95"/>
+      <c r="B26" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="94" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="77"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="95"/>
+      <c r="B27" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="94" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="77"/>
-      <c r="B28" s="75" t="s">
+      <c r="A28" s="95"/>
+      <c r="B28" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="94" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="77"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="95"/>
+      <c r="B29" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="94" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="79"/>
-      <c r="B30" s="75" t="s">
+      <c r="A30" s="97"/>
+      <c r="B30" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="94" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="98" t="s">
         <v>187</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -4669,7 +5265,7 @@
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="99" t="s">
         <v>190</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -4678,33 +5274,33 @@
       <c r="C34" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="15"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="82"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="5" t="s">
         <v>193</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="83"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="102"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="98" t="s">
         <v>195</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="80" t="s">
+      <c r="D36" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="83"/>
+      <c r="E36" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4727,476 +5323,607 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.0530973451327" customWidth="1"/>
     <col min="2" max="2" width="31.929203539823" customWidth="1"/>
-    <col min="3" max="3" width="65.6725663716814" customWidth="1"/>
+    <col min="3" max="3" width="67.9911504424779" customWidth="1"/>
     <col min="4" max="4" width="64.0088495575221" customWidth="1"/>
     <col min="5" max="5" width="79.0619469026549" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" ht="54" spans="1:5">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33" t="s">
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" ht="27" spans="1:5">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="32"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="32"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" ht="67.5" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39" t="s">
+      <c r="E6" s="54"/>
+    </row>
+    <row r="7" ht="54" spans="1:5">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="52" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="52" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" ht="121.5" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="38" t="s">
+    <row r="9" ht="94.5" spans="1:5">
+      <c r="A9" s="50"/>
+      <c r="B9" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="52"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="41" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="32"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" ht="67.5" spans="1:5">
-      <c r="A12" s="32"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="41" t="s">
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" ht="54" spans="1:5">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="32"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="41" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="52"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="32"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="32"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="52" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="32"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="41" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="52" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="32"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="52" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="32"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="34" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="52" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="45"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="47" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="66" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="45"/>
-      <c r="B21" s="52" t="s">
+      <c r="A21" s="62"/>
+      <c r="B21" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="68"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="45"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="56" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="57"/>
-    </row>
-    <row r="23" ht="33" customHeight="1" spans="1:5">
-      <c r="A23" s="58" t="s">
+      <c r="E22" s="60"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="60"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="58"/>
-      <c r="B24" s="61" t="s">
+      <c r="C23" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="D23" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:5">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="E24" s="60"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61" t="s">
+      <c r="D24" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" ht="27" spans="1:5">
+      <c r="A25" s="72"/>
+      <c r="B25" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="60"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="58"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="58" t="s">
+      <c r="C25" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="E26" s="60"/>
+      <c r="D25" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" ht="44" customHeight="1" spans="1:5">
+      <c r="A26" s="72"/>
+      <c r="B26" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="58"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="E27" s="60"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="E28" s="60"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="58"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" ht="51" customHeight="1" spans="1:5">
+      <c r="A29" s="72"/>
       <c r="B29" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="60"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="58"/>
+        <v>277</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="50"/>
+    </row>
+    <row r="30" ht="94.5" spans="1:5">
+      <c r="A30" s="72"/>
       <c r="B30" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="60"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="58"/>
-      <c r="B31" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" s="60"/>
-    </row>
-    <row r="32" ht="54" spans="1:5">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="60"/>
+        <v>279</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" s="50"/>
+    </row>
+    <row r="31" ht="36" customHeight="1" spans="1:5">
+      <c r="A31" s="72"/>
+      <c r="B31" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31" s="50"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="72"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="50"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="58"/>
-      <c r="B33" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="60"/>
-    </row>
-    <row r="34" ht="54" spans="1:5">
-      <c r="A34" s="62" t="s">
-        <v>280</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="E34" s="58" t="s">
-        <v>284</v>
-      </c>
+      <c r="A33" s="72"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="50"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="72"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="50"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="62"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="E35" s="58"/>
-    </row>
-    <row r="36" ht="40.5" spans="1:5">
-      <c r="A36" s="62"/>
-      <c r="B36" s="61" t="s">
-        <v>286</v>
+      <c r="A35" s="72"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="50"/>
+    </row>
+    <row r="36" ht="44" customHeight="1" spans="1:5">
+      <c r="A36" s="72"/>
+      <c r="B36" s="75" t="s">
+        <v>290</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" s="58" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" ht="67.5" spans="1:5">
-      <c r="A37" s="62"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="63" t="s">
-        <v>290</v>
-      </c>
-      <c r="E37" s="58" t="s">
         <v>291</v>
       </c>
+      <c r="D36" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="51"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="72"/>
+      <c r="B37" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="50"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="72"/>
+      <c r="B38" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" s="50"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="72"/>
+      <c r="B39" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" ht="40.5" spans="1:5">
+      <c r="A40" s="72"/>
+      <c r="B40" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="E40" s="50"/>
+    </row>
+    <row r="41" ht="46" customHeight="1" spans="1:5">
+      <c r="A41" s="72"/>
+      <c r="B41" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="50"/>
+    </row>
+    <row r="42" ht="176" customHeight="1" spans="1:5">
+      <c r="A42" s="72"/>
+      <c r="B42" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="50"/>
+    </row>
+    <row r="43" ht="47" customHeight="1" spans="1:5">
+      <c r="A43" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="79"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="50"/>
+    </row>
+    <row r="44" ht="94" customHeight="1" spans="1:5">
+      <c r="A44" s="72"/>
+      <c r="B44" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" s="77" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" ht="98" customHeight="1" spans="1:5">
+      <c r="A45" s="72"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" spans="1:5">
+      <c r="A46" s="72"/>
+      <c r="B46" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="E46" s="77" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" ht="67.5" spans="1:5">
+      <c r="A47" s="81"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="E47" s="77" t="s">
+        <v>321</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A1:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="A43:A47"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B13"/>
@@ -5204,14 +5931,16 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
     <mergeCell ref="E20:E22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5222,233 +5951,438 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E19"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="50.3185840707965" customWidth="1"/>
-    <col min="2" max="2" width="28.6017699115044" customWidth="1"/>
-    <col min="3" max="3" width="45.3451327433628" customWidth="1"/>
-    <col min="4" max="4" width="36.6991150442478" customWidth="1"/>
-    <col min="5" max="5" width="70.5398230088496" customWidth="1"/>
+    <col min="1" max="1" width="28.6017699115044" customWidth="1"/>
+    <col min="2" max="2" width="45.3451327433628" customWidth="1"/>
+    <col min="3" max="3" width="36.5044247787611" customWidth="1"/>
+    <col min="4" max="4" width="70.5398230088496" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="24"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" ht="67.5" spans="1:5">
-      <c r="A4" s="24"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" ht="37" customHeight="1" spans="1:5">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="24"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:5">
-      <c r="A7" s="24"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="1:5">
-      <c r="A8" s="24"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" ht="67.5" spans="1:5">
-      <c r="A9" s="24"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="22" t="s">
+    <row r="1" ht="49" customHeight="1" spans="1:4">
+      <c r="A1" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" ht="44" customHeight="1" spans="1:4">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:4">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" ht="71" customHeight="1" spans="1:4">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" ht="71" customHeight="1" spans="1:4">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" ht="90" customHeight="1" spans="1:4">
+      <c r="A6" s="31"/>
+      <c r="B6" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="33"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" ht="37" customHeight="1" spans="1:4">
+      <c r="A11" s="33"/>
+      <c r="B11" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="33"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:4">
+      <c r="A13" s="33"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:4">
+      <c r="A14" s="33"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:4">
+      <c r="A15" s="33"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="33"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="24"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="24"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="25" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="25" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" ht="81" spans="1:5">
-      <c r="A15" s="24"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="26" t="s">
+      <c r="C17" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="24"/>
-      <c r="B16" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" ht="81" spans="1:5">
-      <c r="A17" s="24"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" ht="188" customHeight="1" spans="1:5">
-      <c r="A18" s="24"/>
-      <c r="B18" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" ht="81" spans="1:5">
-      <c r="A19" s="31"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>326</v>
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="33"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" ht="81" spans="1:4">
+      <c r="A21" s="43"/>
+      <c r="B21" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" ht="85" customHeight="1" spans="1:4">
+      <c r="A22" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" ht="65" customHeight="1" spans="1:4">
+      <c r="A23" s="33"/>
+      <c r="B23" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" ht="67.5" spans="1:4">
+      <c r="A24" s="33"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" ht="57" customHeight="1" spans="1:4">
+      <c r="A25" s="33"/>
+      <c r="B25" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="33"/>
+      <c r="B26" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" ht="35" customHeight="1" spans="1:4">
+      <c r="A28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" ht="28" customHeight="1" spans="1:4">
+      <c r="A29" s="33"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:4">
+      <c r="A30" s="43"/>
+      <c r="B30" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" s="26"/>
+    </row>
+    <row r="32" ht="54" spans="1:4">
+      <c r="A32" s="33"/>
+      <c r="B32" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" ht="108" spans="1:4">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:4">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:4">
+      <c r="A35" s="33"/>
+      <c r="B35" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" ht="81" spans="1:4">
+      <c r="A36" s="33"/>
+      <c r="B36" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" ht="50" customHeight="1" spans="1:4">
+      <c r="A37" s="33"/>
+      <c r="B37" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="D37" s="49"/>
+    </row>
+    <row r="38" ht="50" customHeight="1" spans="1:4">
+      <c r="A38" s="33"/>
+      <c r="B38" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="39" ht="81" spans="1:4">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C5:C14"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D11:D14"/>
+  <mergeCells count="14">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D17:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5459,118 +6393,132 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E3:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="5" max="5" width="24.6991150442478" customWidth="1"/>
-    <col min="6" max="6" width="24.2743362831858" customWidth="1"/>
-    <col min="7" max="7" width="37.3893805309735" customWidth="1"/>
-    <col min="8" max="8" width="25.5663716814159" customWidth="1"/>
-    <col min="9" max="9" width="15.9380530973451" customWidth="1"/>
+    <col min="1" max="1" width="24.6991150442478" customWidth="1"/>
+    <col min="2" max="2" width="24.2743362831858" customWidth="1"/>
+    <col min="3" max="3" width="37.3893805309735" customWidth="1"/>
+    <col min="4" max="4" width="25.5663716814159" customWidth="1"/>
+    <col min="5" max="5" width="41.6283185840708" customWidth="1"/>
+    <col min="6" max="6" width="51.4690265486726" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:9">
-      <c r="E3" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="5:9">
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="5:9">
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="5:9">
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" ht="132" customHeight="1" spans="5:9">
-      <c r="E7" s="13"/>
-      <c r="F7" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" ht="51" customHeight="1" spans="5:9">
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" ht="128" customHeight="1" spans="5:9">
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9">
-      <c r="E10" s="13"/>
-      <c r="F10" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="15"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" ht="226" customHeight="1" spans="1:9">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" ht="128" customHeight="1" spans="1:6">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5582,125 +6530,163 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.25"/>
   </sheetPr>
-  <dimension ref="E7:H16"/>
+  <dimension ref="E7:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="24.4336283185841" customWidth="1"/>
     <col min="6" max="6" width="14.8053097345133" customWidth="1"/>
     <col min="7" max="7" width="25.4867256637168" customWidth="1"/>
     <col min="8" max="8" width="54.1681415929204" customWidth="1"/>
+    <col min="9" max="9" width="45.3362831858407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="130" customHeight="1" spans="5:8">
+    <row r="7" ht="40.5" spans="5:8">
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>344</v>
+      <c r="F7" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>345</v>
+        <v>422</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" ht="114" customHeight="1" spans="5:8">
-      <c r="E8" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>348</v>
-      </c>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" ht="48" customHeight="1" spans="5:8">
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="5:8">
-      <c r="E9" s="7"/>
+        <v>424</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" ht="114" customHeight="1" spans="5:8">
+      <c r="E9" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="F9" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" ht="121.5" spans="5:8">
-      <c r="E10" s="7"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" ht="79" customHeight="1" spans="5:8">
-      <c r="E11" s="7"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" ht="54" customHeight="1" spans="5:8">
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" ht="55" customHeight="1" spans="5:8">
-      <c r="E13" s="7"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" ht="40.5" spans="5:8">
-      <c r="E14" s="7"/>
-      <c r="F14" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>359</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="5:9">
+      <c r="E10" s="1"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="5:9">
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" ht="54" spans="5:8">
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" ht="121.5" spans="5:8">
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" ht="79" customHeight="1" spans="5:8">
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" ht="81" spans="5:8">
-      <c r="E15" s="7"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="5:8">
-      <c r="E16" s="7"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" ht="54" customHeight="1" spans="5:8">
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" ht="55" customHeight="1" spans="5:8">
+      <c r="E16" s="11"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="5" t="s">
-        <v>362</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="5:8">
+      <c r="E17" s="11"/>
+      <c r="F17" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" ht="81" spans="5:8">
+      <c r="E18" s="11"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="5:8">
+      <c r="E19" s="11"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="5" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E8:E16"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G16"/>
+  <mergeCells count="8">
+    <mergeCell ref="E9:E19"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="I10:I11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
@@ -3287,7 +3287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3305,12 +3305,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4059,13 +4053,13 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="96" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -4073,33 +4067,33 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="11"/>
-      <c r="C7" s="98" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="96" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="11"/>
-      <c r="C8" s="98" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="98"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="11"/>
-      <c r="C9" s="98" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="96" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -4107,57 +4101,57 @@
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="11"/>
-      <c r="C10" s="98" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="98"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="11"/>
-      <c r="C11" s="113" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="111" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="11"/>
-      <c r="C12" s="113" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="112" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="I13" s="135"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="I13" s="133"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4275,252 +4269,252 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="D13" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="123" t="s">
+      <c r="G13" s="121" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="124"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126" t="s">
+      <c r="A14" s="122"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="124"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="23" t="s">
+      <c r="A15" s="122"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="129"/>
+      <c r="G15" s="127"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="23" t="s">
+      <c r="A16" s="122"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="124"/>
-      <c r="B17" s="130" t="s">
+      <c r="A17" s="122"/>
+      <c r="B17" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="124"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="23" t="s">
+      <c r="A18" s="122"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="124"/>
-      <c r="B19" s="131" t="s">
+      <c r="A19" s="122"/>
+      <c r="B19" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="23" t="s">
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="124"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="A20" s="122"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="124"/>
-      <c r="B21" s="130" t="s">
+      <c r="A21" s="122"/>
+      <c r="B21" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="130" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="124"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="23" t="s">
+      <c r="A22" s="122"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="124"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="23" t="s">
+      <c r="A23" s="122"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="23"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="124"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="23" t="s">
+      <c r="A24" s="122"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="124"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="124"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="23" t="s">
+      <c r="A26" s="122"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="124"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="23" t="s">
+      <c r="A27" s="122"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="124"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="23" t="s">
+      <c r="A28" s="122"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="124"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="23" t="s">
+      <c r="A29" s="122"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="124"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="23" t="s">
+      <c r="A30" s="122"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4560,78 +4554,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="84" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="112"/>
-      <c r="C6" s="113" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="112" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="115" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="115"/>
-      <c r="C8" s="116" t="s">
+      <c r="B8" s="113"/>
+      <c r="C8" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="115" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="115"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="113"/>
+      <c r="C9" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="115" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="115"/>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="113"/>
+      <c r="C10" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="115" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4664,228 +4658,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="102" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="105" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="103" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="104" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="102" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="106" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107" t="s">
+      <c r="E6" s="104"/>
+      <c r="F6" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="103" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="102" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="105" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="104"/>
+      <c r="G8" s="102"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="110" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="103" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="103"/>
-      <c r="C10" s="103" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="111" t="s">
+      <c r="D10" s="101"/>
+      <c r="E10" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="111" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="111" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="111" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="111" t="s">
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="111" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="103"/>
-      <c r="C16" s="103" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="111"/>
+      <c r="G16" s="109"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="111" t="s">
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="111"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="109"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103" t="s">
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="106"/>
-      <c r="G18" s="111"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="109"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="111" t="s">
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="106"/>
-      <c r="G19" s="111"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="109"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="111" t="s">
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="106"/>
-      <c r="G20" s="111"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4929,332 +4923,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="83"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="83"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="83"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="D6" s="83"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="85"/>
+      <c r="D7" s="83"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="85"/>
+      <c r="D8" s="83"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="83"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="83"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="86" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="88" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="88" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="86" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="89"/>
-      <c r="B15" s="87" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="88" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="89" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="88" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="86" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="88" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="86" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="89"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="88" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="86" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="89"/>
-      <c r="B20" s="87" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="86" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="88" t="s">
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="86" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="92" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="95"/>
-      <c r="B23" s="93" t="s">
+      <c r="A23" s="93"/>
+      <c r="B23" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="94" t="s">
+      <c r="D23" s="92" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="95"/>
-      <c r="B24" s="93" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="92" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="95"/>
-      <c r="B25" s="93" t="s">
+      <c r="A25" s="93"/>
+      <c r="B25" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="94"/>
+      <c r="D25" s="92"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="95"/>
-      <c r="B26" s="93" t="s">
+      <c r="A26" s="93"/>
+      <c r="B26" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="92" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="95"/>
-      <c r="B27" s="93" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D27" s="92" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="95"/>
-      <c r="B28" s="93" t="s">
+      <c r="A28" s="93"/>
+      <c r="B28" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="92" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="95"/>
-      <c r="B29" s="93" t="s">
+      <c r="A29" s="93"/>
+      <c r="B29" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="92" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="97"/>
-      <c r="B30" s="93" t="s">
+      <c r="A30" s="95"/>
+      <c r="B30" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="92" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="96" t="s">
         <v>187</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5265,7 +5259,7 @@
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="97" t="s">
         <v>190</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5274,33 +5268,33 @@
       <c r="C34" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="23"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="101"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="5" t="s">
         <v>193</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="102"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="100"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="96" t="s">
         <v>195</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="98" t="s">
+      <c r="D36" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="102"/>
+      <c r="E36" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5325,7 +5319,7 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A39" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:A47"/>
     </sheetView>
   </sheetViews>
@@ -5339,581 +5333,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="53"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="54"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="56" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="56" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="58" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="50" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="52"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="58" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="58" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="52"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="58" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="52"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="50"/>
-      <c r="B15" s="59" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="50" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="50"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="58" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="50" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="50" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="52" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="50" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="64"/>
+      <c r="E19" s="62"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="62"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="52" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="64" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="62"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="68"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="62"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="52" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="60"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="72"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="52" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="E24" s="50"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="72"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="50"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="72"/>
-      <c r="B26" s="74" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="49" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="72"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="E27" s="50"/>
+      <c r="E27" s="48"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="52" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="50"/>
+      <c r="E28" s="48"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="72"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="70"/>
+      <c r="B29" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="50"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="48"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="72"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="70"/>
+      <c r="B30" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="E30" s="50"/>
+      <c r="E30" s="48"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="72"/>
-      <c r="B31" s="51" t="s">
+      <c r="A31" s="70"/>
+      <c r="B31" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="E31" s="50"/>
+      <c r="E31" s="48"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="72"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51" t="s">
+      <c r="A32" s="70"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="50"/>
+      <c r="E32" s="48"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="72"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="61" t="s">
+      <c r="A33" s="70"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="50"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="72"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="61" t="s">
+      <c r="A34" s="70"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="E34" s="50"/>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="72"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="61" t="s">
+      <c r="A35" s="70"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="E35" s="50"/>
+      <c r="E35" s="48"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="72"/>
-      <c r="B36" s="75" t="s">
+      <c r="A36" s="70"/>
+      <c r="B36" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="49"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="72"/>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="70"/>
+      <c r="B37" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="48"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="72"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="70"/>
+      <c r="B38" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="50"/>
+      <c r="E38" s="48"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="72"/>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="70"/>
+      <c r="B39" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="50"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="48"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="72"/>
-      <c r="B40" s="61" t="s">
+      <c r="A40" s="70"/>
+      <c r="B40" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="E40" s="50"/>
+      <c r="E40" s="48"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="72"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="70"/>
+      <c r="B41" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="50"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="48"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="72"/>
-      <c r="B42" s="61" t="s">
+      <c r="A42" s="70"/>
+      <c r="B42" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="50"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="48"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="76" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="50"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="48"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="72"/>
-      <c r="B44" s="61" t="s">
+      <c r="A44" s="70"/>
+      <c r="B44" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="80" t="s">
+      <c r="C44" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="E44" s="77" t="s">
+      <c r="E44" s="75" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="72"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61" t="s">
+      <c r="A45" s="70"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="54" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="72"/>
-      <c r="B46" s="51" t="s">
+      <c r="A46" s="70"/>
+      <c r="B46" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="75" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="81"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="76" t="s">
+      <c r="A47" s="79"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="E47" s="77" t="s">
+      <c r="E47" s="75" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5953,8 +5947,8 @@
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5966,404 +5960,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="26" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="33"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="33"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="36" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="33"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="39" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="37" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="33"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="39" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="37" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="33"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="38" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="36" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="38" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="33"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="28" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="33"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="28" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="33"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="40"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="43"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="33"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="33"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="26" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="33"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="D25" s="47"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="33"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="24" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="33"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="26" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="33"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="26" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="24" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="43"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="33"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="24" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="26" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="24" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="24" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="33"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="24" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="33"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="24" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="33"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="D37" s="49"/>
+      <c r="D37" s="47"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="33"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="47" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="30" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="28" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6410,107 +6404,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6532,7 +6526,7 @@
   </sheetPr>
   <dimension ref="E7:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D2" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D2" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -6571,7 +6565,7 @@
       <c r="E9" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>427</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -6583,74 +6577,74 @@
     </row>
     <row r="10" ht="54" spans="5:9">
       <c r="E10" s="1"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>433</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="8" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="14" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="5" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="11"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="11"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="5" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="11"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>441</v>
       </c>
@@ -6662,7 +6656,7 @@
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="11"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="5" t="s">
@@ -6670,7 +6664,7 @@
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="11"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="5" t="s">

--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="3.聚类" sheetId="7" r:id="rId8"/>
     <sheet name="评估" sheetId="5" r:id="rId9"/>
     <sheet name="优化" sheetId="6" r:id="rId10"/>
+    <sheet name="cv2" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="555">
   <si>
     <t>numpy和python中的数学指标</t>
   </si>
@@ -2473,6 +2474,485 @@
   </si>
   <si>
     <t>在搜索范围内随机选择样本点。</t>
+  </si>
+  <si>
+    <t>opencv即能处理图像，
+又能处理视频</t>
+  </si>
+  <si>
+    <t>图像数字处理技术</t>
+  </si>
+  <si>
+    <t>采样</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如何拍照：相机、手机、摄像机。
+将空"间上连续的图像"变换成"离散点"的操作称为"采样"
+</t>
+  </si>
+  <si>
+    <t>分辨率：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 分辨率是 “数字图像”可辨别的“最小细节”
+（宽和高）</t>
+  </si>
+  <si>
+    <t>图像数字化</t>
+  </si>
+  <si>
+    <t>将“一副画面”的数据转换为“计知算机”能够处理的“数字形式”</t>
+  </si>
+  <si>
+    <t>量化</t>
+  </si>
+  <si>
+    <t>把“每个像素值”变成“数值方式”去表示。</t>
+  </si>
+  <si>
+    <t>灰度级</t>
+  </si>
+  <si>
+    <t>每个像素的取值范围称为“灰度级”，
+从最暗到最亮
+量化等级越多，所得图像层次越丰富，灰度分辨率高，图像质量好，但数据量大</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一副8位的图像，表示每个采样点有2^8=256级。从最暗到最亮，可以分辨256个级别。
+</t>
+  </si>
+  <si>
+    <t>一副32级的灰度图像，每个采样点从最暗到最亮，可以分辨32个级别</t>
+  </si>
+  <si>
+    <t>图像</t>
+  </si>
+  <si>
+    <t>灰度图像</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">“单通道”的“数字图像”被称为“灰度图”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shape(2,2), （高、宽）
+第一个2，二维数组里面有几个一维数组
+第二个2，一维数组里面有几个元素。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">二维数组：shape(2,2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[
+[0,255] #第一行
+[255,0] #第二行
+]</t>
+    </r>
+  </si>
+  <si>
+    <t>位深度：8</t>
+  </si>
+  <si>
+    <t>彩色图像</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">多通道数字图像（多通道或3通道）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shape(2,2,3), 高、宽、通道数
+第一个2，3维数组里面有几个二维数组
+第二个2，2维数组里面有几个一维数组
+第三个值3，1维数组里面有几个元素</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">三维数组：3个值是一个容器里面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[
+[[0,0,0],[255,255,255]] #第一行
+[[255,255,255],[0,0,0]] #第二行
+]</t>
+    </r>
+  </si>
+  <si>
+    <t>位深度：24</t>
+  </si>
+  <si>
+    <t>色彩空间</t>
+  </si>
+  <si>
+    <t>RGB：分别记录在红（Red）、绿（Green）、蓝（Blue）三原色的分量上的亮度。</t>
+  </si>
+  <si>
+    <t>空间变换：常见颜色空间可以通过计算公式
+实现相互转化，这个过程叫做颜色空间变化。</t>
+  </si>
+  <si>
+    <t>（1）opencv里面只能“彩色图像”转“灰度”
+（2）灰度怎么转彩色。属于GAN技术，人工智能的一个方向，它不属于opencv技术。它是学习之后预测出来的结果。</t>
+  </si>
+  <si>
+    <t>HSV：该颜色空间可以用一个圆锥来表示。
+（1）HSV表示色相(hue)：0-360,
+      但opencv里面进行了压缩， 所以是0-180。
+（2）饱和度(saturation)：0到1
+      但opencv里面进行了重新映射，0-255 
+（3）亮度(value)：0到1
+      但opencv里面进行了重新映射，0-255</t>
+  </si>
+  <si>
+    <t>YUV：亮度信号Y和两个色差信号R－Y、B－Y，最后发送端将亮度和色差三个信号，
+（1）Y表示亮度
+（2）UV表示色差信号</t>
+  </si>
+  <si>
+    <t>CMYK：CMYK颜色空间应用于印刷工业。</t>
+  </si>
+  <si>
+    <t>Lab：Lab的色彩空间要比RGB模式和CMYK模式的色彩空间大，自然界中任何一点色都可以在Lab空间中表达出来。</t>
+  </si>
+  <si>
+    <t>图像操作色彩</t>
+  </si>
+  <si>
+    <t>灰度化</t>
+  </si>
+  <si>
+    <t>二值化/反二值化</t>
+  </si>
+  <si>
+    <t>色彩提取</t>
+  </si>
+  <si>
+    <t>直方图均值化</t>
+  </si>
+  <si>
+    <t>灰度图像直方图均值化</t>
+  </si>
+  <si>
+    <t>彩色图像直方图均值化</t>
+  </si>
+  <si>
+    <t>亮度、饱和度、色调调整</t>
+  </si>
+  <si>
+    <t>形态操作</t>
+  </si>
+  <si>
+    <t>仿射变换</t>
+  </si>
+  <si>
+    <t>翻转（镜像）:包括水平和垂直</t>
+  </si>
+  <si>
+    <t>平移</t>
+  </si>
+  <si>
+    <t>旋转</t>
+  </si>
+  <si>
+    <t>透视变换</t>
+  </si>
+  <si>
+    <t>图像形状校正</t>
+  </si>
+  <si>
+    <t>算术运算</t>
+  </si>
+  <si>
+    <t>加法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（最高值到255）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去除噪声、水印叠加。</t>
+    </r>
+  </si>
+  <si>
+    <t>保证两张图片的尺寸相同</t>
+  </si>
+  <si>
+    <t>加法-按照权重相加</t>
+  </si>
+  <si>
+    <t>（注意亮度调节参数）</t>
+  </si>
+  <si>
+    <t>相减</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">运行检测、速度检测。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（最低减到0）（注意减数与被减数不同，会影响结果）</t>
+    </r>
+  </si>
+  <si>
+    <t>大小变化</t>
+  </si>
+  <si>
+    <t>缩小</t>
+  </si>
+  <si>
+    <t>通过删除矩阵中的元素来实现，</t>
+  </si>
+  <si>
+    <t>放大</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最邻近插值法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（速度快）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>双线性插值法：精度高</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（精度高）</t>
+    </r>
+  </si>
+  <si>
+    <t>裁剪</t>
+  </si>
+  <si>
+    <t>随机裁剪</t>
+  </si>
+  <si>
+    <t>通过对数组进行切片来实现</t>
+  </si>
+  <si>
+    <t>中心裁剪</t>
+  </si>
+  <si>
+    <t>每次裁剪图片的中心</t>
+  </si>
+  <si>
+    <t>腐蚀和膨胀</t>
+  </si>
+  <si>
+    <t>腐蚀</t>
+  </si>
+  <si>
+    <t>够将图像的边界点消除，使图像沿着边界向内收缩，
+从外向内收缩。
+（拿一个“全部值是1的数组”与“图像”做“与运行”）</t>
+  </si>
+  <si>
+    <t>膨胀</t>
+  </si>
+  <si>
+    <t>（拿一个“全部值是1的数组”与“图像”做“或运行”）</t>
+  </si>
+  <si>
+    <t>开运算与闭运算</t>
+  </si>
+  <si>
+    <t>开运算</t>
+  </si>
+  <si>
+    <t>先腐蚀，再膨胀。</t>
+  </si>
+  <si>
+    <t>闭运算</t>
+  </si>
+  <si>
+    <t>先膨胀，再腐蚀，</t>
+  </si>
+  <si>
+    <t>形态学梯度</t>
+  </si>
+  <si>
+    <t>膨胀-腐蚀，提取边缘</t>
+  </si>
+  <si>
+    <t>拿到轮廓</t>
+  </si>
+  <si>
+    <t>礼貌运算</t>
+  </si>
+  <si>
+    <t>“原始图像”-“开运算”</t>
+  </si>
+  <si>
+    <t>黑帽运算</t>
+  </si>
+  <si>
+    <t>“闭运算”-“原始图像”</t>
+  </si>
+  <si>
+    <t>得到内部瑕疵区域。</t>
+  </si>
+  <si>
+    <t>梯度运算</t>
+  </si>
+  <si>
+    <t>模糊</t>
+  </si>
+  <si>
+    <t>"减小"像素之前的差异</t>
+  </si>
+  <si>
+    <t>锐化</t>
+  </si>
+  <si>
+    <t>"加大"像素之前的差异，与模糊相反，
+白的更白，黑的更黑，边缘更加清晰。</t>
+  </si>
+  <si>
+    <t>边沿检测</t>
+  </si>
+  <si>
+    <t>把 "图像梯度最大"的部分找出来。</t>
+  </si>
+  <si>
+    <t>轮廓</t>
+  </si>
+  <si>
+    <t>轮廓查找、绘制</t>
+  </si>
+  <si>
+    <t>绘制矩形、圆型、椭圆包围</t>
+  </si>
+  <si>
+    <t>多边形拟合</t>
+  </si>
+  <si>
+    <t>用一个“多边形近似拟合”图形</t>
   </si>
 </sst>
 </file>
@@ -2673,12 +3153,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3163,7 +3649,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3187,16 +3673,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3205,427 +3691,475 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3636,8 +4170,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3645,22 +4185,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4053,105 +4584,105 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="9"/>
-      <c r="C7" s="96" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="9"/>
-      <c r="C8" s="96" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="117"/>
+      <c r="E8" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="9"/>
-      <c r="C9" s="96" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="9"/>
-      <c r="C10" s="96" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="9"/>
-      <c r="C11" s="111" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="130" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="9"/>
-      <c r="C12" s="111" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="131" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="I13" s="133"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="I13" s="148"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4181,60 +4712,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="25" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="24" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="1"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="27" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="27" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4243,6 +4774,570 @@
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="17.7610619469027" customWidth="1"/>
+    <col min="4" max="4" width="26.4070796460177" customWidth="1"/>
+    <col min="5" max="5" width="37.2477876106195" customWidth="1"/>
+    <col min="6" max="6" width="55.5398230088496" customWidth="1"/>
+    <col min="7" max="7" width="33.9911504424779" customWidth="1"/>
+    <col min="8" max="8" width="18.9911504424779" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" ht="40.5" spans="3:8">
+      <c r="C7" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" ht="27" spans="3:8">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" ht="27" spans="3:8">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" ht="54" spans="3:8">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" ht="27" spans="3:8">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" ht="67.5" spans="3:8">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" ht="78" customHeight="1" spans="3:8">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" ht="61" customHeight="1" spans="3:8">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" ht="94.5" spans="3:8">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" ht="54" customHeight="1" spans="3:8">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" ht="27" spans="3:8">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" ht="56" customHeight="1" spans="5:6">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="2"/>
+      <c r="D22" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="2"/>
+      <c r="D23" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="2"/>
+      <c r="D24" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="2"/>
+      <c r="D26" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" ht="25" customHeight="1" spans="3:6">
+      <c r="C27" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="12"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="12"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="12"/>
+      <c r="D30" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="12"/>
+      <c r="D31" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" ht="27" spans="3:7">
+      <c r="C33" s="12"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="12"/>
+      <c r="D34" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="12"/>
+      <c r="D37" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="12"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" ht="40.5" spans="3:6">
+      <c r="C39" s="12"/>
+      <c r="D39" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="3:6">
+      <c r="C40" s="12"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="12"/>
+      <c r="D41" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="12"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" ht="33" customHeight="1" spans="3:6">
+      <c r="C43" s="12"/>
+      <c r="D43" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="12"/>
+      <c r="D44" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="15"/>
+      <c r="D45" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="46" ht="27" customHeight="1" spans="3:6">
+      <c r="C46" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" ht="27" spans="3:6">
+      <c r="C47" s="2"/>
+      <c r="D47" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" ht="19" customHeight="1" spans="3:6">
+      <c r="C48" s="2"/>
+      <c r="D48" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="2"/>
+      <c r="D50" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="2"/>
+      <c r="D51" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C7:C19"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C27:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="A2:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4269,252 +5364,252 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="119" t="s">
+      <c r="E13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="121" t="s">
+      <c r="G13" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="122"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="122"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="21" t="s">
+      <c r="A15" s="138"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="126" t="s">
+      <c r="F15" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="127"/>
+      <c r="G15" s="142"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="122"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="122"/>
-      <c r="B17" s="128" t="s">
+      <c r="A17" s="138"/>
+      <c r="B17" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="122"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="138"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="122"/>
-      <c r="B19" s="129" t="s">
+      <c r="A19" s="138"/>
+      <c r="B19" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="122"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="122"/>
-      <c r="B21" s="128" t="s">
+      <c r="A21" s="138"/>
+      <c r="B21" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="128" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="122"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="21" t="s">
+      <c r="A22" s="138"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="122"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="21" t="s">
+      <c r="A23" s="138"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="122"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="21" t="s">
+      <c r="A24" s="138"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="122"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="122"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="21" t="s">
+      <c r="A26" s="138"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="122"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="138"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="122"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="21" t="s">
+      <c r="A28" s="138"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="122"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="21" t="s">
+      <c r="A29" s="138"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="122"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="21" t="s">
+      <c r="A30" s="138"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4554,78 +5649,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="105" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="131" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="134" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="113"/>
-      <c r="C8" s="114" t="s">
+      <c r="B8" s="132"/>
+      <c r="C8" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="134" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="113"/>
-      <c r="C9" s="114" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="134" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="113"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="132"/>
+      <c r="C10" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="134" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4658,228 +5753,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="121" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="103" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="122" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="102" t="s">
+      <c r="E5" s="123"/>
+      <c r="F5" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="121" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="104" t="s">
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105" t="s">
+      <c r="E6" s="123"/>
+      <c r="F6" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="122" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102" t="s">
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="121" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="103" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="102"/>
+      <c r="G8" s="121"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="108" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="122" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="101"/>
-      <c r="C10" s="101" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="109" t="s">
+      <c r="D10" s="120"/>
+      <c r="E10" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="109" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="109" t="s">
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="109" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="109" t="s">
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="109" t="s">
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="101"/>
-      <c r="C16" s="101" t="s">
+      <c r="B16" s="120"/>
+      <c r="C16" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="109"/>
+      <c r="G16" s="128"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="109" t="s">
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="109"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="128"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101" t="s">
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="109"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="128"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="109" t="s">
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="109"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="128"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="109" t="s">
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="109"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4923,378 +6018,378 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="83"/>
+      <c r="D3" s="104"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="104"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="104"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="104"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="104"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="104"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="103"/>
+      <c r="B9" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="105" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="104"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="104"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="107" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="86" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="107" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="86" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="107" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="87"/>
-      <c r="B15" s="85" t="s">
+      <c r="A15" s="108"/>
+      <c r="B15" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="110"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="86" t="s">
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="110" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="86" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="107" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="86" t="s">
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="107" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="87"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="86" t="s">
+      <c r="A19" s="108"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="107" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="87"/>
-      <c r="B20" s="85" t="s">
+      <c r="A20" s="108"/>
+      <c r="B20" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="107" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="86" t="s">
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="107" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="113" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="93"/>
-      <c r="B23" s="91" t="s">
+      <c r="A23" s="114"/>
+      <c r="B23" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="113" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="93"/>
-      <c r="B24" s="91" t="s">
+      <c r="A24" s="114"/>
+      <c r="B24" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="113" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="93"/>
-      <c r="B25" s="91" t="s">
+      <c r="A25" s="114"/>
+      <c r="B25" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="92"/>
+      <c r="D25" s="113"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="93"/>
-      <c r="B26" s="91" t="s">
+      <c r="A26" s="114"/>
+      <c r="B26" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="113" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="93"/>
-      <c r="B27" s="91" t="s">
+      <c r="A27" s="114"/>
+      <c r="B27" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="113" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="93"/>
-      <c r="B28" s="91" t="s">
+      <c r="A28" s="114"/>
+      <c r="B28" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="113" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="93"/>
-      <c r="B29" s="91" t="s">
+      <c r="A29" s="114"/>
+      <c r="B29" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="113" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="95"/>
-      <c r="B30" s="91" t="s">
+      <c r="A30" s="116"/>
+      <c r="B30" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="115" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="113" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="27" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="21"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="99"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="119"/>
+      <c r="B35" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="100"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="100"/>
+      <c r="E36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5333,581 +6428,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="73"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="54" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="54" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="54" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="71" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="56" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="71" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="56" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="56" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="50"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="56" t="s">
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="50"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="48"/>
-      <c r="B15" s="57" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="71" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="48"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="56" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="71" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="71" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="50" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="71" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="81" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="62"/>
+      <c r="E19" s="83"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="60"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="50" t="s">
+      <c r="A20" s="81"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="85" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="60"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="81"/>
+      <c r="B21" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="66"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="60"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="50" t="s">
+      <c r="A22" s="81"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="58"/>
+      <c r="E22" s="79"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="48"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="50" t="s">
+      <c r="A24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="E24" s="48"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="70"/>
-      <c r="B25" s="72" t="s">
+      <c r="A25" s="91"/>
+      <c r="B25" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="91"/>
+      <c r="B26" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="80" t="s">
         <v>270</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="70" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="70"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="E27" s="48"/>
+      <c r="E27" s="69"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="50" t="s">
+      <c r="A28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="70"/>
-      <c r="B29" s="59" t="s">
+      <c r="A29" s="91"/>
+      <c r="B29" s="80" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="80" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="48"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="69"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="70"/>
-      <c r="B30" s="59" t="s">
+      <c r="A30" s="91"/>
+      <c r="B30" s="80" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="E30" s="48"/>
+      <c r="E30" s="69"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="70"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="91"/>
+      <c r="B31" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="E31" s="48"/>
+      <c r="E31" s="69"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="70"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="91"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="48"/>
+      <c r="E32" s="69"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="70"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="59" t="s">
+      <c r="A33" s="91"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="48"/>
+      <c r="E33" s="69"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="70"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="59" t="s">
+      <c r="A34" s="91"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="80" t="s">
         <v>288</v>
       </c>
-      <c r="E34" s="48"/>
+      <c r="E34" s="69"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="70"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="59" t="s">
+      <c r="A35" s="91"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="E35" s="48"/>
+      <c r="E35" s="69"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="70"/>
-      <c r="B36" s="73" t="s">
+      <c r="A36" s="91"/>
+      <c r="B36" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="95" t="s">
         <v>292</v>
       </c>
-      <c r="E36" s="49"/>
+      <c r="E36" s="70"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="70"/>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="91"/>
+      <c r="B37" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="80" t="s">
         <v>295</v>
       </c>
-      <c r="E37" s="48"/>
+      <c r="E37" s="69"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="70"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="91"/>
+      <c r="B38" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="80" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="48"/>
+      <c r="E38" s="69"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="70"/>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="91"/>
+      <c r="B39" s="70" t="s">
         <v>299</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="48"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="69"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="70"/>
-      <c r="B40" s="59" t="s">
+      <c r="A40" s="91"/>
+      <c r="B40" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="71" t="s">
         <v>302</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="E40" s="48"/>
+      <c r="E40" s="69"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="70"/>
-      <c r="B41" s="59" t="s">
+      <c r="A41" s="91"/>
+      <c r="B41" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="71" t="s">
         <v>305</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="48"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="69"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="70"/>
-      <c r="B42" s="59" t="s">
+      <c r="A42" s="91"/>
+      <c r="B42" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="48"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="69"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="97" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="48"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="69"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="70"/>
-      <c r="B44" s="59" t="s">
+      <c r="A44" s="91"/>
+      <c r="B44" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="99" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="E44" s="75" t="s">
+      <c r="E44" s="96" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="70"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59" t="s">
+      <c r="A45" s="91"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="75" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="70"/>
-      <c r="B46" s="49" t="s">
+      <c r="A46" s="91"/>
+      <c r="B46" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="99" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="E46" s="75" t="s">
+      <c r="E46" s="96" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="79"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="74" t="s">
+      <c r="A47" s="100"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="96" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5947,8 +7042,8 @@
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5960,404 +7055,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="52" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="54" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="44" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="47" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="24" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="47" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="44" t="s">
         <v>345</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="44" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="57" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="37" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="58" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="37" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="58" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="36" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="57" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="44" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="59" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="26" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="31"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="31"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="41"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="62"/>
+      <c r="B21" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="44" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="31"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="31"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="24" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="45"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="31"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="52"/>
+      <c r="B25" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="66"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="31"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="45" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="28" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="45" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="31"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="28" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="45" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="41"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="62"/>
+      <c r="B30" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="D30" s="24"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="45" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="24"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="31"/>
-      <c r="B32" s="43" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="64" t="s">
         <v>382</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="45" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="24" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="45" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="24" t="s">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="45" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="31"/>
-      <c r="B35" s="43" t="s">
+      <c r="A35" s="52"/>
+      <c r="B35" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="45" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="31"/>
-      <c r="B36" s="43" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="45" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="31"/>
-      <c r="B37" s="43" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="67" t="s">
         <v>396</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="68"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="31"/>
-      <c r="B38" s="43" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="67" t="s">
         <v>398</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="68" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="28" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="49" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6404,107 +7499,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="37" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="40" t="s">
         <v>416</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="40" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="15"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="17"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6540,134 +7635,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="27" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="27" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="27" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="32" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="6" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="30" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="12" t="s">
+      <c r="E13" s="31"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="34" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="27" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="5" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="27" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="9"/>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="31"/>
+      <c r="F17" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="27" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="9"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="5" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="27" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="9"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="5" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="27" t="s">
         <v>445</v>
       </c>
     </row>

--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="569">
   <si>
     <t>numpy和python中的数学指标</t>
   </si>
@@ -2718,10 +2718,13 @@
     <t>旋转</t>
   </si>
   <si>
-    <t>透视变换</t>
+    <t>透视变换（投影映射）</t>
   </si>
   <si>
     <t>图像形状校正</t>
+  </si>
+  <si>
+    <t>二维到三维，再到二维的过程</t>
   </si>
   <si>
     <t>算术运算</t>
@@ -2873,6 +2876,9 @@
 （拿一个“全部值是1的数组”与“图像”做“与运行”）</t>
   </si>
   <si>
+    <t>主体图像"外部有瑕疵"</t>
+  </si>
+  <si>
     <t>膨胀</t>
   </si>
   <si>
@@ -2888,12 +2894,18 @@
     <t>先腐蚀，再膨胀。</t>
   </si>
   <si>
+    <t>去掉毛刺</t>
+  </si>
+  <si>
     <t>闭运算</t>
   </si>
   <si>
     <t>先膨胀，再腐蚀，</t>
   </si>
   <si>
+    <t>梯度处理</t>
+  </si>
+  <si>
     <t>形态学梯度</t>
   </si>
   <si>
@@ -2903,6 +2915,75 @@
     <t>拿到轮廓</t>
   </si>
   <si>
+    <t>梯度：指图像当中像素值变化的速度</t>
+  </si>
+  <si>
+    <t>模板（滤波器）运算</t>
+  </si>
+  <si>
+    <t>模板（ 滤波器） 是一个尺寸为n*n的小图像W，每个位置上的值w被称为权重
+用模板对原始图像进行计算
+每次“模板运算”完成之后，向右或向下移动一个像素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模板卷积：
+对应位置像素相乘， 再进行累加
+（卷积种类很多）
+</t>
+  </si>
+  <si>
+    <t>模糊、平滑：
+"减小"像素之前的差异
+平滑、去除噪声。</t>
+  </si>
+  <si>
+    <t>均值滤波</t>
+  </si>
+  <si>
+    <t>当权重值为1的时候，就是均值滤波</t>
+  </si>
+  <si>
+    <t>高斯滤波</t>
+  </si>
+  <si>
+    <t>使用符合高斯分布的卷积盒进行计算。</t>
+  </si>
+  <si>
+    <t>一般优先验证高斯滤波</t>
+  </si>
+  <si>
+    <t>模板排序：
+将邻域N的像素值进行排序（就是指n*n的9个像素值进行排序）， 选择特定次序的灰度值， 作为像素P位置的输出值， 如最大值、 最小值、 中位数等。</t>
+  </si>
+  <si>
+    <t>中值滤波</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">排序之后取中位数，中位数依然是原来就有的，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会保留原来图像的锐度，
+针对“椒盐噪点”，中值滤波是比较好的选择。</t>
+    </r>
+  </si>
+  <si>
+    <t>（非线性变换）会破坏细节。</t>
+  </si>
+  <si>
+    <t>锐化："加大"像素之前的差异，与模糊相反，
+白的更白，黑的更黑，边缘更加清晰。</t>
+  </si>
+  <si>
     <t>礼貌运算</t>
   </si>
   <si>
@@ -2916,22 +2997,6 @@
   </si>
   <si>
     <t>得到内部瑕疵区域。</t>
-  </si>
-  <si>
-    <t>梯度运算</t>
-  </si>
-  <si>
-    <t>模糊</t>
-  </si>
-  <si>
-    <t>"减小"像素之前的差异</t>
-  </si>
-  <si>
-    <t>锐化</t>
-  </si>
-  <si>
-    <t>"加大"像素之前的差异，与模糊相反，
-白的更白，黑的更黑，边缘更加清晰。</t>
   </si>
   <si>
     <t>边沿检测</t>
@@ -2965,7 +3030,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2977,6 +3042,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3147,13 +3220,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3168,7 +3249,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3193,12 +3298,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3643,137 +3742,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3795,403 +3894,475 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4218,7 +4389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4584,105 +4755,105 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="31"/>
-      <c r="C7" s="117" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="138" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="31"/>
-      <c r="C8" s="117" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="138"/>
+      <c r="E8" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="31"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="31"/>
-      <c r="C10" s="117" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="138"/>
+      <c r="E10" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="31"/>
-      <c r="C11" s="130" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="152" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="31"/>
-      <c r="C12" s="130" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="131" t="s">
+      <c r="D12" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="131" t="s">
+      <c r="E12" s="153" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="I13" s="148"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="I13" s="172"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4712,60 +4883,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="45" t="s">
         <v>448</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="46" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="23"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="45" t="s">
         <v>450</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="45" t="s">
         <v>451</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="45" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="47" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="23"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="47" t="s">
         <v>454</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="44" t="s">
         <v>455</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="48" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="23"/>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="48" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4783,561 +4954,688 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H51"/>
+  <dimension ref="A2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.7610619469027" customWidth="1"/>
-    <col min="4" max="4" width="26.4070796460177" customWidth="1"/>
-    <col min="5" max="5" width="37.2477876106195" customWidth="1"/>
-    <col min="6" max="6" width="55.5398230088496" customWidth="1"/>
-    <col min="7" max="7" width="33.9911504424779" customWidth="1"/>
-    <col min="8" max="8" width="18.9911504424779" customWidth="1"/>
+    <col min="2" max="2" width="17.7610619469027" customWidth="1"/>
+    <col min="3" max="3" width="26.4070796460177" customWidth="1"/>
+    <col min="4" max="4" width="37.2477876106195" customWidth="1"/>
+    <col min="5" max="5" width="55.5398230088496" customWidth="1"/>
+    <col min="6" max="6" width="33.9911504424779" customWidth="1"/>
+    <col min="7" max="7" width="14.6991150442478" customWidth="1"/>
+    <col min="8" max="8" width="37.070796460177" customWidth="1"/>
+    <col min="9" max="9" width="28.716814159292" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" ht="70" customHeight="1" spans="1:1">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" ht="40.5" spans="3:8">
+    </row>
+    <row r="7" ht="40.5" spans="2:7">
+      <c r="B7" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>463</v>
       </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" ht="27" spans="3:8">
+    </row>
+    <row r="8" ht="27" spans="2:7">
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>465</v>
       </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" ht="27" spans="3:8">
+    </row>
+    <row r="9" ht="27" spans="2:7">
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="F9" s="4" t="s">
         <v>467</v>
       </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>468</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F10" s="3" t="s">
         <v>469</v>
       </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" ht="54" spans="3:8">
+    </row>
+    <row r="11" ht="54" spans="2:7">
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" ht="27" spans="3:8">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" ht="27" spans="2:7">
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" ht="67.5" spans="3:8">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" ht="67.5" spans="2:7">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="14" ht="78" customHeight="1" spans="3:8">
+    <row r="14" ht="78" customHeight="1" spans="2:7">
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>480</v>
+      </c>
       <c r="F14" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="G14" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="15" ht="61" customHeight="1" spans="3:8">
+    <row r="15" ht="61" customHeight="1" spans="2:7">
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>484</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H15" s="7" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="16" ht="94.5" spans="3:8">
+    <row r="16" ht="94.5" spans="2:7">
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="4" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="54" customHeight="1" spans="3:8">
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" ht="54" customHeight="1" spans="2:7">
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="4" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="3:8">
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="4" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="27" spans="3:8">
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" ht="27" spans="2:7">
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="4" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" ht="56" customHeight="1" spans="5:6">
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="2" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="56" customHeight="1" spans="2:7">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>492</v>
       </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="2"/>
-      <c r="D22" s="4" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4" t="s">
         <v>493</v>
       </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="2"/>
-      <c r="D23" s="4" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="2"/>
-      <c r="D24" s="1" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="2"/>
-      <c r="D26" s="4" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
         <v>498</v>
       </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" ht="25" customHeight="1" spans="3:6">
-      <c r="C27" s="7" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" ht="25" customHeight="1" spans="2:7">
+      <c r="B27" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" s="12"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="11" t="s">
+      <c r="E27" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="12"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="11" t="s">
+      <c r="E28" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="9" t="s">
         <v>503</v>
       </c>
+      <c r="E29" s="10" t="s">
+        <v>503</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="12"/>
-      <c r="D30" s="1" t="s">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="C31" s="12"/>
-      <c r="D31" s="7" t="s">
+      <c r="E30" s="10" t="s">
         <v>506</v>
       </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>508</v>
+      </c>
       <c r="E31" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="G31" s="14" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="F31" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="9" t="s">
+        <v>511</v>
+      </c>
       <c r="E32" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" ht="27" spans="3:7">
-      <c r="C33" s="12"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" ht="27" spans="2:7">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="12"/>
-      <c r="D34" s="7" t="s">
+      <c r="E33" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="D34" s="9" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="17" t="s">
+      <c r="E34" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="13" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19" t="s">
+      <c r="E35" s="6" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="C37" s="12"/>
-      <c r="D37" s="1" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="2" t="s">
+      <c r="D37" s="9" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="38" spans="3:7">
-      <c r="C38" s="12"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="3" t="s">
+      <c r="E37" s="14"/>
+      <c r="F37" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" ht="40.5" spans="3:6">
-      <c r="C39" s="12"/>
-      <c r="D39" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" ht="40.5" spans="2:7">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="D39" s="9" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="40" ht="42" customHeight="1" spans="3:6">
-      <c r="C40" s="12"/>
-      <c r="D40" s="1"/>
+      <c r="E39" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="2:7">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="9" t="s">
+        <v>530</v>
+      </c>
       <c r="E40" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6">
-      <c r="C41" s="12"/>
-      <c r="D41" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>533</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="12"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="F42" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="43" ht="33" customHeight="1" spans="3:6">
-      <c r="C43" s="12"/>
-      <c r="D43" s="4" t="s">
+      <c r="F41" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="E42" s="17" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="12"/>
-      <c r="D44" s="4" t="s">
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" ht="33" customHeight="1" spans="2:8">
+      <c r="B43" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="C43" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="15"/>
-      <c r="D45" s="4" t="s">
+      <c r="D43" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E43" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F43" s="18" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="46" ht="27" customHeight="1" spans="3:6">
-      <c r="C46" s="2" t="s">
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" ht="38" customHeight="1" spans="2:9">
+      <c r="B44" s="2"/>
+      <c r="C44" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D44" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E44" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" ht="27" spans="3:6">
-      <c r="C47" s="2"/>
-      <c r="D47" s="3" t="s">
+      <c r="F44" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="G44" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" ht="19" customHeight="1" spans="3:6">
-      <c r="C48" s="2"/>
-      <c r="D48" s="4" t="s">
+      <c r="H44" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="I44" s="41"/>
+    </row>
+    <row r="45" ht="41" customHeight="1" spans="2:9">
+      <c r="B45" s="2"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="2" t="s">
+      <c r="H45" s="25" t="s">
         <v>550</v>
       </c>
+      <c r="I45" s="25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" spans="2:9">
+      <c r="B46" s="2"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="47" ht="54" spans="2:9">
+      <c r="B47" s="2"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="43"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="2"/>
+      <c r="C48" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="2"/>
+      <c r="C49" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="D49" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="3:6">
-      <c r="C50" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" ht="19" customHeight="1" spans="2:8">
+      <c r="B50" s="2"/>
+      <c r="C50" s="4" t="s">
+        <v>562</v>
+      </c>
       <c r="D50" s="3" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="C51" s="2"/>
-      <c r="D51" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F51" s="3"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="2"/>
+      <c r="C53" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C7:C19"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C27:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
+  <mergeCells count="28">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B7:B19"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B42"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D44:D46"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F44:F46"/>
     <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A2:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5386,35 +5684,35 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="138"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="139" t="s">
+      <c r="A14" s="161"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -5422,21 +5720,21 @@
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="138"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="140"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="164"/>
       <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="142"/>
+      <c r="G15" s="166"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="161"/>
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
@@ -5448,8 +5746,8 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="138"/>
-      <c r="B17" s="143" t="s">
+      <c r="A17" s="161"/>
+      <c r="B17" s="167" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -5461,8 +5759,8 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="138"/>
-      <c r="B18" s="135"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="157"/>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
@@ -5472,12 +5770,12 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="138"/>
-      <c r="B19" s="144" t="s">
+      <c r="A19" s="161"/>
+      <c r="B19" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="170"/>
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
@@ -5485,24 +5783,24 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="138"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="138"/>
-      <c r="B21" s="143" t="s">
+      <c r="A21" s="161"/>
+      <c r="B21" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="143" t="s">
+      <c r="C21" s="167" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="143" t="s">
+      <c r="E21" s="167" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -5511,50 +5809,50 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="138"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="147"/>
+      <c r="E22" s="171"/>
       <c r="F22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="138"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="147"/>
+      <c r="E23" s="171"/>
       <c r="F23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="138"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
+      <c r="A24" s="161"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="147"/>
+      <c r="E24" s="171"/>
       <c r="F24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="138"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="135"/>
+      <c r="A25" s="161"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="157"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="135"/>
+      <c r="E25" s="157"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="138"/>
-      <c r="B26" s="147"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="171"/>
       <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
@@ -5566,8 +5864,8 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="138"/>
-      <c r="B27" s="147"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
@@ -5579,8 +5877,8 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="138"/>
-      <c r="B28" s="147"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
@@ -5590,8 +5888,8 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="138"/>
-      <c r="B29" s="147"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="3" t="s">
         <v>55</v>
       </c>
@@ -5601,8 +5899,8 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="138"/>
-      <c r="B30" s="135"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
@@ -5649,78 +5947,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="126" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="129"/>
-      <c r="C6" s="130" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="153" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="156" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="132"/>
-      <c r="C8" s="133" t="s">
+      <c r="B8" s="154"/>
+      <c r="C8" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="156" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="132"/>
-      <c r="C9" s="133" t="s">
+      <c r="B9" s="154"/>
+      <c r="C9" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="156" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="132"/>
-      <c r="C10" s="133" t="s">
+      <c r="B10" s="154"/>
+      <c r="C10" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="156" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5753,228 +6051,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="143" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="122" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="144" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121" t="s">
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="121" t="s">
+      <c r="E5" s="145"/>
+      <c r="F5" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="121" t="s">
+      <c r="G5" s="143" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="123" t="s">
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="124" t="s">
+      <c r="E6" s="145"/>
+      <c r="F6" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="144" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121" t="s">
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="143" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="122" t="s">
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="121"/>
+      <c r="G8" s="143"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="127" t="s">
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="G9" s="144" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="120"/>
-      <c r="C10" s="120" t="s">
+      <c r="B10" s="142"/>
+      <c r="C10" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="128" t="s">
+      <c r="D10" s="142"/>
+      <c r="E10" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="128" t="s">
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="128" t="s">
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="128" t="s">
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="128" t="s">
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="128" t="s">
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="120"/>
-      <c r="C16" s="120" t="s">
+      <c r="B16" s="142"/>
+      <c r="C16" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="128" t="s">
+      <c r="E16" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="121" t="s">
+      <c r="F16" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="128"/>
+      <c r="G16" s="150"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="123"/>
-      <c r="G17" s="128"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="150"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120" t="s">
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="150" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="123"/>
-      <c r="G18" s="128"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="150"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="128" t="s">
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="123"/>
-      <c r="G19" s="128"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="150"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="128" t="s">
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="128"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6018,349 +6316,349 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="103"/>
-      <c r="B3" s="104" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="104"/>
+      <c r="D3" s="125"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104" t="s">
+      <c r="A4" s="124"/>
+      <c r="B4" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="125"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104" t="s">
+      <c r="A5" s="124"/>
+      <c r="B5" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="104"/>
+      <c r="D5" s="125"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104" t="s">
+      <c r="A6" s="124"/>
+      <c r="B6" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="104"/>
+      <c r="D6" s="125"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103" t="s">
+      <c r="A7" s="124"/>
+      <c r="B7" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="104"/>
+      <c r="D7" s="125"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103" t="s">
+      <c r="A8" s="124"/>
+      <c r="B8" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="104"/>
+      <c r="D8" s="125"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103" t="s">
+      <c r="A9" s="124"/>
+      <c r="B9" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="126" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104" t="s">
+      <c r="A10" s="124"/>
+      <c r="B10" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="125"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104" t="s">
+      <c r="A11" s="124"/>
+      <c r="B11" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="104"/>
+      <c r="D11" s="125"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="128" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="107" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="128" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="107" t="s">
+      <c r="A14" s="129"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="128" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="108"/>
-      <c r="B15" s="106" t="s">
+      <c r="A15" s="129"/>
+      <c r="B15" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="110"/>
+      <c r="D15" s="131"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="107" t="s">
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="131" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="107" t="s">
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="128" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="107" t="s">
+      <c r="A18" s="129"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="128" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="108"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="107" t="s">
+      <c r="A19" s="129"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="128" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="108"/>
-      <c r="B20" s="106" t="s">
+      <c r="A20" s="129"/>
+      <c r="B20" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="128" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="107" t="s">
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="128" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="D22" s="134" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="114"/>
-      <c r="B23" s="112" t="s">
+      <c r="A23" s="135"/>
+      <c r="B23" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="113" t="s">
+      <c r="D23" s="134" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="114"/>
-      <c r="B24" s="112" t="s">
+      <c r="A24" s="135"/>
+      <c r="B24" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="C24" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="113" t="s">
+      <c r="D24" s="134" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="114"/>
-      <c r="B25" s="112" t="s">
+      <c r="A25" s="135"/>
+      <c r="B25" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="113"/>
+      <c r="D25" s="134"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="114"/>
-      <c r="B26" s="112" t="s">
+      <c r="A26" s="135"/>
+      <c r="B26" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="134" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="114"/>
-      <c r="B27" s="112" t="s">
+      <c r="A27" s="135"/>
+      <c r="B27" s="133" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="113" t="s">
+      <c r="D27" s="134" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="114"/>
-      <c r="B28" s="112" t="s">
+      <c r="A28" s="135"/>
+      <c r="B28" s="133" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="134" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="114"/>
-      <c r="B29" s="112" t="s">
+      <c r="A29" s="135"/>
+      <c r="B29" s="133" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="134" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="116"/>
-      <c r="B30" s="112" t="s">
+      <c r="A30" s="137"/>
+      <c r="B30" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="134" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="48" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="48" t="s">
         <v>192</v>
       </c>
       <c r="D34" s="3"/>
@@ -6368,28 +6666,28 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="119"/>
-      <c r="B35" s="27" t="s">
+      <c r="A35" s="140"/>
+      <c r="B35" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="48" t="s">
         <v>194</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="141"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="117" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6428,581 +6726,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="73"/>
+      <c r="E2" s="94"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="94"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="75" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="94"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="75" t="s">
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="73"/>
+      <c r="E6" s="94"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="75" t="s">
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="92" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="77" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="92" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="71"/>
+      <c r="E9" s="92"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="77" t="s">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="71"/>
+      <c r="E10" s="92"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="71"/>
+      <c r="E11" s="92"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="77" t="s">
+      <c r="A12" s="90"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="92"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="77" t="s">
+      <c r="A13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="71"/>
+      <c r="E13" s="92"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70" t="s">
+      <c r="A14" s="90"/>
+      <c r="B14" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="71"/>
+      <c r="E14" s="92"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="69"/>
-      <c r="B15" s="78" t="s">
+      <c r="A15" s="90"/>
+      <c r="B15" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="92" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="69"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="77" t="s">
+      <c r="A16" s="90"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="92" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="90"/>
+      <c r="B17" s="91" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="92" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="71" t="s">
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="92" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="94" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="104"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="81"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="71" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="106" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="81"/>
-      <c r="B21" s="86" t="s">
+      <c r="A21" s="102"/>
+      <c r="B21" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="87"/>
+      <c r="E21" s="108"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="81"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="71" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="79"/>
+      <c r="E22" s="100"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="90"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="71" t="s">
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="E24" s="69"/>
+      <c r="E24" s="90"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="91"/>
-      <c r="B25" s="93" t="s">
+      <c r="A25" s="112"/>
+      <c r="B25" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="69"/>
+      <c r="E25" s="90"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="91"/>
-      <c r="B26" s="93" t="s">
+      <c r="A26" s="112"/>
+      <c r="B26" s="114" t="s">
         <v>268</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="91" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="91"/>
-      <c r="B27" s="90" t="s">
+      <c r="A27" s="112"/>
+      <c r="B27" s="111" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="101" t="s">
         <v>274</v>
       </c>
-      <c r="E27" s="69"/>
+      <c r="E27" s="90"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="91"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="71" t="s">
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="69"/>
+      <c r="E28" s="90"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="91"/>
-      <c r="B29" s="80" t="s">
+      <c r="A29" s="112"/>
+      <c r="B29" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="69"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="90"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="91"/>
-      <c r="B30" s="80" t="s">
+      <c r="A30" s="112"/>
+      <c r="B30" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="E30" s="69"/>
+      <c r="E30" s="90"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="91"/>
-      <c r="B31" s="70" t="s">
+      <c r="A31" s="112"/>
+      <c r="B31" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="E31" s="69"/>
+      <c r="E31" s="90"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="91"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70" t="s">
+      <c r="A32" s="112"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="69"/>
+      <c r="E32" s="90"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="91"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="80" t="s">
+      <c r="A33" s="112"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="101" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="69"/>
+      <c r="E33" s="90"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="91"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="80" t="s">
+      <c r="A34" s="112"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="90"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="91"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="80" t="s">
+      <c r="A35" s="112"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="E35" s="69"/>
+      <c r="E35" s="90"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="91"/>
-      <c r="B36" s="94" t="s">
+      <c r="A36" s="112"/>
+      <c r="B36" s="115" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="D36" s="95" t="s">
+      <c r="D36" s="116" t="s">
         <v>292</v>
       </c>
-      <c r="E36" s="70"/>
+      <c r="E36" s="91"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="91"/>
-      <c r="B37" s="70" t="s">
+      <c r="A37" s="112"/>
+      <c r="B37" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="E37" s="69"/>
+      <c r="E37" s="90"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="91"/>
-      <c r="B38" s="42" t="s">
+      <c r="A38" s="112"/>
+      <c r="B38" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="D38" s="101" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="90"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="91"/>
-      <c r="B39" s="70" t="s">
+      <c r="A39" s="112"/>
+      <c r="B39" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="69"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="90"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="91"/>
-      <c r="B40" s="80" t="s">
+      <c r="A40" s="112"/>
+      <c r="B40" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="E40" s="69"/>
+      <c r="E40" s="90"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="91"/>
-      <c r="B41" s="80" t="s">
+      <c r="A41" s="112"/>
+      <c r="B41" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="92" t="s">
         <v>305</v>
       </c>
-      <c r="D41" s="80"/>
-      <c r="E41" s="69"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="90"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="91"/>
-      <c r="B42" s="80" t="s">
+      <c r="A42" s="112"/>
+      <c r="B42" s="101" t="s">
         <v>306</v>
       </c>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="117" t="s">
         <v>307</v>
       </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="69"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="90"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="110" t="s">
         <v>308</v>
       </c>
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="118" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="69"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="90"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="91"/>
-      <c r="B44" s="80" t="s">
+      <c r="A44" s="112"/>
+      <c r="B44" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="99" t="s">
+      <c r="C44" s="120" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="80" t="s">
+      <c r="D44" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="E44" s="96" t="s">
+      <c r="E44" s="117" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="91"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80" t="s">
+      <c r="A45" s="112"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101" t="s">
         <v>314</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="96" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="91"/>
-      <c r="B46" s="70" t="s">
+      <c r="A46" s="112"/>
+      <c r="B46" s="91" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="99" t="s">
+      <c r="C46" s="120" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="80" t="s">
+      <c r="D46" s="101" t="s">
         <v>318</v>
       </c>
-      <c r="E46" s="96" t="s">
+      <c r="E46" s="117" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="100"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="95" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="116" t="s">
         <v>320</v>
       </c>
-      <c r="E47" s="96" t="s">
+      <c r="E47" s="117" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7055,404 +7353,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="50"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="72"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="73" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="75" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="52"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="65" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="52"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="45" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="68" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="52"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="45" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="68" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="52"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="65" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="52"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="44" t="s">
+      <c r="A12" s="73"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="78" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="52"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="58" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="79" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="52"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="58" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="79" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="52"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="57" t="s">
+      <c r="A15" s="73"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="78" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="52"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="73"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="65" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="80" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="47" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="52"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="47" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="52"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="47" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="68" t="s">
         <v>356</v>
       </c>
-      <c r="D20" s="61"/>
+      <c r="D20" s="82"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="62"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="65" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="73" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="65"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="52"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="73"/>
+      <c r="B23" s="85" t="s">
         <v>363</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="66"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="52"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="45" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="66"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="52"/>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="73"/>
+      <c r="B25" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="86" t="s">
         <v>367</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="52"/>
-      <c r="B26" s="44" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45" t="s">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="66" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="52"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="73"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="66" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="52"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="49" t="s">
+      <c r="A29" s="73"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="66" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="62"/>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="66"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="73" t="s">
         <v>379</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="85" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="66"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="52"/>
-      <c r="B32" s="64" t="s">
+      <c r="A32" s="73"/>
+      <c r="B32" s="85" t="s">
         <v>382</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="66" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="45" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="66" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="45" t="s">
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="66" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="52"/>
-      <c r="B35" s="64" t="s">
+      <c r="A35" s="73"/>
+      <c r="B35" s="85" t="s">
         <v>389</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="66" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="52"/>
-      <c r="B36" s="64" t="s">
+      <c r="A36" s="73"/>
+      <c r="B36" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="66" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="52"/>
-      <c r="B37" s="64" t="s">
+      <c r="A37" s="73"/>
+      <c r="B37" s="85" t="s">
         <v>395</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="88" t="s">
         <v>396</v>
       </c>
-      <c r="D37" s="68"/>
+      <c r="D37" s="89"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="52"/>
-      <c r="B38" s="64" t="s">
+      <c r="A38" s="73"/>
+      <c r="B38" s="85" t="s">
         <v>397</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="88" t="s">
         <v>398</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="89" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="49" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="70" t="s">
         <v>400</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="70" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7499,107 +7797,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="58" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="59" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="60" t="s">
         <v>404</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="61" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="61" t="s">
         <v>411</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="62" t="s">
         <v>413</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="40" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="61" t="s">
         <v>415</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="38"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="61" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="37"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="39"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7635,134 +7933,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="27"/>
-      <c r="F7" s="28" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="48" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="27"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="27" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="48" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="48" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="23"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27" t="s">
+      <c r="E10" s="44"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="53" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="31"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="52"/>
+      <c r="F11" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="31"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="28" t="s">
+      <c r="E12" s="52"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="51" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="31"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="34" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="55" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="31"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="27" t="s">
+      <c r="E14" s="52"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="48" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="31"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30" t="s">
+      <c r="E15" s="52"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="31"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="27" t="s">
+      <c r="E16" s="52"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="48" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="31"/>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="52"/>
+      <c r="F17" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="48" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="31"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="27" t="s">
+      <c r="E18" s="52"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="48" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="31"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="27" t="s">
+      <c r="E19" s="52"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="48" t="s">
         <v>445</v>
       </c>
     </row>

--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -18,6 +18,7 @@
     <sheet name="评估" sheetId="5" r:id="rId9"/>
     <sheet name="优化" sheetId="6" r:id="rId10"/>
     <sheet name="cv2" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="583">
   <si>
     <t>numpy和python中的数学指标</t>
   </si>
@@ -2480,6 +2481,9 @@
 又能处理视频</t>
   </si>
   <si>
+    <t>图像预处理的目的， 是让图像数据更适合AI模型进行处理， 例如调整大小</t>
+  </si>
+  <si>
     <t>图像数字处理技术</t>
   </si>
   <si>
@@ -2685,46 +2689,140 @@
     <t>灰度化</t>
   </si>
   <si>
+    <t>“彩色图像”==》转为“灰度图像”</t>
+  </si>
+  <si>
+    <t>通道操作</t>
+  </si>
+  <si>
+    <t>对指定颜色通道操作</t>
+  </si>
+  <si>
+    <t>直方图均值化</t>
+  </si>
+  <si>
+    <t>灰度图像直方图均值化</t>
+  </si>
+  <si>
+    <t>彩色图像直方图均值化</t>
+  </si>
+  <si>
     <t>二值化/反二值化</t>
   </si>
   <si>
+    <t>在黑色背景下去查找白色，针对不同的图像，
+有时候就需要做反二值化。</t>
+  </si>
+  <si>
     <t>色彩提取</t>
   </si>
   <si>
-    <t>直方图均值化</t>
-  </si>
-  <si>
-    <t>灰度图像直方图均值化</t>
-  </si>
-  <si>
-    <t>彩色图像直方图均值化</t>
-  </si>
-  <si>
     <t>亮度、饱和度、色调调整</t>
   </si>
   <si>
     <t>形态操作</t>
   </si>
   <si>
+    <t>翻转</t>
+  </si>
+  <si>
+    <t>翻转（镜像）:包括水平和垂直</t>
+  </si>
+  <si>
+    <t>需要镜像矩阵</t>
+  </si>
+  <si>
     <t>仿射变换</t>
   </si>
   <si>
-    <t>翻转（镜像）:包括水平和垂直</t>
-  </si>
-  <si>
     <t>平移</t>
   </si>
   <si>
+    <t>平移矩阵</t>
+  </si>
+  <si>
     <t>旋转</t>
   </si>
   <si>
-    <t>透视变换（投影映射）</t>
-  </si>
-  <si>
-    <t>图像形状校正</t>
-  </si>
-  <si>
-    <t>二维到三维，再到二维的过程</t>
+    <t>旋转矩阵</t>
+  </si>
+  <si>
+    <t>大小变化</t>
+  </si>
+  <si>
+    <t>缩小</t>
+  </si>
+  <si>
+    <t>通过删除矩阵中的像素来实现。</t>
+  </si>
+  <si>
+    <t>放大</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最邻近插值法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（速度快）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>双线性插值法：精度高</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（精度高）</t>
+    </r>
+  </si>
+  <si>
+    <t>裁剪</t>
+  </si>
+  <si>
+    <t>随机裁剪</t>
+  </si>
+  <si>
+    <t>使用随机坐标裁剪</t>
+  </si>
+  <si>
+    <t>利用“数组的切片”实现的，
+训练数据一般是使用随机裁剪
+测试数据一般是使用中心裁剪</t>
+  </si>
+  <si>
+    <t>中心裁剪</t>
+  </si>
+  <si>
+    <t>每次裁剪图片的中心</t>
   </si>
   <si>
     <t>算术运算</t>
@@ -2756,7 +2854,8 @@
     </r>
   </si>
   <si>
-    <t>保证两张图片的尺寸相同</t>
+    <t>对应位置相加或相减：
+保证两张图片的尺寸相同</t>
   </si>
   <si>
     <t>加法-按照权重相加</t>
@@ -2788,20 +2887,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（最低减到0）（注意减数与被减数不同，会影响结果）</t>
+      <t>（最低减到0）
+（注意减数与被减数不同，会影响结果）
+（找到两张图的差异信息）</t>
     </r>
   </si>
   <si>
-    <t>大小变化</t>
-  </si>
-  <si>
-    <t>缩小</t>
-  </si>
-  <si>
-    <t>通过删除矩阵中的元素来实现，</t>
-  </si>
-  <si>
-    <t>放大</t>
+    <t>透视变换（投影映射）</t>
+  </si>
+  <si>
+    <t>图像形状校正</t>
+  </si>
+  <si>
+    <t>二维到三维，再到二维的过程</t>
+  </si>
+  <si>
+    <t>腐蚀和膨胀</t>
+  </si>
+  <si>
+    <t>腐蚀</t>
   </si>
   <si>
     <r>
@@ -2812,7 +2916,180 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>最邻近插值法</t>
+      <t>“由外向内”收缩。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（去掉外部毛刺）</t>
+    </r>
+  </si>
+  <si>
+    <t>主体图像"外部有瑕疵"</t>
+  </si>
+  <si>
+    <t>（拿一个“全部值是1的数组”与“图像”做“与运行”）
+够将图像的边界点消除，使图像沿着边界向内收缩，</t>
+  </si>
+  <si>
+    <t>膨胀</t>
+  </si>
+  <si>
+    <t>（去掉内容的毛刺）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（拿一个“全部值是1的数组”与“图像”做“或运行”）
+</t>
+  </si>
+  <si>
+    <t>开运算与闭运算</t>
+  </si>
+  <si>
+    <t>开运算</t>
+  </si>
+  <si>
+    <t>先腐蚀，再膨胀。</t>
+  </si>
+  <si>
+    <t>去掉毛刺</t>
+  </si>
+  <si>
+    <t>闭运算</t>
+  </si>
+  <si>
+    <t>先膨胀，再腐蚀，</t>
+  </si>
+  <si>
+    <t>形态学梯度</t>
+  </si>
+  <si>
+    <t>膨胀-腐蚀，提取边缘</t>
+  </si>
+  <si>
+    <t>拿到轮廓</t>
+  </si>
+  <si>
+    <t>梯度：指图像当中像素值变化的速度</t>
+  </si>
+  <si>
+    <t>模板运算
+（滤波）</t>
+  </si>
+  <si>
+    <t>模糊、平滑：
+"减小"像素之前的差异
+平滑、去除噪声。</t>
+  </si>
+  <si>
+    <t>均值滤波</t>
+  </si>
+  <si>
+    <t>当权重值为1的时候，就是均值滤波</t>
+  </si>
+  <si>
+    <t>滤波模板尺寸越大，模糊的越厉害</t>
+  </si>
+  <si>
+    <t>高斯滤波</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用符合高</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斯分布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卷积核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”进行计算。</t>
+    </r>
+  </si>
+  <si>
+    <t>一般优先验证高斯滤波</t>
+  </si>
+  <si>
+    <t>自定义卷积盒</t>
+  </si>
+  <si>
+    <t>锐化："加大"像素之前的差异，与模糊相反，
+白的更白，黑的更黑，边缘更加清晰。边沿检测，增加差异</t>
+  </si>
+  <si>
+    <t>边沿检测</t>
+  </si>
+  <si>
+    <t>Sobel</t>
+  </si>
+  <si>
+    <t>Laplacian</t>
+  </si>
+  <si>
+    <t>Canny</t>
+  </si>
+  <si>
+    <t>双阈值过滤。</t>
+  </si>
+  <si>
+    <t>轮廓处理</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完整的整体，能用于后续的计算（</t>
     </r>
     <r>
       <rPr>
@@ -2823,10 +3100,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（速度快）</t>
+      <t>在“黑色背景”下寻找“白色”</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2835,189 +3110,52 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>双线性插值法：精度高</t>
+      <t>）</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（精度高）</t>
-    </r>
-  </si>
-  <si>
-    <t>裁剪</t>
-  </si>
-  <si>
-    <t>随机裁剪</t>
-  </si>
-  <si>
-    <t>通过对数组进行切片来实现</t>
-  </si>
-  <si>
-    <t>中心裁剪</t>
-  </si>
-  <si>
-    <t>每次裁剪图片的中心</t>
-  </si>
-  <si>
-    <t>腐蚀和膨胀</t>
-  </si>
-  <si>
-    <t>腐蚀</t>
-  </si>
-  <si>
-    <t>够将图像的边界点消除，使图像沿着边界向内收缩，
-从外向内收缩。
-（拿一个“全部值是1的数组”与“图像”做“与运行”）</t>
-  </si>
-  <si>
-    <t>主体图像"外部有瑕疵"</t>
-  </si>
-  <si>
-    <t>膨胀</t>
-  </si>
-  <si>
-    <t>（拿一个“全部值是1的数组”与“图像”做“或运行”）</t>
-  </si>
-  <si>
-    <t>开运算与闭运算</t>
-  </si>
-  <si>
-    <t>开运算</t>
-  </si>
-  <si>
-    <t>先腐蚀，再膨胀。</t>
-  </si>
-  <si>
-    <t>去掉毛刺</t>
-  </si>
-  <si>
-    <t>闭运算</t>
-  </si>
-  <si>
-    <t>先膨胀，再腐蚀，</t>
-  </si>
-  <si>
-    <t>梯度处理</t>
-  </si>
-  <si>
-    <t>形态学梯度</t>
-  </si>
-  <si>
-    <t>膨胀-腐蚀，提取边缘</t>
-  </si>
-  <si>
-    <t>拿到轮廓</t>
-  </si>
-  <si>
-    <t>梯度：指图像当中像素值变化的速度</t>
-  </si>
-  <si>
-    <t>模板（滤波器）运算</t>
-  </si>
-  <si>
-    <t>模板（ 滤波器） 是一个尺寸为n*n的小图像W，每个位置上的值w被称为权重
-用模板对原始图像进行计算
-每次“模板运算”完成之后，向右或向下移动一个像素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模板卷积：
-对应位置像素相乘， 再进行累加
-（卷积种类很多）
-</t>
-  </si>
-  <si>
-    <t>模糊、平滑：
-"减小"像素之前的差异
-平滑、去除噪声。</t>
-  </si>
-  <si>
-    <t>均值滤波</t>
-  </si>
-  <si>
-    <t>当权重值为1的时候，就是均值滤波</t>
-  </si>
-  <si>
-    <t>高斯滤波</t>
-  </si>
-  <si>
-    <t>使用符合高斯分布的卷积盒进行计算。</t>
-  </si>
-  <si>
-    <t>一般优先验证高斯滤波</t>
-  </si>
-  <si>
-    <t>模板排序：
-将邻域N的像素值进行排序（就是指n*n的9个像素值进行排序）， 选择特定次序的灰度值， 作为像素P位置的输出值， 如最大值、 最小值、 中位数等。</t>
-  </si>
-  <si>
-    <t>中值滤波</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">排序之后取中位数，中位数依然是原来就有的，
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会保留原来图像的锐度，
-针对“椒盐噪点”，中值滤波是比较好的选择。</t>
-    </r>
-  </si>
-  <si>
-    <t>（非线性变换）会破坏细节。</t>
-  </si>
-  <si>
-    <t>锐化："加大"像素之前的差异，与模糊相反，
-白的更白，黑的更黑，边缘更加清晰。</t>
-  </si>
-  <si>
-    <t>礼貌运算</t>
-  </si>
-  <si>
-    <t>“原始图像”-“开运算”</t>
-  </si>
-  <si>
-    <t>黑帽运算</t>
-  </si>
-  <si>
-    <t>“闭运算”-“原始图像”</t>
-  </si>
-  <si>
-    <t>得到内部瑕疵区域。</t>
-  </si>
-  <si>
-    <t>边沿检测</t>
-  </si>
-  <si>
-    <t>把 "图像梯度最大"的部分找出来。</t>
-  </si>
-  <si>
-    <t>轮廓</t>
-  </si>
-  <si>
-    <t>轮廓查找、绘制</t>
-  </si>
-  <si>
-    <t>绘制矩形、圆型、椭圆包围</t>
-  </si>
-  <si>
-    <t>多边形拟合</t>
-  </si>
-  <si>
-    <t>用一个“多边形近似拟合”图形</t>
+  </si>
+  <si>
+    <t>查找轮廓</t>
+  </si>
+  <si>
+    <t>一系列的“坐标点”，找到轮廓的所有坐标点，然后给它连起来
+（1）加载图片
+（2）灰度处理
+（3）二值处理（最难的）
+（4）查找轮廓</t>
+  </si>
+  <si>
+    <t>（1）轮廓是有位置关系的</t>
+  </si>
+  <si>
+    <t>边缘检测虽然能够检测出边缘，但边缘是不连续的，检测到的边缘并不是一个整体</t>
+  </si>
+  <si>
+    <t>绘制轮廓</t>
+  </si>
+  <si>
+    <t>轮廓拟合</t>
+  </si>
+  <si>
+    <t>矩形</t>
+  </si>
+  <si>
+    <t>圆形</t>
+  </si>
+  <si>
+    <t>椭圆——其实是矩形，带有选这个些旋转角度。（用得少）</t>
+  </si>
+  <si>
+    <t>逼近多边形：返回多边形的坐标(顶点)
+(精度越高越好)</t>
+  </si>
+  <si>
+    <t>为了逼近“轮廓”，从而找到需要的轮廓</t>
+  </si>
+  <si>
+    <t>opencv 主要的使用场景：
+（1）（纯图像技术）图像矫正
+（2）（纯图像技术）瑕疵检测（也可以使用深度学习）
+（3）数据增强：灰度、翻转、缩放、拉伸、旋转得到新图。</t>
   </si>
 </sst>
 </file>
@@ -3049,7 +3187,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3220,21 +3366,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3243,7 +3381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3255,31 +3399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3303,7 +3429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3518,7 +3644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3558,11 +3684,73 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3602,15 +3790,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3742,64 +3921,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3808,10 +3993,10 @@
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3820,10 +4005,10 @@
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3832,10 +4017,10 @@
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3844,10 +4029,10 @@
     <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3856,23 +4041,17 @@
     <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3894,10 +4073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -3906,490 +4082,460 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4755,105 +4901,105 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="52"/>
-      <c r="C7" s="138" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="129" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="52"/>
-      <c r="C8" s="138" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="129"/>
+      <c r="E8" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="52"/>
-      <c r="C9" s="138" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="52"/>
-      <c r="C10" s="138" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="129"/>
+      <c r="E10" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="52"/>
-      <c r="C11" s="152" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="152" t="s">
+      <c r="E11" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="52"/>
-      <c r="C12" s="152" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="153" t="s">
+      <c r="E12" s="143" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="I13" s="172"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="I13" s="161"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4883,60 +5029,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="39" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="44"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="38" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="47" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="40" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="44"/>
-      <c r="E12" s="47" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="41" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="44"/>
-      <c r="E13" s="45" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="41" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4954,13 +5100,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I53"/>
+  <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="17.7610619469027" customWidth="1"/>
     <col min="3" max="3" width="26.4070796460177" customWidth="1"/>
@@ -4986,21 +5132,28 @@
     <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" ht="70" customHeight="1" spans="1:1">
+    <row r="6" ht="70" customHeight="1" spans="1:6">
       <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
       <c r="B7" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -5009,10 +5162,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5021,10 +5174,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5032,13 +5185,13 @@
     <row r="10" spans="2:7">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5047,13 +5200,13 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -5063,58 +5216,58 @@
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
@@ -5122,7 +5275,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
@@ -5132,7 +5285,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
@@ -5142,7 +5295,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
@@ -5152,491 +5305,612 @@
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" ht="56" customHeight="1" spans="2:7">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+    <row r="20" spans="2:7">
+      <c r="B20" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="2" t="s">
-        <v>491</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>495</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D22" s="3"/>
+      <c r="C22" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>498</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="C23" s="1"/>
+      <c r="D23" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" ht="27" spans="2:7">
       <c r="B24" s="2"/>
-      <c r="C24" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="C24" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="2"/>
-      <c r="C26" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
       <c r="B27" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+        <v>506</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="D28" s="9" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+        <v>509</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="9" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="7"/>
+        <v>511</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+        <v>514</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G31" s="7"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" ht="27" spans="2:7">
+      <c r="D32" s="11"/>
+      <c r="E32" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="2:7">
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="D33" s="9" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="2:7">
+        <v>521</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" ht="33" customHeight="1" spans="2:7">
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>515</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+        <v>523</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="C35" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="D36" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" ht="54" spans="2:7">
       <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>521</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="G37" s="7"/>
+        <v>531</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>525</v>
+      <c r="C38" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>535</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" ht="40.5" spans="2:7">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" ht="108" spans="2:7">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" ht="42" customHeight="1" spans="2:7">
+        <v>536</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" ht="68" customHeight="1" spans="2:7">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="2:7">
+      <c r="D40" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="41" ht="32" customHeight="1" spans="2:7">
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>533</v>
+        <v>544</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>545</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>537</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" ht="33" customHeight="1" spans="2:8">
-      <c r="B43" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" ht="38" customHeight="1" spans="2:9">
-      <c r="B44" s="2"/>
-      <c r="C44" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="F44" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="F41" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" ht="33" customHeight="1" spans="2:7">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="I44" s="41"/>
-    </row>
-    <row r="45" ht="41" customHeight="1" spans="2:9">
-      <c r="B45" s="2"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="25" t="s">
+      <c r="E42" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" ht="33" customHeight="1" spans="2:7">
+      <c r="B43" s="1"/>
+      <c r="C43" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="I45" s="25" t="s">
+      <c r="D43" s="10" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="46" ht="67.5" spans="2:9">
-      <c r="B46" s="2"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="28" t="s">
+      <c r="E43" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30" t="s">
+      <c r="F43" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" ht="33" customHeight="1" spans="2:7">
+      <c r="B44" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="I46" s="42" t="s">
+      <c r="C44" s="18" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="47" ht="54" spans="2:9">
-      <c r="B47" s="2"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35" t="s">
+      <c r="D44" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="43"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="2"/>
-      <c r="C48" s="38" t="s">
+      <c r="E44" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="F44" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="2"/>
-      <c r="C49" s="4" t="s">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" ht="33" customHeight="1" spans="2:7">
+      <c r="B45" s="18"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E45" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F45" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" ht="19" customHeight="1" spans="2:8">
-      <c r="B50" s="2"/>
-      <c r="C50" s="4" t="s">
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" ht="33" customHeight="1" spans="2:7">
+      <c r="B46" s="18"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E46" s="14"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" ht="54" spans="2:7">
+      <c r="B47" s="21"/>
+      <c r="C47" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="2" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" ht="33" customHeight="1" spans="2:7">
+      <c r="B48" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C48" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>565</v>
       </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" ht="33" customHeight="1" spans="2:7">
+      <c r="B49" s="22"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" ht="33" customHeight="1" spans="2:7">
+      <c r="B50" s="22"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" ht="19" customHeight="1" spans="2:7">
+      <c r="B51" s="22"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="2"/>
-      <c r="C52" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="2"/>
-      <c r="C53" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" ht="112" customHeight="1" spans="2:7">
+      <c r="B52" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="53" ht="31" customHeight="1" spans="2:7">
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="3" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+    </row>
+    <row r="54" ht="36" customHeight="1" spans="2:7">
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
+    </row>
+    <row r="55" ht="36" customHeight="1" spans="2:7">
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" ht="27" spans="2:7">
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+    </row>
+    <row r="72" ht="27" customHeight="1" spans="3:5">
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="33">
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B7:B19"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B42"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B27:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B57"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C37"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C57"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D54:D57"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E44:E45"/>
     <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F52:F54"/>
     <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="C62:E72"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5684,35 +5958,35 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="158" t="s">
+      <c r="D13" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="159" t="s">
+      <c r="E13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="160" t="s">
+      <c r="F13" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="150" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="161"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163" t="s">
+      <c r="A14" s="151"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="152" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -5720,21 +5994,21 @@
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="161"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="164"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="165" t="s">
+      <c r="F15" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="166"/>
+      <c r="G15" s="155"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="161"/>
-      <c r="B16" s="161"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
@@ -5746,8 +6020,8 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="161"/>
-      <c r="B17" s="167" t="s">
+      <c r="A17" s="151"/>
+      <c r="B17" s="156" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -5759,8 +6033,8 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="161"/>
-      <c r="B18" s="157"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
@@ -5770,12 +6044,12 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="161"/>
-      <c r="B19" s="168" t="s">
+      <c r="A19" s="151"/>
+      <c r="B19" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
@@ -5783,24 +6057,24 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="161"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
+      <c r="A20" s="151"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="161"/>
-      <c r="B21" s="167" t="s">
+      <c r="A21" s="151"/>
+      <c r="B21" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="156" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="167" t="s">
+      <c r="E21" s="156" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -5809,50 +6083,50 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="161"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="160"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="171"/>
+      <c r="E22" s="160"/>
       <c r="F22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="161"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="171"/>
+      <c r="E23" s="160"/>
       <c r="F23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="161"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="171"/>
+      <c r="E24" s="160"/>
       <c r="F24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="161"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="157"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="157"/>
+      <c r="E25" s="147"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="161"/>
-      <c r="B26" s="171"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
@@ -5864,8 +6138,8 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="161"/>
-      <c r="B27" s="171"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
@@ -5877,8 +6151,8 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="161"/>
-      <c r="B28" s="171"/>
+      <c r="A28" s="151"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
@@ -5888,8 +6162,8 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="161"/>
-      <c r="B29" s="171"/>
+      <c r="A29" s="151"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="3" t="s">
         <v>55</v>
       </c>
@@ -5899,8 +6173,8 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="161"/>
-      <c r="B30" s="157"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
@@ -5947,78 +6221,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="117" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="151"/>
-      <c r="C6" s="152" t="s">
+      <c r="B6" s="142"/>
+      <c r="C6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="152" t="s">
+      <c r="D6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="153" t="s">
+      <c r="E6" s="143" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="146" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="154"/>
-      <c r="C8" s="155" t="s">
+      <c r="B8" s="144"/>
+      <c r="C8" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="155" t="s">
+      <c r="D8" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="156" t="s">
+      <c r="E8" s="146" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="154"/>
-      <c r="C9" s="155" t="s">
+      <c r="B9" s="144"/>
+      <c r="C9" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="156" t="s">
+      <c r="E9" s="146" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="154"/>
-      <c r="C10" s="155" t="s">
+      <c r="B10" s="144"/>
+      <c r="C10" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="156" t="s">
+      <c r="E10" s="146" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6051,228 +6325,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="143" t="s">
+      <c r="G3" s="134" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="144" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="143" t="s">
+      <c r="F4" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="135" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143" t="s">
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="145"/>
-      <c r="F5" s="143" t="s">
+      <c r="E5" s="136"/>
+      <c r="F5" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="134" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="145" t="s">
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="145"/>
-      <c r="F6" s="146" t="s">
+      <c r="E6" s="136"/>
+      <c r="F6" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="135" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="143" t="s">
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="147" t="s">
+      <c r="E7" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="148" t="s">
+      <c r="F7" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="143" t="s">
+      <c r="G7" s="134" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="144" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="143"/>
+      <c r="G8" s="134"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="149" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="144" t="s">
+      <c r="E9" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="146" t="s">
+      <c r="F9" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="135" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="142"/>
-      <c r="C10" s="142" t="s">
+      <c r="B10" s="133"/>
+      <c r="C10" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="150" t="s">
+      <c r="D10" s="133"/>
+      <c r="E10" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="150" t="s">
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="150" t="s">
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="150" t="s">
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="150" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="150" t="s">
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="142"/>
-      <c r="C16" s="142" t="s">
+      <c r="B16" s="133"/>
+      <c r="C16" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="150" t="s">
+      <c r="E16" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="143" t="s">
+      <c r="F16" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="150"/>
+      <c r="G16" s="141"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="150" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="145"/>
-      <c r="G17" s="150"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="141"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142" t="s">
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="145"/>
-      <c r="G18" s="150"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="141"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="150" t="s">
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="145"/>
-      <c r="G19" s="150"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="141"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="150" t="s">
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="145"/>
-      <c r="G20" s="150"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6316,349 +6590,349 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="116"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="125"/>
+      <c r="D4" s="116"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="124"/>
-      <c r="B5" s="125" t="s">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="125"/>
+      <c r="D5" s="116"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125" t="s">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="125"/>
+      <c r="D6" s="116"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="124"/>
-      <c r="B7" s="124" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="125"/>
+      <c r="D7" s="116"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="124"/>
-      <c r="B8" s="124" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="125"/>
+      <c r="D8" s="116"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="124"/>
-      <c r="B9" s="124" t="s">
+      <c r="A9" s="115"/>
+      <c r="B9" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="117" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="124"/>
-      <c r="B10" s="125" t="s">
+      <c r="A10" s="115"/>
+      <c r="B10" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="125"/>
+      <c r="D10" s="116"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="124"/>
-      <c r="B11" s="125" t="s">
+      <c r="A11" s="115"/>
+      <c r="B11" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="125"/>
+      <c r="D11" s="116"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="119" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="128" t="s">
+      <c r="A13" s="120"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="119" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="129"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="128" t="s">
+      <c r="A14" s="120"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="128" t="s">
+      <c r="D14" s="119" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="129"/>
-      <c r="B15" s="127" t="s">
+      <c r="A15" s="120"/>
+      <c r="B15" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="122"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="128" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="131" t="s">
+      <c r="D16" s="122" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="128" t="s">
+      <c r="A17" s="120"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="119" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="128" t="s">
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="119" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="129"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="128" t="s">
+      <c r="A19" s="120"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="119" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="129"/>
-      <c r="B20" s="127" t="s">
+      <c r="A20" s="120"/>
+      <c r="B20" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="119" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="128" t="s">
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="125" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="135"/>
-      <c r="B23" s="133" t="s">
+      <c r="A23" s="126"/>
+      <c r="B23" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="134" t="s">
+      <c r="C23" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="134" t="s">
+      <c r="D23" s="125" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="135"/>
-      <c r="B24" s="133" t="s">
+      <c r="A24" s="126"/>
+      <c r="B24" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="125" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="134" t="s">
+      <c r="D24" s="125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="135"/>
-      <c r="B25" s="133" t="s">
+      <c r="A25" s="126"/>
+      <c r="B25" s="124" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="134" t="s">
+      <c r="C25" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="134"/>
+      <c r="D25" s="125"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="135"/>
-      <c r="B26" s="133" t="s">
+      <c r="A26" s="126"/>
+      <c r="B26" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="134" t="s">
+      <c r="C26" s="125" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="134" t="s">
+      <c r="D26" s="125" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="135"/>
-      <c r="B27" s="133" t="s">
+      <c r="A27" s="126"/>
+      <c r="B27" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="136" t="s">
+      <c r="C27" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="134" t="s">
+      <c r="D27" s="125" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="135"/>
-      <c r="B28" s="133" t="s">
+      <c r="A28" s="126"/>
+      <c r="B28" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="134" t="s">
+      <c r="D28" s="125" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="135"/>
-      <c r="B29" s="133" t="s">
+      <c r="A29" s="126"/>
+      <c r="B29" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="134" t="s">
+      <c r="D29" s="125" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="137"/>
-      <c r="B30" s="133" t="s">
+      <c r="A30" s="128"/>
+      <c r="B30" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="134" t="s">
+      <c r="D30" s="125" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="138" t="s">
+      <c r="A32" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="41" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="139" t="s">
+      <c r="A34" s="130" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="41" t="s">
         <v>192</v>
       </c>
       <c r="D34" s="3"/>
@@ -6666,28 +6940,28 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="140"/>
-      <c r="B35" s="48" t="s">
+      <c r="A35" s="131"/>
+      <c r="B35" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="41" t="s">
         <v>194</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="141"/>
+      <c r="E35" s="132"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="138" t="s">
+      <c r="A36" s="129" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="138" t="s">
+      <c r="C36" s="38"/>
+      <c r="D36" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="141"/>
+      <c r="E36" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6726,581 +7000,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="93"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="94"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="94"/>
+      <c r="E3" s="85"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="94"/>
+      <c r="E4" s="85"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="96" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="94"/>
+      <c r="E5" s="85"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="96" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="94"/>
+      <c r="E6" s="85"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="90"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="96" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="83" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="90"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="98" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="83" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="92"/>
+      <c r="E9" s="83"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="98" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="83"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="92"/>
+      <c r="E11" s="83"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="90"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="98" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="92"/>
+      <c r="E12" s="83"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="98" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="92"/>
+      <c r="E13" s="83"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="90"/>
-      <c r="B14" s="91" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="92"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="90"/>
-      <c r="B15" s="99" t="s">
+      <c r="A15" s="81"/>
+      <c r="B15" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="83" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="90"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="98" t="s">
+      <c r="A16" s="81"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="83" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="81"/>
+      <c r="B17" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="83" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="90"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="92" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="83" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="104"/>
+      <c r="E19" s="95"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="102"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="92" t="s">
+      <c r="A20" s="93"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="97" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="102"/>
-      <c r="B21" s="107" t="s">
+      <c r="A21" s="93"/>
+      <c r="B21" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="108"/>
+      <c r="E21" s="99"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="102"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="92" t="s">
+      <c r="A22" s="93"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="100"/>
+      <c r="E22" s="91"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="90"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="112"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="92" t="s">
+      <c r="A24" s="103"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="E24" s="90"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="112"/>
-      <c r="B25" s="114" t="s">
+      <c r="A25" s="103"/>
+      <c r="B25" s="105" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="90"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="112"/>
-      <c r="B26" s="114" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="105" t="s">
         <v>268</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="E26" s="91" t="s">
+      <c r="E26" s="82" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="112"/>
-      <c r="B27" s="111" t="s">
+      <c r="A27" s="103"/>
+      <c r="B27" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="E27" s="90"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="92" t="s">
+      <c r="A28" s="103"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="90"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="112"/>
-      <c r="B29" s="101" t="s">
+      <c r="A29" s="103"/>
+      <c r="B29" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="90"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="112"/>
-      <c r="B30" s="101" t="s">
+      <c r="A30" s="103"/>
+      <c r="B30" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="E30" s="90"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="112"/>
-      <c r="B31" s="91" t="s">
+      <c r="A31" s="103"/>
+      <c r="B31" s="82" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="92" t="s">
         <v>284</v>
       </c>
-      <c r="E31" s="90"/>
+      <c r="E31" s="81"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="112"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91" t="s">
+      <c r="A32" s="103"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="90"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="112"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="101" t="s">
+      <c r="A33" s="103"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="90"/>
+      <c r="E33" s="81"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="112"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="101" t="s">
+      <c r="A34" s="103"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="E34" s="90"/>
+      <c r="E34" s="81"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="112"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="101" t="s">
+      <c r="A35" s="103"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="E35" s="90"/>
+      <c r="E35" s="81"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="112"/>
-      <c r="B36" s="115" t="s">
+      <c r="A36" s="103"/>
+      <c r="B36" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="D36" s="116" t="s">
+      <c r="D36" s="107" t="s">
         <v>292</v>
       </c>
-      <c r="E36" s="91"/>
+      <c r="E36" s="82"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="112"/>
-      <c r="B37" s="91" t="s">
+      <c r="A37" s="103"/>
+      <c r="B37" s="82" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="E37" s="90"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="112"/>
-      <c r="B38" s="63" t="s">
+      <c r="A38" s="103"/>
+      <c r="B38" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="90"/>
+      <c r="E38" s="81"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="112"/>
-      <c r="B39" s="91" t="s">
+      <c r="A39" s="103"/>
+      <c r="B39" s="82" t="s">
         <v>299</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="85" t="s">
         <v>300</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="90"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="81"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="112"/>
-      <c r="B40" s="101" t="s">
+      <c r="A40" s="103"/>
+      <c r="B40" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="83" t="s">
         <v>302</v>
       </c>
-      <c r="D40" s="101" t="s">
+      <c r="D40" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="E40" s="90"/>
+      <c r="E40" s="81"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="112"/>
-      <c r="B41" s="101" t="s">
+      <c r="A41" s="103"/>
+      <c r="B41" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="C41" s="92" t="s">
+      <c r="C41" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="90"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="81"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="112"/>
-      <c r="B42" s="101" t="s">
+      <c r="A42" s="103"/>
+      <c r="B42" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="C42" s="117" t="s">
+      <c r="C42" s="108" t="s">
         <v>307</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="90"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="81"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="101" t="s">
         <v>308</v>
       </c>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="109" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="90"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="81"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="112"/>
-      <c r="B44" s="101" t="s">
+      <c r="A44" s="103"/>
+      <c r="B44" s="92" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="120" t="s">
+      <c r="C44" s="111" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="101" t="s">
+      <c r="D44" s="92" t="s">
         <v>312</v>
       </c>
-      <c r="E44" s="117" t="s">
+      <c r="E44" s="108" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="112"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101" t="s">
+      <c r="A45" s="103"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92" t="s">
         <v>314</v>
       </c>
-      <c r="E45" s="96" t="s">
+      <c r="E45" s="87" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="112"/>
-      <c r="B46" s="91" t="s">
+      <c r="A46" s="103"/>
+      <c r="B46" s="82" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="111" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="101" t="s">
+      <c r="D46" s="92" t="s">
         <v>318</v>
       </c>
-      <c r="E46" s="117" t="s">
+      <c r="E46" s="108" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="121"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="116" t="s">
+      <c r="A47" s="112"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="107" t="s">
         <v>320</v>
       </c>
-      <c r="E47" s="117" t="s">
+      <c r="E47" s="108" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7353,404 +7627,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="65"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="69"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="71"/>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="66" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="73"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="66" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="56" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="73"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="66" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="59" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="73"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="66" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="59" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="73"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="56" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="73"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="65" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="69" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="73"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="79" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="70" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="73"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="79" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="70" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="73"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="78" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="69" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="73"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="56" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="71" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="73"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="68" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="72"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="73"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="68" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="D19" s="81"/>
+      <c r="D19" s="72"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="73"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="68" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="73"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="83"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="56" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="65"/>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="73"/>
-      <c r="B23" s="85" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="73"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="66" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="57"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="73"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="77" t="s">
         <v>367</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="78"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="73"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="56" t="s">
         <v>368</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="57" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="73"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="70" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="57" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="73"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="70" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="57" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="83"/>
-      <c r="B30" s="65" t="s">
+      <c r="A30" s="74"/>
+      <c r="B30" s="56" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="D30" s="66"/>
+      <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="66"/>
+      <c r="D31" s="57"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="73"/>
-      <c r="B32" s="85" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="57" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="66" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="57" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="66" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="57" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="73"/>
-      <c r="B35" s="85" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="76" t="s">
         <v>389</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="57" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="73"/>
-      <c r="B36" s="85" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="57" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="73"/>
-      <c r="B37" s="85" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="79" t="s">
         <v>396</v>
       </c>
-      <c r="D37" s="89"/>
+      <c r="D37" s="80"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="73"/>
-      <c r="B38" s="85" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="D38" s="89" t="s">
+      <c r="D38" s="80" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="83"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="70" t="s">
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="61" t="s">
         <v>400</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="61" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7797,107 +8071,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="53" t="s">
         <v>411</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="54" t="s">
         <v>413</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="61" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="53" t="s">
         <v>415</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="59"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="61" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53" t="s">
         <v>416</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="53" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="58"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="60"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7933,134 +8207,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="48"/>
-      <c r="F7" s="49" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="41" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="48"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="48" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="41" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="41" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="44"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="48" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="46" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="52"/>
-      <c r="F11" s="53" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="I11" s="56"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="52"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="49" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="44" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="52"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="55" t="s">
+      <c r="E13" s="45"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="48" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="52"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="48" t="s">
+      <c r="E14" s="45"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="41" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="52"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51" t="s">
+      <c r="E15" s="45"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="52"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="48" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="41" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="52"/>
-      <c r="F17" s="44" t="s">
+      <c r="E17" s="45"/>
+      <c r="F17" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="41" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="52"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="48" t="s">
+      <c r="E18" s="45"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="41" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="52"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="48" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="41" t="s">
         <v>445</v>
       </c>
     </row>

--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
-    <sheet name="0.AI体系" sheetId="10" r:id="rId2"/>
-    <sheet name="0.分类" sheetId="11" r:id="rId3"/>
-    <sheet name="0.预处理" sheetId="2" r:id="rId4"/>
-    <sheet name="基础" sheetId="1" r:id="rId5"/>
-    <sheet name="1.回归" sheetId="4" r:id="rId6"/>
-    <sheet name="2.分类" sheetId="3" r:id="rId7"/>
-    <sheet name="3.聚类" sheetId="7" r:id="rId8"/>
-    <sheet name="评估" sheetId="5" r:id="rId9"/>
-    <sheet name="优化" sheetId="6" r:id="rId10"/>
-    <sheet name="cv2" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId12"/>
+    <sheet name="自我介绍" sheetId="14" r:id="rId1"/>
+    <sheet name="0.数学指标" sheetId="9" r:id="rId2"/>
+    <sheet name="0.AI体系" sheetId="10" r:id="rId3"/>
+    <sheet name="0.分类" sheetId="11" r:id="rId4"/>
+    <sheet name="0.预处理" sheetId="2" r:id="rId5"/>
+    <sheet name="基础" sheetId="1" r:id="rId6"/>
+    <sheet name="1.回归" sheetId="4" r:id="rId7"/>
+    <sheet name="2.分类" sheetId="3" r:id="rId8"/>
+    <sheet name="3.聚类" sheetId="7" r:id="rId9"/>
+    <sheet name="评估" sheetId="5" r:id="rId10"/>
+    <sheet name="优化" sheetId="6" r:id="rId11"/>
+    <sheet name="cv2" sheetId="12" r:id="rId12"/>
+    <sheet name="深2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="597">
+  <si>
+    <t>首先我学习了机器学习，针对不同问题使用不同的方法解决，回归问题，的掌握了线性模型及其变种、决策树、集成学习、支持向量机，
+分类问题：逻辑回归、决策树回归、支持向量机、朴素贝页斯。
+聚类问题：k-means、噪声密度、凝聚层次。</t>
+  </si>
   <si>
     <t>numpy和python中的数学指标</t>
   </si>
@@ -1922,7 +1928,7 @@
     <t>多项式核函数（Polynomial Kernel）</t>
   </si>
   <si>
-    <t>"增加高次项特征的方法" 做升维变换（效率低，用的秒）</t>
+    <t>"增加高次项特征的方法" 做升维变换（效率低，用的少）</t>
   </si>
   <si>
     <t>径向基核函数（Radial Basis Function Kernel）（也叫"高斯核函数"）</t>
@@ -3156,6 +3162,47 @@
 （1）（纯图像技术）图像矫正
 （2）（纯图像技术）瑕疵检测（也可以使用深度学习）
 （3）数据增强：灰度、翻转、缩放、拉伸、旋转得到新图。</t>
+  </si>
+  <si>
+    <t>图像分类</t>
+  </si>
+  <si>
+    <t>针对整张图像</t>
+  </si>
+  <si>
+    <t>目标检测</t>
+  </si>
+  <si>
+    <t>针对某一区域分类</t>
+  </si>
+  <si>
+    <t>光学字符识别OCR</t>
+  </si>
+  <si>
+    <t>小学生作用题，识别图片小的文字，
+证件号码提取识别</t>
+  </si>
+  <si>
+    <t>语义分割</t>
+  </si>
+  <si>
+    <t>用当前模型"精确"地把轮廓勾勒出来。
+图像分割，针对每一个像素值进行分类。</t>
+  </si>
+  <si>
+    <t>针对每一个像素值分类</t>
+  </si>
+  <si>
+    <t>图像合成</t>
+  </si>
+  <si>
+    <t>人体相关</t>
+  </si>
+  <si>
+    <t>人脸识别</t>
+  </si>
+  <si>
+    <t>人体姿态检测</t>
   </si>
 </sst>
 </file>
@@ -4051,16 +4098,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4537,6 +4599,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4886,133 +4951,197 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B6:I14"/>
+  <dimension ref="E12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="108.530973451327" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" ht="136" customHeight="1" spans="5:5">
+      <c r="E12" s="167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.25"/>
+  </sheetPr>
+  <dimension ref="E7:I19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.8938053097345" customWidth="1"/>
-    <col min="3" max="3" width="15.6283185840708" customWidth="1"/>
-    <col min="4" max="4" width="77.3628318584071" customWidth="1"/>
-    <col min="5" max="5" width="58.1858407079646" customWidth="1"/>
+    <col min="5" max="5" width="24.4336283185841" customWidth="1"/>
+    <col min="6" max="6" width="14.8053097345133" customWidth="1"/>
+    <col min="7" max="7" width="25.4867256637168" customWidth="1"/>
+    <col min="8" max="8" width="54.1681415929204" customWidth="1"/>
+    <col min="9" max="9" width="45.3362831858407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="45"/>
-      <c r="C7" s="129" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="129" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="129" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="45"/>
-      <c r="C8" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="45"/>
-      <c r="C9" s="129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="45"/>
-      <c r="C10" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="45"/>
-      <c r="C11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="45"/>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="143" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="I13" s="161"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
+    <row r="7" ht="40.5" spans="5:8">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" ht="48" customHeight="1" spans="5:8">
+      <c r="E8" s="46"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" ht="114" customHeight="1" spans="5:8">
+      <c r="E9" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="5:9">
+      <c r="E10" s="42"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="5:9">
+      <c r="E11" s="50"/>
+      <c r="F11" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" ht="54" spans="5:8">
+      <c r="E12" s="50"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" ht="121.5" spans="5:8">
+      <c r="E13" s="50"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="53" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" ht="79" customHeight="1" spans="5:8">
+      <c r="E14" s="50"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="46" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" ht="54" customHeight="1" spans="5:8">
+      <c r="E15" s="50"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" ht="55" customHeight="1" spans="5:8">
+      <c r="E16" s="50"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="5:8">
+      <c r="E17" s="50"/>
+      <c r="F17" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" ht="81" spans="5:8">
+      <c r="E18" s="50"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="46" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="5:8">
+      <c r="E19" s="50"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="46" t="s">
+        <v>446</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B6:B12"/>
+  <mergeCells count="8">
+    <mergeCell ref="E9:E19"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="I10:I11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D9:G13"/>
@@ -5029,61 +5158,61 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="E9" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="F9" s="43" t="s">
         <v>449</v>
       </c>
+      <c r="G9" s="44" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="37"/>
-      <c r="E10" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="F10" s="38" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="F10" s="43" t="s">
         <v>452</v>
       </c>
+      <c r="G10" s="43" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="40" t="s">
-        <v>453</v>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="45" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="37"/>
-      <c r="E12" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="42" t="s">
         <v>456</v>
       </c>
+      <c r="G12" s="46" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="37"/>
-      <c r="E13" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="F13" s="37" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="42" t="s">
         <v>459</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -5097,12 +5226,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A53" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A53" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
@@ -5119,745 +5248,745 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>460</v>
+      <c r="A2" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2"/>
+      <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="D7" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="27" spans="2:7">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="F11" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="11" t="s">
         <v>479</v>
       </c>
+      <c r="G13" s="8" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="11" t="s">
         <v>483</v>
       </c>
+      <c r="G14" s="8" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>487</v>
       </c>
+      <c r="G15" s="6" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="D21" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="2"/>
-      <c r="C25" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="2"/>
-      <c r="C26" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="D27" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="E27" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="D28" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="E28" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="E29" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="E30" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="E31" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="D33" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="F33" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
+      <c r="E34" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="D35" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="F35" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="E36" s="13" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
+      <c r="E36" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
+      <c r="E37" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
+      <c r="E38" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="D39" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="F39" s="8" t="s">
         <v>540</v>
       </c>
+      <c r="G39" s="9" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="E40" s="17" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4" t="s">
+      <c r="E40" s="22" t="s">
         <v>543</v>
       </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="F41" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="E42" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="1"/>
-      <c r="C43" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="E43" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="F43" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="D44" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="E44" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="F44" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="18"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E45" s="14" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="F45" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="18"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="3"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="21"/>
-      <c r="C47" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="3"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="D48" s="19" t="s">
+      <c r="B48" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="3"/>
+      <c r="C48" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="22"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="3"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="22"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="3"/>
+      <c r="E50" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="22"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="C52" s="24" t="s">
+      <c r="B52" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="E52" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="F52" s="30" t="s">
         <v>574</v>
       </c>
+      <c r="G52" s="31" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="35"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="32"/>
+      <c r="E54" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="F54" s="36"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="27"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="33"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="F57" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G57" s="8"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="35" t="s">
-        <v>582</v>
-      </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
+      <c r="C62" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -5900,23 +6029,246 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="H14:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="13.4336283185841" customWidth="1"/>
+    <col min="9" max="9" width="16.8318584070796" customWidth="1"/>
+    <col min="10" max="10" width="22.0796460176991" customWidth="1"/>
+    <col min="11" max="11" width="35.3185840707965" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="8:11">
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="8:11">
+      <c r="H15" s="1"/>
+      <c r="I15" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="8:11">
+      <c r="H16" s="1"/>
+      <c r="I16" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="17" ht="47" customHeight="1" spans="8:11">
+      <c r="H17" s="1"/>
+      <c r="I17" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="1"/>
+      <c r="I18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="1"/>
+      <c r="I19" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" s="1"/>
+      <c r="I20" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" s="1"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H14:H21"/>
+    <mergeCell ref="I20:I21"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B6:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="27.8938053097345" customWidth="1"/>
+    <col min="3" max="3" width="15.6283185840708" customWidth="1"/>
+    <col min="4" max="4" width="77.3628318584071" customWidth="1"/>
+    <col min="5" max="5" width="58.1858407079646" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="40.5" spans="2:5">
+      <c r="B6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="50"/>
+      <c r="C7" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="2:5">
+      <c r="B8" s="50"/>
+      <c r="C8" s="134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="134"/>
+      <c r="E8" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="50"/>
+      <c r="C9" s="134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="2:5">
+      <c r="B10" s="50"/>
+      <c r="C10" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="134"/>
+      <c r="E10" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="2:5">
+      <c r="B11" s="50"/>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="94.5" spans="2:5">
+      <c r="B12" s="50"/>
+      <c r="C12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="58" customHeight="1" spans="2:9">
+      <c r="B13" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="I13" s="166"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:5">
+      <c r="B14" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B6:B12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A11:G30"/>
@@ -5936,252 +6288,252 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="147" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="147" t="s">
+      <c r="A13" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="B13" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="148" t="s">
+      <c r="C13" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="149" t="s">
+      <c r="E13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="150" t="s">
+      <c r="F13" s="154" t="s">
         <v>31</v>
       </c>
+      <c r="G13" s="155" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="151"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="152" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="157" t="s">
         <v>33</v>
       </c>
+      <c r="G14" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="151"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="154" t="s">
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="155"/>
+      <c r="F15" s="159" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="160"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="151"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="A16" s="156"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="151"/>
-      <c r="B17" s="156" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="156"/>
+      <c r="B17" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="151"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="151"/>
-      <c r="B19" s="157" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="3" t="s">
+      <c r="A19" s="156"/>
+      <c r="B19" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="151"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="151"/>
-      <c r="B21" s="156" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="156" t="s">
+      <c r="A21" s="156"/>
+      <c r="B21" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="156" t="s">
+      <c r="C21" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="F21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="151"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="3"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="151"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="3"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="151"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="3"/>
+      <c r="A24" s="156"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="151"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="151"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="A26" s="156"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="151"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="A27" s="156"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="151"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="156"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="151"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="151"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6204,7 +6556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:E10"/>
@@ -6221,79 +6573,79 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="142" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="143" t="s">
+      <c r="C5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="D5" s="148" t="s">
         <v>60</v>
       </c>
+      <c r="E5" s="122" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="142"/>
-      <c r="C6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="147"/>
+      <c r="C6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="143" t="s">
+      <c r="D6" s="20" t="s">
         <v>63</v>
       </c>
+      <c r="E6" s="148" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="144" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="145" t="s">
+      <c r="B7" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="146" t="s">
+      <c r="C7" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="146" t="s">
+      <c r="D7" s="151" t="s">
         <v>67</v>
       </c>
+      <c r="E7" s="151" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="144"/>
-      <c r="C8" s="145" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="145" t="s">
+      <c r="B8" s="149"/>
+      <c r="C8" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="D8" s="150" t="s">
         <v>70</v>
       </c>
+      <c r="E8" s="151" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="144"/>
-      <c r="C9" s="145" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="145" t="s">
+      <c r="B9" s="149"/>
+      <c r="C9" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="146" t="s">
+      <c r="D9" s="150" t="s">
         <v>73</v>
       </c>
+      <c r="E9" s="151" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="144"/>
-      <c r="C10" s="145" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="145" t="s">
+      <c r="B10" s="149"/>
+      <c r="C10" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="D10" s="150" t="s">
         <v>76</v>
+      </c>
+      <c r="E10" s="151" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6306,7 +6658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:G20"/>
@@ -6325,228 +6677,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="133" t="s">
+      <c r="B3" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="C3" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="135" t="s">
+      <c r="D3" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="135" t="s">
+      <c r="E3" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="134" t="s">
+      <c r="F3" s="140" t="s">
         <v>82</v>
       </c>
+      <c r="G3" s="139" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="134" t="s">
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="135" t="s">
+      <c r="F4" s="139" t="s">
         <v>85</v>
       </c>
+      <c r="G4" s="140" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="136"/>
-      <c r="F5" s="134" t="s">
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="134" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="139" t="s">
         <v>88</v>
       </c>
+      <c r="G5" s="139" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="137" t="s">
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="135" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="142" t="s">
         <v>91</v>
       </c>
+      <c r="G6" s="140" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="138" t="s">
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="139" t="s">
+      <c r="E7" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="134" t="s">
+      <c r="F7" s="144" t="s">
         <v>95</v>
       </c>
+      <c r="G7" s="139" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="135" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="134"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="139"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="135" t="s">
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="137" t="s">
+      <c r="E9" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="F9" s="142" t="s">
         <v>100</v>
       </c>
+      <c r="G9" s="140" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="133"/>
-      <c r="C10" s="133" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="141" t="s">
+      <c r="B10" s="138"/>
+      <c r="C10" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="141" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="146" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="146" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="141" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="146" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="141" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="146" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="133"/>
-      <c r="C16" s="133" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="133" t="s">
+      <c r="B16" s="138"/>
+      <c r="C16" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="141" t="s">
+      <c r="D16" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="134" t="s">
+      <c r="E16" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="141"/>
+      <c r="F16" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="146"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="136"/>
-      <c r="G17" s="141"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="141"/>
+      <c r="G17" s="146"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="141" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="136"/>
-      <c r="G18" s="141"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="141"/>
+      <c r="G18" s="146"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="141"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="146" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="141"/>
+      <c r="G19" s="146"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="141" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="141"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="146" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="141"/>
+      <c r="G20" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6570,7 +6922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F36"/>
@@ -6590,378 +6942,378 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
+      <c r="A1" s="118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="116" t="s">
+      <c r="A2" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="B2" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="117" t="s">
+      <c r="A3" s="120"/>
+      <c r="B3" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="116"/>
+      <c r="C3" s="122" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="121"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="116" t="s">
+      <c r="A4" s="120"/>
+      <c r="B4" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="116"/>
+      <c r="C4" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="121"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="115"/>
-      <c r="B5" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="117" t="s">
+      <c r="A5" s="120"/>
+      <c r="B5" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="116"/>
+      <c r="C5" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="121"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="117" t="s">
+      <c r="A6" s="120"/>
+      <c r="B6" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="116"/>
+      <c r="C6" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="121"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="117" t="s">
+      <c r="A7" s="120"/>
+      <c r="B7" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="116"/>
+      <c r="C7" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="121"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="117" t="s">
+      <c r="A8" s="120"/>
+      <c r="B8" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="116"/>
+      <c r="C8" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="121"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="117" t="s">
+      <c r="A9" s="120"/>
+      <c r="B9" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="C9" s="122" t="s">
         <v>133</v>
       </c>
+      <c r="D9" s="122" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="117" t="s">
+      <c r="A10" s="120"/>
+      <c r="B10" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="C10" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="121"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="117" t="s">
+      <c r="A11" s="120"/>
+      <c r="B11" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="116"/>
+      <c r="C11" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="121"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="118" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="118" t="s">
+      <c r="A12" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="B12" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="C12" s="124" t="s">
         <v>141</v>
       </c>
+      <c r="D12" s="124" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="120"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="119" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="119" t="s">
+      <c r="A13" s="125"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="124" t="s">
         <v>143</v>
       </c>
+      <c r="D13" s="124" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="120"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="119" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="119" t="s">
+      <c r="A14" s="125"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="124" t="s">
         <v>145</v>
       </c>
+      <c r="D14" s="124" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="120"/>
-      <c r="B15" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="119" t="s">
+      <c r="A15" s="125"/>
+      <c r="B15" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="122"/>
+      <c r="C15" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="127"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="120"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="119" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="122" t="s">
-        <v>148</v>
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="124" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="127" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="120"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="119" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="119" t="s">
+      <c r="A17" s="125"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="124" t="s">
         <v>150</v>
       </c>
+      <c r="D17" s="124" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="120"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="119" t="s">
+      <c r="A18" s="125"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="124" t="s">
         <v>152</v>
       </c>
+      <c r="D18" s="124" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="120"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="119" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="119" t="s">
+      <c r="A19" s="125"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="124" t="s">
         <v>154</v>
       </c>
+      <c r="D19" s="124" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="120"/>
-      <c r="B20" s="118" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="119" t="s">
+      <c r="A20" s="125"/>
+      <c r="B20" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="C20" s="124" t="s">
         <v>157</v>
       </c>
+      <c r="D20" s="124" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="121"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="119" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="119" t="s">
+      <c r="A21" s="126"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="124" t="s">
         <v>159</v>
       </c>
+      <c r="D21" s="124" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="123" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="124" t="s">
+      <c r="A22" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="B22" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="C22" s="130" t="s">
         <v>163</v>
       </c>
+      <c r="D22" s="130" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="126"/>
-      <c r="B23" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="125" t="s">
+      <c r="A23" s="131"/>
+      <c r="B23" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="C23" s="130" t="s">
         <v>166</v>
       </c>
+      <c r="D23" s="130" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="126"/>
-      <c r="B24" s="124" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="125" t="s">
+      <c r="A24" s="131"/>
+      <c r="B24" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="C24" s="130" t="s">
         <v>169</v>
       </c>
+      <c r="D24" s="130" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="126"/>
-      <c r="B25" s="124" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="125" t="s">
+      <c r="A25" s="131"/>
+      <c r="B25" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="125"/>
+      <c r="C25" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="130"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="126"/>
-      <c r="B26" s="124" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="125" t="s">
+      <c r="A26" s="131"/>
+      <c r="B26" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="C26" s="130" t="s">
         <v>174</v>
       </c>
+      <c r="D26" s="130" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="126"/>
-      <c r="B27" s="124" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="127" t="s">
+      <c r="A27" s="131"/>
+      <c r="B27" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="C27" s="132" t="s">
         <v>177</v>
       </c>
+      <c r="D27" s="130" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="126"/>
-      <c r="B28" s="124" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="125" t="s">
+      <c r="A28" s="131"/>
+      <c r="B28" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="125" t="s">
+      <c r="C28" s="130" t="s">
         <v>180</v>
       </c>
+      <c r="D28" s="130" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="126"/>
-      <c r="B29" s="124" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="125" t="s">
+      <c r="A29" s="131"/>
+      <c r="B29" s="129" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="C29" s="130" t="s">
         <v>183</v>
       </c>
+      <c r="D29" s="130" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="128"/>
-      <c r="B30" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="127" t="s">
+      <c r="A30" s="133"/>
+      <c r="B30" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="125" t="s">
+      <c r="C30" s="132" t="s">
         <v>186</v>
+      </c>
+      <c r="D30" s="130" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="129" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="41" t="s">
+      <c r="A32" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="B32" s="46" t="s">
         <v>189</v>
       </c>
+      <c r="C32" s="46" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="B34" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="131"/>
-      <c r="B35" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="41" t="s">
+      <c r="A35" s="136"/>
+      <c r="B35" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="132"/>
+      <c r="C35" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="137"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="129" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="129" t="s">
+      <c r="B36" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="132"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6981,12 +7333,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A42" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:A47"/>
     </sheetView>
   </sheetViews>
@@ -7000,582 +7352,582 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="C1" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="D1" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="83" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="85"/>
+      <c r="D2" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="90"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="86" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="85"/>
+      <c r="D3" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="87" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="C4" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="D4" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="87" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="83" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="85"/>
+      <c r="D5" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="87" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="83" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="D6" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="88" t="s">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="D7" s="93" t="s">
         <v>216</v>
       </c>
+      <c r="E7" s="88" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="83" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="88" t="s">
         <v>219</v>
       </c>
+      <c r="E8" s="88" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="89" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="C9" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="D9" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="88"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="88" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="D10" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="88"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="89" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="C11" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="D11" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="88"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="81"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="88" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="D12" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="88"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="83" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="D13" s="88" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="88"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="89" t="s">
+      <c r="A14" s="86"/>
+      <c r="B14" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="C14" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="D14" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="88"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="81"/>
-      <c r="B15" s="90" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="89" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="C15" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="D15" s="88" t="s">
         <v>238</v>
       </c>
+      <c r="E15" s="88" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="81"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="89" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="88" t="s">
+      <c r="A16" s="86"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="D16" s="93" t="s">
         <v>241</v>
       </c>
+      <c r="E16" s="88" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="92" t="s">
+      <c r="A17" s="86"/>
+      <c r="B17" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="C17" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="D17" s="88" t="s">
         <v>245</v>
       </c>
+      <c r="E17" s="88" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="83" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="83" t="s">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="88" t="s">
         <v>247</v>
       </c>
+      <c r="E18" s="88" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="94" t="s">
+      <c r="A19" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="B19" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="C19" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="95"/>
+      <c r="D19" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="93"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="83" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="85" t="s">
+      <c r="A20" s="98"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="97" t="s">
+      <c r="D20" s="90" t="s">
         <v>254</v>
       </c>
+      <c r="E20" s="102" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="93"/>
-      <c r="B21" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="97" t="s">
+      <c r="A21" s="98"/>
+      <c r="B21" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="C21" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="D21" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="104"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="93"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="83" t="s">
-        <v>258</v>
-      </c>
-      <c r="E22" s="91"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" s="96"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="B23" s="102" t="s">
+      <c r="A23" s="106" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="B23" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="C23" s="88" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="81"/>
+      <c r="D23" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="86"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="103"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="D24" s="92" t="s">
+      <c r="A24" s="108"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="E24" s="81"/>
+      <c r="D24" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="86"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="103"/>
-      <c r="B25" s="105" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" s="83" t="s">
+      <c r="A25" s="108"/>
+      <c r="B25" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="C25" s="88" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="81"/>
+      <c r="D25" s="97" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="86"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="103"/>
-      <c r="B26" s="105" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="83" t="s">
+      <c r="A26" s="108"/>
+      <c r="B26" s="110" t="s">
         <v>269</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="C26" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="D26" s="97" t="s">
         <v>271</v>
       </c>
+      <c r="E26" s="87" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="103"/>
-      <c r="B27" s="102" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="83" t="s">
+      <c r="A27" s="108"/>
+      <c r="B27" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="C27" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="E27" s="81"/>
+      <c r="D27" s="97" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="86"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="103"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="83" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="92" t="s">
+      <c r="A28" s="108"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="81"/>
+      <c r="D28" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="86"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="103"/>
-      <c r="B29" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="92" t="s">
+      <c r="A29" s="108"/>
+      <c r="B29" s="97" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="81"/>
+      <c r="C29" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="97"/>
+      <c r="E29" s="86"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="103"/>
-      <c r="B30" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" s="92" t="s">
+      <c r="A30" s="108"/>
+      <c r="B30" s="97" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="C30" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="E30" s="81"/>
+      <c r="D30" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" s="86"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="103"/>
-      <c r="B31" s="82" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="85" t="s">
+      <c r="A31" s="108"/>
+      <c r="B31" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="C31" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="E31" s="81"/>
+      <c r="D31" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="86"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="103"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82" t="s">
-        <v>285</v>
-      </c>
-      <c r="D32" s="92" t="s">
+      <c r="A32" s="108"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="81"/>
+      <c r="D32" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" s="86"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="103"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" s="81"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="97" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="86"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="103"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="E34" s="81"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="97" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" s="86"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="103"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="E35" s="81"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" s="86"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="103"/>
-      <c r="B36" s="106" t="s">
-        <v>290</v>
-      </c>
-      <c r="C36" s="92" t="s">
+      <c r="A36" s="108"/>
+      <c r="B36" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="D36" s="107" t="s">
+      <c r="C36" s="97" t="s">
         <v>292</v>
       </c>
-      <c r="E36" s="82"/>
+      <c r="D36" s="112" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="87"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="103"/>
-      <c r="B37" s="82" t="s">
-        <v>293</v>
-      </c>
-      <c r="C37" s="85" t="s">
+      <c r="A37" s="108"/>
+      <c r="B37" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="D37" s="92" t="s">
+      <c r="C37" s="90" t="s">
         <v>295</v>
       </c>
-      <c r="E37" s="81"/>
+      <c r="D37" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="86"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="103"/>
-      <c r="B38" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="108"/>
+      <c r="B38" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="C38" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="81"/>
+      <c r="D38" s="97" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" s="86"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="103"/>
-      <c r="B39" s="82" t="s">
-        <v>299</v>
-      </c>
-      <c r="C39" s="85" t="s">
+      <c r="A39" s="108"/>
+      <c r="B39" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="81"/>
+      <c r="C39" s="90" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" s="97"/>
+      <c r="E39" s="86"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="103"/>
-      <c r="B40" s="92" t="s">
-        <v>301</v>
-      </c>
-      <c r="C40" s="83" t="s">
+      <c r="A40" s="108"/>
+      <c r="B40" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="C40" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="E40" s="81"/>
+      <c r="D40" s="97" t="s">
+        <v>304</v>
+      </c>
+      <c r="E40" s="86"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="103"/>
-      <c r="B41" s="92" t="s">
-        <v>304</v>
-      </c>
-      <c r="C41" s="83" t="s">
+      <c r="A41" s="108"/>
+      <c r="B41" s="97" t="s">
         <v>305</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="81"/>
+      <c r="C41" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" s="97"/>
+      <c r="E41" s="86"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="103"/>
-      <c r="B42" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="C42" s="108" t="s">
+      <c r="A42" s="108"/>
+      <c r="B42" s="97" t="s">
         <v>307</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="81"/>
+      <c r="C42" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="97"/>
+      <c r="E42" s="86"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="101" t="s">
-        <v>308</v>
-      </c>
-      <c r="B43" s="109" t="s">
+      <c r="A43" s="106" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="81"/>
+      <c r="B43" s="114" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="115"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="86"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="103"/>
-      <c r="B44" s="92" t="s">
-        <v>310</v>
-      </c>
-      <c r="C44" s="111" t="s">
+      <c r="A44" s="108"/>
+      <c r="B44" s="97" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="92" t="s">
+      <c r="C44" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="E44" s="108" t="s">
+      <c r="D44" s="97" t="s">
         <v>313</v>
       </c>
+      <c r="E44" s="113" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="103"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92" t="s">
-        <v>314</v>
-      </c>
-      <c r="E45" s="87" t="s">
+      <c r="A45" s="108"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97" t="s">
         <v>315</v>
       </c>
+      <c r="E45" s="92" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="103"/>
-      <c r="B46" s="82" t="s">
-        <v>316</v>
-      </c>
-      <c r="C46" s="111" t="s">
+      <c r="A46" s="108"/>
+      <c r="B46" s="87" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="92" t="s">
+      <c r="C46" s="116" t="s">
         <v>318</v>
       </c>
-      <c r="E46" s="108" t="s">
+      <c r="D46" s="97" t="s">
         <v>319</v>
       </c>
+      <c r="E46" s="113" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="112"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="107" t="s">
-        <v>320</v>
-      </c>
-      <c r="E47" s="108" t="s">
+      <c r="A47" s="117"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="112" t="s">
         <v>321</v>
+      </c>
+      <c r="E47" s="113" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -7609,13 +7961,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7627,405 +7979,405 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="56"/>
+      <c r="C1" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="C2" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" s="57" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="C3" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="C4" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="C5" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="C6" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="64" t="s">
-        <v>335</v>
-      </c>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="70" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="62" t="s">
         <v>338</v>
       </c>
+      <c r="D7" s="71" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="64"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="57" t="s">
-        <v>339</v>
-      </c>
-      <c r="D8" s="56" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="62" t="s">
         <v>340</v>
       </c>
+      <c r="D8" s="61" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="64"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="57" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="59" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="62" t="s">
         <v>342</v>
       </c>
+      <c r="D9" s="64" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="64"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="59" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="62" t="s">
         <v>344</v>
       </c>
+      <c r="D10" s="64" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="64"/>
-      <c r="B11" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="C11" s="62" t="s">
         <v>347</v>
       </c>
+      <c r="D11" s="61" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="64"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>337</v>
+      <c r="A12" s="69"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="64"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="70" t="s">
-        <v>349</v>
+      <c r="A13" s="69"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="75" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="64"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="70" t="s">
-        <v>350</v>
+      <c r="A14" s="69"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="75" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="64"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="69" t="s">
-        <v>351</v>
+      <c r="A15" s="69"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="74" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="64"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>352</v>
+      <c r="A16" s="69"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="D17" s="71" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>354</v>
       </c>
+      <c r="D17" s="76" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="64"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="72"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="77"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="64"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="59" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" s="72"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="77"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="64"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="59" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20" s="73"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="78"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="74"/>
-      <c r="B21" s="56" t="s">
-        <v>357</v>
-      </c>
-      <c r="C21" s="60" t="s">
+      <c r="A21" s="79"/>
+      <c r="B21" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="C21" s="65" t="s">
         <v>359</v>
       </c>
+      <c r="D21" s="61" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="B22" s="75" t="s">
+      <c r="A22" s="69" t="s">
         <v>361</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="56"/>
+      <c r="C22" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="61"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="64"/>
-      <c r="B23" s="76" t="s">
-        <v>363</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="81" t="s">
         <v>364</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="C23" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="62"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="64"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="57" t="s">
-        <v>365</v>
-      </c>
-      <c r="D24" s="57"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="62" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" s="62"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="64"/>
-      <c r="B25" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25" s="77" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="C25" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="D25" s="83"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="64"/>
-      <c r="B26" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="61" t="s">
         <v>369</v>
       </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="C27" s="61" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="C27" s="66" t="s">
         <v>372</v>
       </c>
+      <c r="D27" s="62" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="64"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="61" t="s">
-        <v>373</v>
-      </c>
-      <c r="D28" s="57" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="66" t="s">
         <v>374</v>
       </c>
+      <c r="D28" s="62" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="64"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="61" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" s="57" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="66" t="s">
         <v>376</v>
       </c>
+      <c r="D29" s="62" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="74"/>
-      <c r="B30" s="56" t="s">
-        <v>377</v>
-      </c>
-      <c r="C30" s="57" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="D30" s="57"/>
+      <c r="C30" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" s="62"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="64" t="s">
-        <v>379</v>
-      </c>
-      <c r="B31" s="76" t="s">
+      <c r="A31" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="B31" s="81" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="57"/>
+      <c r="C31" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="64"/>
-      <c r="B32" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="C32" s="57" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="81" t="s">
         <v>383</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="C32" s="62" t="s">
         <v>384</v>
       </c>
+      <c r="D32" s="62" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="D33" s="57" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="62" t="s">
         <v>386</v>
       </c>
+      <c r="D33" s="62" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="D34" s="57" t="s">
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="62" t="s">
         <v>388</v>
       </c>
+      <c r="D34" s="62" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="64"/>
-      <c r="B35" s="76" t="s">
-        <v>389</v>
-      </c>
-      <c r="C35" s="57" t="s">
+      <c r="A35" s="69"/>
+      <c r="B35" s="81" t="s">
         <v>390</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="C35" s="62" t="s">
         <v>391</v>
       </c>
+      <c r="D35" s="62" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="64"/>
-      <c r="B36" s="76" t="s">
-        <v>392</v>
-      </c>
-      <c r="C36" s="57" t="s">
+      <c r="A36" s="69"/>
+      <c r="B36" s="81" t="s">
         <v>393</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="C36" s="62" t="s">
         <v>394</v>
       </c>
+      <c r="D36" s="62" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="64"/>
-      <c r="B37" s="76" t="s">
-        <v>395</v>
-      </c>
-      <c r="C37" s="79" t="s">
+      <c r="A37" s="69"/>
+      <c r="B37" s="81" t="s">
         <v>396</v>
       </c>
-      <c r="D37" s="80"/>
+      <c r="C37" s="84" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" s="85"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="64"/>
-      <c r="B38" s="76" t="s">
-        <v>397</v>
-      </c>
-      <c r="C38" s="79" t="s">
+      <c r="A38" s="69"/>
+      <c r="B38" s="81" t="s">
         <v>398</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="C38" s="84" t="s">
         <v>399</v>
       </c>
+      <c r="D38" s="85" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="61" t="s">
-        <v>400</v>
-      </c>
-      <c r="D39" s="61" t="s">
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="66" t="s">
         <v>401</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -8051,13 +8403,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -8071,107 +8423,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="D1" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="C5" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="D5" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="E5" s="56" t="s">
         <v>413</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="F5" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53" t="s">
-        <v>414</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52"/>
+      <c r="D6" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="53" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="D7" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="E7" s="56" t="s">
         <v>419</v>
       </c>
+      <c r="F7" s="58" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="51"/>
-      <c r="B8" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8184,172 +8536,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.25"/>
-  </sheetPr>
-  <dimension ref="E7:I19"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="24.4336283185841" customWidth="1"/>
-    <col min="6" max="6" width="14.8053097345133" customWidth="1"/>
-    <col min="7" max="7" width="25.4867256637168" customWidth="1"/>
-    <col min="8" max="8" width="54.1681415929204" customWidth="1"/>
-    <col min="9" max="9" width="45.3362831858407" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="41"/>
-      <c r="F7" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="41"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="37"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="45"/>
-      <c r="F11" s="46" t="s">
-        <v>433</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="I11" s="49"/>
-    </row>
-    <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="45"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="42" t="s">
-        <v>435</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="45"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="48" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="45"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="41" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="45"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="45"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="41" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="45"/>
-      <c r="F17" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="45"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="41" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="45"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="41" t="s">
-        <v>445</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E9:E19"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="I10:I11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="14" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="评估" sheetId="5" r:id="rId10"/>
     <sheet name="优化" sheetId="6" r:id="rId11"/>
     <sheet name="cv2" sheetId="12" r:id="rId12"/>
-    <sheet name="深2" sheetId="13" r:id="rId13"/>
+    <sheet name="深1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="704">
   <si>
     <t>首先我学习了机器学习，针对不同问题使用不同的方法解决，回归问题，的掌握了线性模型及其变种、决策树、集成学习、支持向量机，
 分类问题：逻辑回归、决策树回归、支持向量机、朴素贝页斯。
@@ -2233,8 +2233,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3164,45 +3165,699 @@
 （3）数据增强：灰度、翻转、缩放、拉伸、旋转得到新图。</t>
   </si>
   <si>
-    <t>图像分类</t>
-  </si>
-  <si>
-    <t>针对整张图像</t>
-  </si>
-  <si>
-    <t>目标检测</t>
-  </si>
-  <si>
-    <t>针对某一区域分类</t>
-  </si>
-  <si>
-    <t>光学字符识别OCR</t>
-  </si>
-  <si>
-    <t>小学生作用题，识别图片小的文字，
-证件号码提取识别</t>
-  </si>
-  <si>
-    <t>语义分割</t>
-  </si>
-  <si>
-    <t>用当前模型"精确"地把轮廓勾勒出来。
-图像分割，针对每一个像素值进行分类。</t>
-  </si>
-  <si>
-    <t>针对每一个像素值分类</t>
-  </si>
-  <si>
-    <t>图像合成</t>
-  </si>
-  <si>
-    <t>人体相关</t>
-  </si>
-  <si>
-    <t>人脸识别</t>
-  </si>
-  <si>
-    <t>人体姿态检测</t>
+    <t>深度神经网络</t>
+  </si>
+  <si>
+    <t>（1）输入是 "一维向量"</t>
+  </si>
+  <si>
+    <t>//"一维向量" 指的是  "特征是一维"的，并不是指数据
+指输出的是特征，如：一个样本有3个特征</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /**
+  假设有4个特征，
+  下一层（隐藏层）有5个 "神经元"，
+  （1） 那么 "每个特征"，都分别和这5个神经元计算一次，
+  （2） 5个神经元，会得到5个值，
+  （3） 5个值 再和下一层的 "每个神经元" 计算一次
+  （4）最后一层，输入层，只有一个神经元，得到一个值。
+ */</t>
+  </si>
+  <si>
+    <t>（2）每个神经元 和 上一层、下一层每个"神经元相连接"</t>
+  </si>
+  <si>
+    <t>上一层和下一层全连接，
+指 "上一层的输入" 和 "这一层的每一个神经元" 连接
+上一层的输出，作为下一层的输入 
+前后相连、同层不连。</t>
+  </si>
+  <si>
+    <t>（3）有向无循环，</t>
+  </si>
+  <si>
+    <t>有向指：输入和输出的方向</t>
+  </si>
+  <si>
+    <t>（4） "输入层" 有几个神经元 "输出几个值"</t>
+  </si>
+  <si>
+    <t>感知机</t>
+  </si>
+  <si>
+    <t>概念</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "感知机（Perceptron）" ，又称为 "人工神经元（Artificial neuron）"，它是 "生物神经元" 在计算机中的 "模拟"。
+它是 "神经网络（深度学习）"的起源算法，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">激活函数是连续的：神经网络
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否则：多层感知机
+</t>
+  </si>
+  <si>
+    <t>（感知机）
+（人工神经元）
+计算规则</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>它可以接收 "多个输入信号" ，产生 "一个输出信号"
+（只能做</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线性可分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的任务）</t>
+    </r>
+  </si>
+  <si>
+    <t>简单分类任务</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/** 感知机分类（只能做线性可分的任务）：
+（蝴蝶）x1（0.2） --&gt; w1                        ----------------- 0 分类（不跑）
+             -----&gt; （伤害阈值）Thea（0.4） --------&gt;y--------&gt;达到0.4
+（蜜蜂）x2（0.5） --&gt; w2                        ----------------- 1 分类（要跑）
+//=================================== 有以下几种情况：
+（1） 蝴蝶来了0.2 
+  1 *  0.2  + 0 * 0.5 = 0.2 , 小于 0.4 出结论，不跑
+（2） 蜜蜂来了0.5  
+  0 *  0.2  + 1 * 0.5 = 0.5,  大于 0.4 出结论，要跑
+（3） 蝴蝶蜜蜂仪器来了
+  1 *  0.2  + 1 * 0.5 = 0.7,  大于 0.4 出结论，要跑
+//=================================== 计算公式：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x1 * w1 + x2 *w2 然后与 Thea比较
+ x1 和 x2 是输入数据
+ w1 和 w2 就是每个输入数据的权重值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*/
+//============================
+1 *  0.2  + 0 * 0.5  这个称为输入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“信号的组合”</t>
+    </r>
+  </si>
+  <si>
+    <t>回归任务</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">感知机做回归：得到的是连续的值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y = w1x1 + w2x2 - Thea，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+这里不再作比较，而是做减法。得到连续值，这就是回归了。</t>
+    </r>
+  </si>
+  <si>
+    <t>本质</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"感知机的本质" 就是 "线性模型"，
+是一个 "大的线性模型"， 配合一个 "激活函数" </t>
+  </si>
+  <si>
+    <t>（感知机）
+（人工神经元）
+功能演示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"感知机"  能实现 "逻辑与" 、也能实现 "逻辑或" </t>
+  </si>
+  <si>
+    <t>区别在于thea不同、权重等不同（重点）
+"权重和阈值" 是 "模型" 需要 "自己学习的参数"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+//======================================== 逻辑和、逻辑与、AND（线性分类）：都为真才为真
+//======================================== 逻辑和、逻辑与、AND（线性分类）：都为真才为真
+（发烧）1（0.5）
+   -----&gt;  Thea（0.7）  ---------&gt;1*0.5 + 1*0.5 &gt; 0.7  ----&gt; 1（感冒）
+（咳嗽）1（0.5）
+（发烧）1（0.5）
+   -----&gt;  Thea（0.7）  ---------&gt;1*0.5 + 0*0.5 &lt; 0.7  ----&gt; 0（非感冒）
+（咳嗽）0（0.5）
+//======================================== 逻辑或、OR（线性分类）：一个为真就为真
+//======================================== 逻辑或、OR（线性分类）：一个为真就为真
+（生病）1（0.5）
+   -----&gt;  Thea（0.2）  ---------&gt;1*0.5 + 1*0.5 &gt; 0.2  ----&gt; 1（上医院）
+（体检）1（0.5）
+（生病）1（0.5）
+   -----&gt;  Thea（0.2）  ---------&gt;1*0.5 + 0*0.5 &lt; 0.2  ----&gt; 1（上医院）
+（体检）0（0.5）
+</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>无法处理 "异或" 问题</t>
+  </si>
+  <si>
+    <t>非线性的</t>
+  </si>
+  <si>
+    <t>多层感知机</t>
+  </si>
+  <si>
+    <t>为什么出现</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为了解决 感知机的 "异或" </t>
+  </si>
+  <si>
+    <t>依据</t>
+  </si>
+  <si>
+    <t>通用近似定理</t>
+  </si>
+  <si>
+    <t>在理论上可 "近似解决" 任何问题</t>
+  </si>
+  <si>
+    <t>"多层感知机"：其实就是 "多个感知机组合"（Multi-Layer Perceptron,MLP），
+也就是 "神经网络"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"单个感知机" 功能比较简单，将若干个感知机连接在一起，
+形成一个 "级联网络结构"，这个结构称为 "多层前馈神经网络" （Multi-Layer Feedforward Neural Networks）
+（如果精度不高，只需要增加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神经元数量就可以了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>"多层" 指：输入层、隐藏层、输出层。
+"前馈" 指： 上一层的输出作用下一层的输入，也就是正向
+   "每一层神经元" 仅与 "下一层的神经元" 全连接。
+    // "连接神经网络"</t>
+  </si>
+  <si>
+    <t>场景举例</t>
+  </si>
+  <si>
+    <t>用 "神经网络" 拟合 "高次方程"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> f(猫)    ——————————&gt; 猫
+ f(一段语音)  ——————————&gt; Hello,deep learning
+ f('哈哈哈哈') ——————————&gt; 高兴</t>
+  </si>
+  <si>
+    <t>权重偏置表式法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   (1) //(1)表示第一层
+ W
+   1 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   // 2表示前一层第2个
+   // 1表示后一层第1个</t>
+    </r>
+  </si>
+  <si>
+    <t>神经网络的计算公式</t>
+  </si>
+  <si>
+    <t>（略）：通过矩阵乘法得到结果，</t>
+  </si>
+  <si>
+    <t>结果再+偏执</t>
+  </si>
+  <si>
+    <t>矩阵相乘 就能实现。</t>
+  </si>
+  <si>
+    <t>激活函数</t>
+  </si>
+  <si>
+    <t>为什么要使用激活函数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目的：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"激活函数" 将 "多层感知机输出" 转换为 "非线性"，表征能力更强。</t>
+    </r>
+  </si>
+  <si>
+    <t>常见 "激活函数"</t>
+  </si>
+  <si>
+    <t>阶跃函数： x&gt;= 0为1，x&lt;0为0，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sigmoid函数（Logistic函数）
+1 /( 1 + e^(-5)) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>范围：（0,1）</t>
+    </r>
+  </si>
+  <si>
+    <t>不能太深，容易梯度消失</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tanh 双曲正切函数
+( 1 - e^(-2*x))  / ( 1 + e^(-2*x))  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>范围：（-1,1）</t>
+    </r>
+  </si>
+  <si>
+    <t>比 sigmoid函数更快
+不能太深，容易梯度消失</t>
+  </si>
+  <si>
+    <t>ReLU（Rectified Linear Units，修正线性单元）
+x&gt;0返回x,（永远有一个梯度）
+x&lt;0返回0</t>
+  </si>
+  <si>
+    <t>用于图像的隐藏层（因为图像值没有负数）</t>
+  </si>
+  <si>
+    <t>Softmax
+e^1.2 /(e^1.2 + e^4.0 +e^0.2
+把结果会转成相对的概率</t>
+  </si>
+  <si>
+    <t>图像 在输出层：常用softmax
+"分类业务" 的 "输出层" 常用softmax
+（分类业务：有几个类别，输出层就有几个神经元）</t>
+  </si>
+  <si>
+    <t>进化方向</t>
+  </si>
+  <si>
+    <t>由“浅胖”——&gt;“深瘦”
+而“深瘦”的计算</t>
+  </si>
+  <si>
+    <t>损失函数</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>度量：“预测值” 和“真实值”之间的差异。</t>
+  </si>
+  <si>
+    <t>学习的过程：</t>
+  </si>
+  <si>
+    <t>不断的通过 “训练数据”进行预测，
+不断的调整 “预测输出” 与 “实际输出” 的差异信息，使“损失函数”的值达到最小。（只有更小，没有最小）</t>
+  </si>
+  <si>
+    <t>均方误差：(求和(y-y')^2) / n
+ (真实值 - 预测值)的平方，求和，再除以n</t>
+  </si>
+  <si>
+    <t>交叉熵：
+  E = -求和(Tk * logy)
+    // "k类别的真实概率" * "预测类别" 的对数
+    // 求和（所有类型），取相反数</t>
+  </si>
+  <si>
+    <t>梯度下降</t>
+  </si>
+  <si>
+    <t>按照 “负梯度不停地调整函数权值” 的过程就叫作 “梯度下降法”</t>
+  </si>
+  <si>
+    <t>改变 "每个神经元" 与 "其他神经元的连接权重" 及 "自身的偏置" ，
+让 "损失函数" 的值 "下降得更快" ，进而将值收敛到 "损失函数的某个极小值" 。</t>
+  </si>
+  <si>
+    <t>求梯度：必须先知道“导数”</t>
+  </si>
+  <si>
+    <t>步骤</t>
+  </si>
+  <si>
+    <t>（1）损失是否足够小？如果不是，计算损失函数的梯度。
+（2）按梯度的反方向走一小步，以缩小损失。
+（3）循环到（1）。</t>
+  </si>
+  <si>
+    <t>学习率</t>
+  </si>
+  <si>
+    <t>控制学习的速度，它是梯度值前面的一个“系数”</t>
+  </si>
+  <si>
+    <t>因为下降的过程中可能会错过最小值，或出现梯度爆炸。</t>
+  </si>
+  <si>
+    <t>梯度递减法则
+（参数更新公式）</t>
+  </si>
+  <si>
+    <t>wi = wi - 学习率 * (偏导数，损失函数偏w的导数)</t>
+  </si>
+  <si>
+    <t>更新谁就有谁的偏导</t>
+  </si>
+  <si>
+    <t>导数</t>
+  </si>
+  <si>
+    <t>所谓 "导数"，就是用来分析函数 "变化率" 的一种 "度量"。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> f'(x0) = Δy / Δx
+  让Δx无限趋近于0的过程。
+  "用变化的y值" 除以 "变化的x值"，让 Δx无限趋近于0 
+  让变化的x值（即Δx无限趋近于0 ）
+f'(x0) 表示函数 f(x) 在 x0 处的导数</t>
+  </si>
+  <si>
+    <t>根据"幂的法则" 求导</t>
+  </si>
+  <si>
+    <t>指数乘以系数，再降次，常数项的导数为零，得到导函数</t>
+  </si>
+  <si>
+    <t>偏导（局部导数）</t>
+  </si>
+  <si>
+    <t>局部导数，
+对于 "多维变量函数" 而言，当 "求某个变量的导数" 时，就是把 "其他变量" 视为 "常量"</t>
+  </si>
+  <si>
+    <t>神经网络里面都是求的偏导</t>
+  </si>
+  <si>
+    <t>梯度下降算法</t>
+  </si>
+  <si>
+    <t>BGD（原始版本）批量梯度下降：</t>
+  </si>
+  <si>
+    <t>精度高、速度慢。</t>
+  </si>
+  <si>
+    <t>（1）批量梯度下降稳健地向着最低点前进的
+（2）随机梯度下降震荡明显，但总体上向最低点逼近
+（3）小批量梯度下降位于两者之间</t>
+  </si>
+  <si>
+    <t>SGD随机梯度下降</t>
+  </si>
+  <si>
+    <t>MBGD小批量梯度下降
+（批次大小会决定模型精度）</t>
+  </si>
+  <si>
+    <t>用的多</t>
+  </si>
+  <si>
+    <t>“计算梯度”的方法：反向传播</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正向传播网络、（正向前馈），
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+“上一层的输出”作用为“下一层的输入”。
+层数"越来越深" 的这种模型、精度越来越高。
+</t>
+  </si>
+  <si>
+    <t>反向传播</t>
+  </si>
+  <si>
+    <t>从“输出”到“输入”进行传播，它传播的是“误差”</t>
+  </si>
+  <si>
+    <t>“反向传播”起什么作用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“传统机器学习”才可以直接进行梯度下降。“深度机器 学习”是没办法直接梯度下降的
+问：要使用“误差反向传播”才能“更新模型参数”对不对？不对
+更新参数的方式：还是“梯度下降”，只不过直接使“用梯度下降”求不出梯度，
+通过反向传播把“隐含层”的权重“梯度”求出来，之后才可以应用于“梯度下降”更新模型参数。
+</t>
+  </si>
+  <si>
+    <t>作用：传播误差，“求梯度”。</t>
+  </si>
+  <si>
+    <t>为什么不直接“求梯度”，要反向求</t>
+  </si>
+  <si>
+    <t>因为：
+“梯度下降”要求出“梯度”，
+“梯度”是针对“损失函数”求的
+而“损失函数”是基于“误差”设计出来的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在深度神经网络，只有在 "输出层"，才有 "预测值" y' ，才有 y'-y 构建出来差异。
+隐含层：是看不见的东西，没有误差、没有损失函数、没办法求导。
+之前的线性回归，y=kx+b，直接到了输出层，直接作用于预测值，所以可以求导，它是浅层模型
+而深度神经网络 ，有多个隐藏层，这些隐藏层并没有得到输出结果，而是将计算结果交给下一层计算。
+到了输出层，才有最终结果，才有误差。
+“隐含层”的每一个权重，它也会影响我们最终的输出值，隐藏层没有误差。
+</t>
+  </si>
+  <si>
+    <t>概念：</t>
+  </si>
+  <si>
+    <t>反向传播（Backpropagation algorithm）（BP）全称 "误差反向传播"，
+是在 "深度神经网络" 中，根据 "输出层输出值"，来 "反向调整-隐藏层权重" 的一种方法。</t>
+  </si>
+  <si>
+    <t>正向计算：</t>
+  </si>
+  <si>
+    <t>支付金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反向计算：
+</t>
+  </si>
+  <si>
+    <t>请计算 "苹果价格上涨" 会在多大程度上 "影响支付金额"（即求: "支付金额" 关于 "苹果单价" 的导数"）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      这个 "导数的值" 表示当 "苹果的价格稍微上涨" 时， "支付金额会增加多少"。
+      如： 苹果价格增长1，支付金额增加2.2。  // 2 * (1+0.1)  ，
+                // 则总金额变成 ：11*2*1.1=24.2，比原来的22多了2.2
+      如： 苹果价格增长3，支付金额增加2.2 *3。// 2 * (1+0.1) * 3 //因为上涨了3个单位。
+                // 则总金额变成 ：13*2*1.1=28.6，比原来的22多了6.6</t>
+  </si>
+  <si>
+    <t>乘法</t>
+  </si>
+  <si>
+    <t>直接计算</t>
+  </si>
+  <si>
+    <t>（1）通过带入数字，可以直接求出各个环节的导数。</t>
+  </si>
+  <si>
+    <t>反向传播计算
+（从上游往下传、从后往前传）</t>
+  </si>
+  <si>
+    <t>将 "信号E" 乘以 "节点的局部导数（偏导数）"，
+传递给 "前面的节点"，这样可以 "高效地求出导数的值"。
+（上游的导数）传到下游去  *  当前这条边的偏导数</t>
+  </si>
+  <si>
+    <t>将 "上流的值" 直接传给 "下游"</t>
   </si>
 </sst>
 </file>
@@ -3215,7 +3870,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3227,6 +3882,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3419,12 +4089,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3435,12 +4135,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3458,6 +4152,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3465,12 +4165,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3495,12 +4189,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3731,6 +4419,30 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -3746,17 +4458,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3791,19 +4492,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -3968,166 +4656,259 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4135,445 +4916,418 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4582,9 +5336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4594,14 +5345,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4953,7 +5698,7 @@
   <sheetPr/>
   <dimension ref="E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4963,7 +5708,7 @@
   </cols>
   <sheetData>
     <row r="12" ht="136" customHeight="1" spans="5:5">
-      <c r="E12" s="167" t="s">
+      <c r="E12" s="161" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4980,8 +5725,8 @@
   </sheetPr>
   <dimension ref="E7:I19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -4994,134 +5739,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="46"/>
-      <c r="F7" s="47" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="75" t="s">
         <v>422</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="74" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="74" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="46"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="46" t="s">
+      <c r="E8" s="74"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="74" t="s">
         <v>425</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="74" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="75" t="s">
         <v>428</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="74" t="s">
         <v>429</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="74" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="42"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="46" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="78" t="s">
         <v>432</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="80" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="50"/>
-      <c r="F11" s="51" t="s">
+      <c r="E11" s="79"/>
+      <c r="F11" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="78" t="s">
         <v>435</v>
       </c>
-      <c r="I11" s="54"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="50"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="47" t="s">
+      <c r="E12" s="79"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="75" t="s">
         <v>436</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="78" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="50"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="53" t="s">
+      <c r="E13" s="79"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="82" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="50"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="46" t="s">
+      <c r="E14" s="79"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="74" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="50"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49" t="s">
+      <c r="E15" s="79"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="78" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="50"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="46" t="s">
+      <c r="E16" s="79"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="74" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="50"/>
-      <c r="F17" s="42" t="s">
+      <c r="E17" s="79"/>
+      <c r="F17" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="70" t="s">
         <v>443</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="74" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="50"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="46" t="s">
+      <c r="E18" s="79"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="74" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="50"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="46" t="s">
+      <c r="E19" s="79"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="74" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5158,60 +5903,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="70" t="s">
         <v>447</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="71" t="s">
         <v>449</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="72" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="42"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="71" t="s">
         <v>451</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="71" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="45" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="73" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="42"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="70"/>
+      <c r="E12" s="73" t="s">
         <v>455</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="70" t="s">
         <v>456</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="74" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="42"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="70"/>
+      <c r="E13" s="71" t="s">
         <v>458</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="70" t="s">
         <v>459</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="74" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5248,745 +5993,745 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="39" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7"/>
+      <c r="A3" s="30"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7"/>
+      <c r="A4" s="30"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="30"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" ht="27" spans="2:7">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="26" t="s">
         <v>469</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="9" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="24" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="24" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="39" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="9" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="30" t="s">
         <v>493</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="7"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="8" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="7"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="7"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="7"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="43" t="s">
         <v>504</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="45" t="s">
         <v>507</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="45" t="s">
         <v>510</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="46" t="s">
         <v>510</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="14" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="45" t="s">
         <v>512</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39" t="s">
         <v>514</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="16" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="47" t="s">
         <v>517</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="45" t="s">
         <v>521</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="48" t="s">
         <v>522</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="14" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="45" t="s">
         <v>524</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="48" t="s">
         <v>525</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="49" t="s">
         <v>528</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="14" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="49" t="s">
         <v>531</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="14" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="51" t="s">
         <v>535</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="51" t="s">
         <v>536</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="52" t="s">
         <v>539</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="26" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="20" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="53" t="s">
         <v>543</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="24"/>
+      <c r="G40" s="26" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="G41" s="8"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="15" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="6"/>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="46" t="s">
         <v>552</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="54" t="s">
         <v>555</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="54" t="s">
         <v>556</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="55" t="s">
         <v>559</v>
       </c>
-      <c r="G44" s="8"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="23"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="15" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="23"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="15" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="8"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="26"/>
-      <c r="C47" s="23" t="s">
+      <c r="B47" s="57"/>
+      <c r="C47" s="54" t="s">
         <v>564</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="8"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="58" t="s">
         <v>565</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="54" t="s">
         <v>565</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="55" t="s">
         <v>566</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="8"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="27"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24" t="s">
+      <c r="B49" s="58"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="55" t="s">
         <v>567</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="8"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="27"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24" t="s">
+      <c r="B50" s="58"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55" t="s">
         <v>568</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="8"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="27"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="59" t="s">
         <v>571</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="60" t="s">
         <v>574</v>
       </c>
-      <c r="G52" s="31" t="s">
+      <c r="G52" s="61" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
       <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="62"/>
+      <c r="D53" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
       <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="28" t="s">
+      <c r="C54" s="62"/>
+      <c r="D54" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="37"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
       <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="32"/>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="32"/>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="9" t="s">
+      <c r="B57" s="33"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="G57" s="8"/>
+      <c r="G57" s="24"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -6032,107 +6777,641 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="H14:K22"/>
+  <dimension ref="C18:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="8" max="8" width="13.4336283185841" customWidth="1"/>
-    <col min="9" max="9" width="16.8318584070796" customWidth="1"/>
-    <col min="10" max="10" width="22.0796460176991" customWidth="1"/>
-    <col min="11" max="11" width="35.3185840707965" customWidth="1"/>
+    <col min="3" max="3" width="13.4336283185841" customWidth="1"/>
+    <col min="4" max="4" width="30.6017699115044" customWidth="1"/>
+    <col min="5" max="5" width="53.6902654867257" customWidth="1"/>
+    <col min="6" max="6" width="52.6991150442478" customWidth="1"/>
+    <col min="7" max="7" width="92.1681415929203" customWidth="1"/>
+    <col min="8" max="8" width="50.6902654867257" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="8:11">
-      <c r="H14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="2" t="s">
+    <row r="18" ht="27" spans="3:7">
+      <c r="C18" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="8:11">
-      <c r="H15" s="1"/>
-      <c r="I15" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" ht="39" customHeight="1" spans="8:11">
-      <c r="H16" s="1"/>
-      <c r="I16" s="2" t="s">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" ht="54" spans="3:7">
+      <c r="C19" s="1"/>
+      <c r="D19" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="17" ht="47" customHeight="1" spans="8:11">
-      <c r="H17" s="1"/>
-      <c r="I17" s="2" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="18" spans="8:11">
-      <c r="H18" s="1"/>
-      <c r="I18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" ht="72" customHeight="1" spans="3:7">
+      <c r="C21" s="1"/>
+      <c r="D21" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="8:11">
-      <c r="H19" s="1"/>
-      <c r="I19" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" ht="32" customHeight="1" spans="3:7">
+      <c r="C22" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="8:11">
-      <c r="H20" s="1"/>
-      <c r="I20" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="8:11">
-      <c r="H21" s="1"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="2" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="H22" t="s">
-        <v>53</v>
+    </row>
+    <row r="23" ht="51" customHeight="1" spans="3:7">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="24" ht="265" customHeight="1" spans="3:7">
+      <c r="C24" s="5"/>
+      <c r="D24" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="25" ht="72" customHeight="1" spans="3:7">
+      <c r="C25" s="5"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="26" ht="38" customHeight="1" spans="3:7">
+      <c r="C26" s="5"/>
+      <c r="D26" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" ht="409" customHeight="1" spans="3:7">
+      <c r="C27" s="5"/>
+      <c r="D27" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="28" ht="58" customHeight="1" spans="3:7">
+      <c r="C28" s="5"/>
+      <c r="D28" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="16"/>
+      <c r="D30" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" ht="85" customHeight="1" spans="3:7">
+      <c r="C31" s="16"/>
+      <c r="D31" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="32" ht="37" customHeight="1" spans="3:7">
+      <c r="C32" s="16"/>
+      <c r="D32" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" ht="52" customHeight="1" spans="3:7">
+      <c r="C33" s="16"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" ht="83" customHeight="1" spans="3:7">
+      <c r="C34" s="16"/>
+      <c r="D34" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" ht="44" customHeight="1" spans="3:7">
+      <c r="C35" s="16"/>
+      <c r="D35" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="3:7">
+      <c r="C36" s="16"/>
+      <c r="D36" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" ht="53" customHeight="1" spans="3:7">
+      <c r="C37" s="16"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" ht="40.5" spans="3:7">
+      <c r="C38" s="16"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="3:7">
+      <c r="C39" s="16"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="40" ht="40.5" spans="3:7">
+      <c r="C40" s="16"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="41" ht="54" spans="3:7">
+      <c r="C41" s="16"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="42" ht="34" customHeight="1" spans="3:7">
+      <c r="C42" s="23"/>
+      <c r="D42" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" ht="53" customHeight="1" spans="3:7">
+      <c r="C44" s="25"/>
+      <c r="D44" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" ht="27" spans="3:7">
+      <c r="C45" s="25"/>
+      <c r="D45" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" ht="54" spans="3:7">
+      <c r="C46" s="25"/>
+      <c r="D46" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" ht="99" customHeight="1" spans="3:7">
+      <c r="C47" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="48" ht="48" customHeight="1" spans="3:7">
+      <c r="C48" s="29"/>
+      <c r="D48" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" ht="34" customHeight="1" spans="3:7">
+      <c r="C49" s="29"/>
+      <c r="D49" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" ht="34" customHeight="1" spans="3:7">
+      <c r="C50" s="29"/>
+      <c r="D50" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" ht="107" customHeight="1" spans="3:7">
+      <c r="C51" s="29"/>
+      <c r="D51" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="24" t="s">
+        <v>668</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" ht="40.5" spans="3:7">
+      <c r="C53" s="29"/>
+      <c r="D53" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" s="29"/>
+      <c r="D54" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="3:7">
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="F55" s="26"/>
+      <c r="G55" s="32"/>
+    </row>
+    <row r="56" ht="27" spans="3:7">
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="G56" s="33"/>
+    </row>
+    <row r="57" ht="77" customHeight="1" spans="3:7">
+      <c r="C57" s="29"/>
+      <c r="D57" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" ht="77" customHeight="1" spans="3:7">
+      <c r="C58" s="29"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" ht="148.5" spans="3:7">
+      <c r="C59" s="29"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="60" ht="121.5" spans="3:7">
+      <c r="C60" s="29"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="61" ht="71" customHeight="1" spans="3:7">
+      <c r="C61" s="29"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="G61" s="26"/>
+    </row>
+    <row r="62" ht="34" customHeight="1" spans="3:7">
+      <c r="C62" s="29"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="35" t="s">
+        <v>693</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="G62" s="24"/>
+    </row>
+    <row r="63" ht="106" customHeight="1" spans="3:7">
+      <c r="C63" s="36"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="64" ht="77" customHeight="1" spans="3:8">
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="65" ht="100" customHeight="1" spans="3:8">
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="66" ht="54" customHeight="1" spans="6:7">
+      <c r="F66" t="s">
+        <v>527</v>
+      </c>
+      <c r="G66" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="H69" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H14:H21"/>
-    <mergeCell ref="I20:I21"/>
+  <mergeCells count="20">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C29:C42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C47:C63"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D63"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G54:G56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6157,105 +7436,105 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="50"/>
-      <c r="C7" s="134" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="158" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="50"/>
-      <c r="C8" s="134" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="158"/>
+      <c r="E8" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="50"/>
-      <c r="C9" s="134" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="50"/>
-      <c r="C10" s="134" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="50"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="148" t="s">
+      <c r="D11" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="50"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="172" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="I13" s="166"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="I13" s="186"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6288,252 +7567,252 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="152" t="s">
+      <c r="A13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="152" t="s">
+      <c r="B13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="153" t="s">
+      <c r="D13" s="176" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="154" t="s">
+      <c r="F13" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="155" t="s">
+      <c r="G13" s="178" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="156"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="157" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="156"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="8" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="159" t="s">
+      <c r="F15" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="160"/>
+      <c r="G15" s="182"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="156"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="156"/>
-      <c r="B17" s="161" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="156"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="156"/>
-      <c r="B19" s="162" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="156"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="156"/>
-      <c r="B21" s="161" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="161" t="s">
+      <c r="C21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="161" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="156"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="8" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="156"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="8" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="156"/>
-      <c r="B24" s="165"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="8" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="156"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="156"/>
-      <c r="B26" s="165"/>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="156"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="156"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="8" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="156"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="8" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="156"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6573,78 +7852,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="146" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="147"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="171"/>
+      <c r="C6" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="172" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="151" t="s">
+      <c r="D7" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="151" t="s">
+      <c r="E7" s="175" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="149"/>
-      <c r="C8" s="150" t="s">
+      <c r="B8" s="173"/>
+      <c r="C8" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="151" t="s">
+      <c r="E8" s="175" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="149"/>
-      <c r="C9" s="150" t="s">
+      <c r="B9" s="173"/>
+      <c r="C9" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="151" t="s">
+      <c r="E9" s="175" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="149"/>
-      <c r="C10" s="150" t="s">
+      <c r="B10" s="173"/>
+      <c r="C10" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="150" t="s">
+      <c r="D10" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="151" t="s">
+      <c r="E10" s="175" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6677,228 +7956,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="163" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="140" t="s">
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="164" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139" t="s">
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="139" t="s">
+      <c r="E5" s="165"/>
+      <c r="F5" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="163" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="141" t="s">
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142" t="s">
+      <c r="E6" s="165"/>
+      <c r="F6" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="164" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139" t="s">
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="143" t="s">
+      <c r="E7" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="144" t="s">
+      <c r="F7" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="139" t="s">
+      <c r="G7" s="163" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="140" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="163"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="145" t="s">
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="164" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="138"/>
-      <c r="C10" s="138" t="s">
+      <c r="B10" s="162"/>
+      <c r="C10" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="146" t="s">
+      <c r="D10" s="162"/>
+      <c r="E10" s="170" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="146" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="146" t="s">
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="170" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="146" t="s">
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="146" t="s">
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="146" t="s">
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="170" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="138"/>
-      <c r="C16" s="138" t="s">
+      <c r="B16" s="162"/>
+      <c r="C16" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="F16" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="146"/>
+      <c r="G16" s="170"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="146" t="s">
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="146"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="170"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138" t="s">
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="146" t="s">
+      <c r="E18" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="141"/>
-      <c r="G18" s="146"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="170"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="146" t="s">
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="170" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="146"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="170"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="146" t="s">
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="141"/>
-      <c r="G20" s="146"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6942,378 +8221,378 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="120"/>
-      <c r="B3" s="121" t="s">
+      <c r="A3" s="144"/>
+      <c r="B3" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="121"/>
+      <c r="D3" s="145"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="120"/>
-      <c r="B4" s="121" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="121"/>
+      <c r="D4" s="145"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121" t="s">
+      <c r="A5" s="144"/>
+      <c r="B5" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="121"/>
+      <c r="D5" s="145"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121" t="s">
+      <c r="A6" s="144"/>
+      <c r="B6" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="121"/>
+      <c r="D6" s="145"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="120"/>
-      <c r="B7" s="120" t="s">
+      <c r="A7" s="144"/>
+      <c r="B7" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="121"/>
+      <c r="D7" s="145"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120" t="s">
+      <c r="A8" s="144"/>
+      <c r="B8" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="121"/>
+      <c r="D8" s="145"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="120"/>
-      <c r="B9" s="120" t="s">
+      <c r="A9" s="144"/>
+      <c r="B9" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="146" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121" t="s">
+      <c r="A10" s="144"/>
+      <c r="B10" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="121"/>
+      <c r="D10" s="145"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="120"/>
-      <c r="B11" s="121" t="s">
+      <c r="A11" s="144"/>
+      <c r="B11" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="121"/>
+      <c r="D11" s="145"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="148" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="125"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="124" t="s">
+      <c r="A13" s="149"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="124" t="s">
+      <c r="D13" s="148" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="125"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="124" t="s">
+      <c r="A14" s="149"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="148" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="125"/>
-      <c r="B15" s="123" t="s">
+      <c r="A15" s="149"/>
+      <c r="B15" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="127"/>
+      <c r="D15" s="151"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="125"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="124" t="s">
+      <c r="A16" s="149"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="127" t="s">
+      <c r="D16" s="151" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="125"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="124" t="s">
+      <c r="A17" s="149"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="124" t="s">
+      <c r="D17" s="148" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="125"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="124" t="s">
+      <c r="A18" s="149"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="148" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="125"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="124" t="s">
+      <c r="A19" s="149"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="148" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="125"/>
-      <c r="B20" s="123" t="s">
+      <c r="A20" s="149"/>
+      <c r="B20" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="148" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="126"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="124" t="s">
+      <c r="A21" s="150"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="124" t="s">
+      <c r="D21" s="148" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="152" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="153" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="154" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="154" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="131"/>
-      <c r="B23" s="129" t="s">
+      <c r="A23" s="155"/>
+      <c r="B23" s="153" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="154" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="131"/>
-      <c r="B24" s="129" t="s">
+      <c r="A24" s="155"/>
+      <c r="B24" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="130" t="s">
+      <c r="D24" s="154" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="131"/>
-      <c r="B25" s="129" t="s">
+      <c r="A25" s="155"/>
+      <c r="B25" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="130"/>
+      <c r="D25" s="154"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="131"/>
-      <c r="B26" s="129" t="s">
+      <c r="A26" s="155"/>
+      <c r="B26" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="154" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="154" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="131"/>
-      <c r="B27" s="129" t="s">
+      <c r="A27" s="155"/>
+      <c r="B27" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="156" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="154" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="131"/>
-      <c r="B28" s="129" t="s">
+      <c r="A28" s="155"/>
+      <c r="B28" s="153" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="154" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="130" t="s">
+      <c r="D28" s="154" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="131"/>
-      <c r="B29" s="129" t="s">
+      <c r="A29" s="155"/>
+      <c r="B29" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="154" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="130" t="s">
+      <c r="D29" s="154" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="133"/>
-      <c r="B30" s="129" t="s">
+      <c r="A30" s="157"/>
+      <c r="B30" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="156" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="130" t="s">
+      <c r="D30" s="154" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="74" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="135" t="s">
+      <c r="A34" s="159" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="136"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="160"/>
+      <c r="B35" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="137"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="161"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="134" t="s">
+      <c r="A36" s="158" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="134" t="s">
+      <c r="C36" s="71"/>
+      <c r="D36" s="158" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="137"/>
+      <c r="E36" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7352,581 +8631,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="116" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="89"/>
+      <c r="E1" s="118"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87" t="s">
+      <c r="A2" s="115"/>
+      <c r="B2" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="90"/>
+      <c r="E2" s="119"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="90"/>
+      <c r="E3" s="119"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="90"/>
+      <c r="E4" s="119"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="92" t="s">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="121" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="90"/>
+      <c r="E5" s="119"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="92" t="s">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="90"/>
+      <c r="E6" s="119"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="92" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="117" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="94" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="117" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="115"/>
+      <c r="B9" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="88"/>
+      <c r="E9" s="117"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="94" t="s">
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="122" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="88"/>
+      <c r="E10" s="117"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="115"/>
+      <c r="B11" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="88"/>
+      <c r="E11" s="117"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="94" t="s">
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="122" t="s">
         <v>229</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="88"/>
+      <c r="E12" s="117"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="94" t="s">
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="88"/>
+      <c r="E13" s="117"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87" t="s">
+      <c r="A14" s="115"/>
+      <c r="B14" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="E14" s="88"/>
+      <c r="E14" s="117"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="86"/>
-      <c r="B15" s="95" t="s">
+      <c r="A15" s="115"/>
+      <c r="B15" s="123" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="122" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="117" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="86"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="94" t="s">
+      <c r="A16" s="115"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="117" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87" t="s">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="117" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="117" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="86"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="88" t="s">
+      <c r="A18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="117" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="125" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="100"/>
+      <c r="E19" s="126"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="98"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="88" t="s">
+      <c r="A20" s="125"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="117" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="98"/>
-      <c r="B21" s="103" t="s">
+      <c r="A21" s="125"/>
+      <c r="B21" s="127" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="117" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="104"/>
+      <c r="E21" s="128"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="98"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="88" t="s">
+      <c r="A22" s="125"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="117" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="96"/>
+      <c r="E22" s="124"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="130" t="s">
         <v>260</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="117" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E23" s="86"/>
+      <c r="E23" s="115"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="88" t="s">
+      <c r="A24" s="132"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="86"/>
+      <c r="E24" s="115"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="108"/>
-      <c r="B25" s="110" t="s">
+      <c r="A25" s="132"/>
+      <c r="B25" s="134" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="117" t="s">
         <v>267</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E25" s="86"/>
+      <c r="E25" s="115"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="108"/>
-      <c r="B26" s="110" t="s">
+      <c r="A26" s="132"/>
+      <c r="B26" s="134" t="s">
         <v>269</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="116" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="108"/>
-      <c r="B27" s="107" t="s">
+      <c r="A27" s="132"/>
+      <c r="B27" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="117" t="s">
         <v>274</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E27" s="86"/>
+      <c r="E27" s="115"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="108"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="88" t="s">
+      <c r="A28" s="132"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="117" t="s">
         <v>276</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E28" s="86"/>
+      <c r="E28" s="115"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="108"/>
-      <c r="B29" s="97" t="s">
+      <c r="A29" s="132"/>
+      <c r="B29" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="86"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="115"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="108"/>
-      <c r="B30" s="97" t="s">
+      <c r="A30" s="132"/>
+      <c r="B30" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="C30" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E30" s="86"/>
+      <c r="E30" s="115"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="108"/>
-      <c r="B31" s="87" t="s">
+      <c r="A31" s="132"/>
+      <c r="B31" s="116" t="s">
         <v>283</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="D31" s="97" t="s">
+      <c r="D31" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="86"/>
+      <c r="E31" s="115"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="108"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87" t="s">
+      <c r="A32" s="132"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116" t="s">
         <v>286</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="86"/>
+      <c r="E32" s="115"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="108"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="97" t="s">
+      <c r="A33" s="132"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E33" s="86"/>
+      <c r="E33" s="115"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="108"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="97" t="s">
+      <c r="A34" s="132"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E34" s="86"/>
+      <c r="E34" s="115"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="108"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="97" t="s">
+      <c r="A35" s="132"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="86"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="108"/>
-      <c r="B36" s="111" t="s">
+      <c r="A36" s="132"/>
+      <c r="B36" s="135" t="s">
         <v>291</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D36" s="112" t="s">
+      <c r="D36" s="136" t="s">
         <v>293</v>
       </c>
-      <c r="E36" s="87"/>
+      <c r="E36" s="116"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="108"/>
-      <c r="B37" s="87" t="s">
+      <c r="A37" s="132"/>
+      <c r="B37" s="116" t="s">
         <v>294</v>
       </c>
-      <c r="C37" s="90" t="s">
+      <c r="C37" s="119" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="97" t="s">
+      <c r="D37" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E37" s="86"/>
+      <c r="E37" s="115"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="108"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="132"/>
+      <c r="B38" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="D38" s="97" t="s">
+      <c r="D38" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E38" s="86"/>
+      <c r="E38" s="115"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="108"/>
-      <c r="B39" s="87" t="s">
+      <c r="A39" s="132"/>
+      <c r="B39" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="90" t="s">
+      <c r="C39" s="119" t="s">
         <v>301</v>
       </c>
-      <c r="D39" s="97"/>
-      <c r="E39" s="86"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="115"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="108"/>
-      <c r="B40" s="97" t="s">
+      <c r="A40" s="132"/>
+      <c r="B40" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="117" t="s">
         <v>303</v>
       </c>
-      <c r="D40" s="97" t="s">
+      <c r="D40" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E40" s="86"/>
+      <c r="E40" s="115"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="108"/>
-      <c r="B41" s="97" t="s">
+      <c r="A41" s="132"/>
+      <c r="B41" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="D41" s="97"/>
-      <c r="E41" s="86"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="115"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="108"/>
-      <c r="B42" s="97" t="s">
+      <c r="A42" s="132"/>
+      <c r="B42" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="137" t="s">
         <v>308</v>
       </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="86"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="115"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="138" t="s">
         <v>310</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="86"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="115"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="108"/>
-      <c r="B44" s="97" t="s">
+      <c r="A44" s="132"/>
+      <c r="B44" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="116" t="s">
+      <c r="C44" s="140" t="s">
         <v>312</v>
       </c>
-      <c r="D44" s="97" t="s">
+      <c r="D44" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="137" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="108"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97" t="s">
+      <c r="A45" s="132"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E45" s="92" t="s">
+      <c r="E45" s="121" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="108"/>
-      <c r="B46" s="87" t="s">
+      <c r="A46" s="132"/>
+      <c r="B46" s="116" t="s">
         <v>317</v>
       </c>
-      <c r="C46" s="116" t="s">
+      <c r="C46" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="D46" s="97" t="s">
+      <c r="D46" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E46" s="113" t="s">
+      <c r="E46" s="137" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="117"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="112" t="s">
+      <c r="A47" s="141"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="136" t="s">
         <v>321</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="137" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7979,404 +9258,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="61"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="94"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="65"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="67"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="97"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="98" t="s">
         <v>336</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="99" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="91" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="100" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="69"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="62" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="91" t="s">
         <v>340</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="90" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="69"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="62" t="s">
+      <c r="A9" s="98"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="91" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="93" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="69"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="62" t="s">
+      <c r="A10" s="98"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="91" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="93" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="69"/>
-      <c r="B11" s="61" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="90" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="91" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="90" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="69"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="61" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="90" t="s">
         <v>349</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="103" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="69"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="75" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="104" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="69"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="75" t="s">
+      <c r="A14" s="98"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="104" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="69"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="74" t="s">
+      <c r="A15" s="98"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="103" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="69"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="90" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="93" t="s">
         <v>354</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="105" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="69"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="64" t="s">
+      <c r="A18" s="98"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="93" t="s">
         <v>315</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="106"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="69"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="64" t="s">
+      <c r="A19" s="98"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="106"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="69"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="64" t="s">
+      <c r="A20" s="98"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="93" t="s">
         <v>357</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="107"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="79"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="108"/>
+      <c r="B21" s="90" t="s">
         <v>358</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="94" t="s">
         <v>359</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="90" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="109" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="91" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="90"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="69"/>
-      <c r="B23" s="81" t="s">
+      <c r="A23" s="98"/>
+      <c r="B23" s="110" t="s">
         <v>364</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="91" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="62"/>
+      <c r="D23" s="91"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="69"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="62" t="s">
+      <c r="A24" s="98"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="91" t="s">
         <v>366</v>
       </c>
-      <c r="D24" s="62"/>
+      <c r="D24" s="91"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="69"/>
-      <c r="B25" s="61" t="s">
+      <c r="A25" s="98"/>
+      <c r="B25" s="90" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="111" t="s">
         <v>368</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="112"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="69"/>
-      <c r="B26" s="61" t="s">
+      <c r="A26" s="98"/>
+      <c r="B26" s="90" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62" t="s">
+      <c r="C26" s="91"/>
+      <c r="D26" s="91" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="98"/>
+      <c r="B27" s="99" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="95" t="s">
         <v>372</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="91" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="69"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="66" t="s">
+      <c r="A28" s="98"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="95" t="s">
         <v>374</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="91" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="69"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="66" t="s">
+      <c r="A29" s="98"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="95" t="s">
         <v>376</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="91" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="79"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="108"/>
+      <c r="B30" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="91" t="s">
         <v>379</v>
       </c>
-      <c r="D30" s="62"/>
+      <c r="D30" s="91"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="98" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="110" t="s">
         <v>381</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="91" t="s">
         <v>382</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="91"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="69"/>
-      <c r="B32" s="81" t="s">
+      <c r="A32" s="98"/>
+      <c r="B32" s="110" t="s">
         <v>383</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="91" t="s">
         <v>384</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="91" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="62" t="s">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="91" t="s">
         <v>386</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="91" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="62" t="s">
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="91" t="s">
         <v>388</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="91" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="69"/>
-      <c r="B35" s="81" t="s">
+      <c r="A35" s="98"/>
+      <c r="B35" s="110" t="s">
         <v>390</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="91" t="s">
         <v>391</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="91" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="69"/>
-      <c r="B36" s="81" t="s">
+      <c r="A36" s="98"/>
+      <c r="B36" s="110" t="s">
         <v>393</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="91" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="69"/>
-      <c r="B37" s="81" t="s">
+      <c r="A37" s="98"/>
+      <c r="B37" s="110" t="s">
         <v>396</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="113" t="s">
         <v>397</v>
       </c>
-      <c r="D37" s="85"/>
+      <c r="D37" s="114"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="69"/>
-      <c r="B38" s="81" t="s">
+      <c r="A38" s="98"/>
+      <c r="B38" s="110" t="s">
         <v>398</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="113" t="s">
         <v>399</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="114" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="66" t="s">
+      <c r="A39" s="108"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="95" t="s">
         <v>401</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="95" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8423,107 +9702,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="85" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="86" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="86" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="87" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="87" t="s">
         <v>412</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="85" t="s">
         <v>413</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="88" t="s">
         <v>414</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="87" t="s">
         <v>416</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="86"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="87" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="87" t="s">
         <v>418</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="87" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="56"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="47" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -3762,7 +3762,23 @@
     <t>用的多</t>
   </si>
   <si>
-    <t>“计算梯度”的方法：反向传播</t>
+    <r>
+      <t xml:space="preserve">“计算梯度”的方法：反向传播
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（反向传播“误差”，用“误差求梯度”，
+有了梯度，进行梯度下降）
+（反向调整-隐藏层权重）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">正向传播网络、（正向前馈），
@@ -4786,7 +4802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4889,20 +4905,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5708,7 +5727,7 @@
   </cols>
   <sheetData>
     <row r="12" ht="136" customHeight="1" spans="5:5">
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="162" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5739,134 +5758,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="74"/>
-      <c r="F7" s="75" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="76" t="s">
         <v>422</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="75" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="75" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="74"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="74" t="s">
+      <c r="E8" s="75"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="75" t="s">
         <v>425</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="75" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="71" t="s">
         <v>427</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="76" t="s">
         <v>428</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="75" t="s">
         <v>429</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="75" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="70"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77" t="s">
+      <c r="E10" s="71"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78" t="s">
         <v>431</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="79" t="s">
         <v>432</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="81" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="79"/>
-      <c r="F11" s="80" t="s">
+      <c r="E11" s="80"/>
+      <c r="F11" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="78" t="s">
         <v>431</v>
       </c>
-      <c r="H11" s="78" t="s">
+      <c r="H11" s="79" t="s">
         <v>435</v>
       </c>
-      <c r="I11" s="83"/>
+      <c r="I11" s="84"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="79"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="75" t="s">
+      <c r="E12" s="80"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="76" t="s">
         <v>436</v>
       </c>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="79" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="79"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="82" t="s">
+      <c r="E13" s="80"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="83" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="79"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="74" t="s">
+      <c r="E14" s="80"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="75" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="79"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="78" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="79" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="79"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="74" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="75" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="79"/>
-      <c r="F17" s="70" t="s">
+      <c r="E17" s="80"/>
+      <c r="F17" s="71" t="s">
         <v>442</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="71" t="s">
         <v>443</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="75" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="79"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="74" t="s">
+      <c r="E18" s="80"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="75" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="79"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="74" t="s">
+      <c r="E19" s="80"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="75" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5903,60 +5922,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="73" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="70"/>
-      <c r="E10" s="71" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="72" t="s">
         <v>452</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="72" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="73" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="74" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="70"/>
-      <c r="E12" s="73" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="74" t="s">
         <v>455</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="71" t="s">
         <v>456</v>
       </c>
-      <c r="G12" s="74" t="s">
+      <c r="G12" s="75" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="70"/>
-      <c r="E13" s="71" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="72" t="s">
         <v>458</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="71" t="s">
         <v>459</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="75" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5993,7 +6012,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>461</v>
       </c>
     </row>
@@ -6076,7 +6095,7 @@
       <c r="D11" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="40" t="s">
         <v>473</v>
       </c>
       <c r="F11" s="26" t="s">
@@ -6088,7 +6107,7 @@
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
-      <c r="E12" s="39"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="26" t="s">
         <v>475</v>
       </c>
@@ -6102,10 +6121,10 @@
       <c r="D13" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="43" t="s">
         <v>479</v>
       </c>
       <c r="G13" s="24" t="s">
@@ -6118,10 +6137,10 @@
       <c r="D14" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="43" t="s">
         <v>483</v>
       </c>
       <c r="G14" s="24" t="s">
@@ -6131,57 +6150,57 @@
     <row r="15" ht="61" customHeight="1" spans="2:7">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="40" t="s">
         <v>485</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="40" t="s">
         <v>487</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="40" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="39"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="30"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="30"/>
     </row>
     <row r="19" ht="27" spans="2:7">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="F19" s="39"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
@@ -6212,7 +6231,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="30"/>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="40" t="s">
         <v>498</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -6224,7 +6243,7 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="30"/>
-      <c r="C23" s="39"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="24" t="s">
         <v>500</v>
       </c>
@@ -6246,35 +6265,35 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="30"/>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="30"/>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="40" t="s">
         <v>505</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="47" t="s">
         <v>507</v>
       </c>
       <c r="F27" s="24" t="s">
@@ -6283,14 +6302,14 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40" t="s">
         <v>509</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="46" t="s">
         <v>510</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="47" t="s">
         <v>510</v>
       </c>
       <c r="F28" s="24" t="s">
@@ -6299,12 +6318,12 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="45" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="47" t="s">
         <v>512</v>
       </c>
       <c r="F29" s="24" t="s">
@@ -6313,11 +6332,11 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="46" t="s">
         <v>515</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -6327,118 +6346,118 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="47" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="43" t="s">
         <v>518</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49" t="s">
         <v>519</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="40" t="s">
         <v>523</v>
       </c>
       <c r="G33" s="24"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="45" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="46" t="s">
         <v>524</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="49" t="s">
         <v>525</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="46" t="s">
         <v>527</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="50" t="s">
         <v>528</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="40" t="s">
         <v>529</v>
       </c>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="45" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="50" t="s">
         <v>531</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="24"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="45" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="51" t="s">
         <v>533</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="52" t="s">
         <v>536</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="24"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40" t="s">
         <v>537</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="52" t="s">
         <v>538</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="53" t="s">
         <v>539</v>
       </c>
       <c r="F39" s="24" t="s">
@@ -6449,12 +6468,12 @@
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="51" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="52" t="s">
         <v>542</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="54" t="s">
         <v>543</v>
       </c>
       <c r="F40" s="24"/>
@@ -6463,11 +6482,11 @@
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40" t="s">
         <v>545</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="47" t="s">
         <v>546</v>
       </c>
       <c r="E41" s="24" t="s">
@@ -6479,9 +6498,9 @@
       <c r="G41" s="24"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="46" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="47" t="s">
         <v>549</v>
       </c>
       <c r="E42" s="24" t="s">
@@ -6491,11 +6510,11 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="39"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="47" t="s">
         <v>552</v>
       </c>
       <c r="E43" s="24" t="s">
@@ -6507,106 +6526,106 @@
       <c r="G43" s="24"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="55" t="s">
         <v>555</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="55" t="s">
         <v>556</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="47" t="s">
         <v>558</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="56" t="s">
         <v>559</v>
       </c>
       <c r="G44" s="24"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="54"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="46" t="s">
+      <c r="B45" s="55"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="47" t="s">
         <v>560</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="51" t="s">
         <v>561</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="47" t="s">
         <v>562</v>
       </c>
       <c r="G45" s="24"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="54"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="46" t="s">
+      <c r="B46" s="55"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="47" t="s">
         <v>563</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="46"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="24"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="57"/>
-      <c r="C47" s="54" t="s">
+      <c r="B47" s="58"/>
+      <c r="C47" s="55" t="s">
         <v>564</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="24"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="59" t="s">
         <v>565</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="55" t="s">
         <v>565</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="56" t="s">
         <v>566</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="55"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="24"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="58"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="55" t="s">
+      <c r="B49" s="59"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="56" t="s">
         <v>567</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="55"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="24"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="58"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="55" t="s">
+      <c r="B50" s="59"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="56" t="s">
         <v>568</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="F50" s="55"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="24"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="58"/>
-      <c r="C51" s="54"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="24"/>
-      <c r="E51" s="50"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="60" t="s">
         <v>571</v>
       </c>
       <c r="D52" s="24" t="s">
@@ -6615,38 +6634,38 @@
       <c r="E52" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="F52" s="60" t="s">
+      <c r="F52" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="G52" s="61" t="s">
+      <c r="G52" s="62" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
       <c r="B53" s="32"/>
-      <c r="C53" s="62"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="24" t="s">
         <v>576</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="65"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
       <c r="B54" s="32"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="34" t="s">
+      <c r="C54" s="63"/>
+      <c r="D54" s="39" t="s">
         <v>577</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="F54" s="65"/>
-      <c r="G54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
       <c r="B55" s="32"/>
-      <c r="C55" s="62"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="32"/>
       <c r="E55" s="24" t="s">
         <v>579</v>
@@ -6656,7 +6675,7 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="32"/>
-      <c r="C56" s="62"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="32"/>
       <c r="E56" s="24" t="s">
         <v>580</v>
@@ -6666,7 +6685,7 @@
     </row>
     <row r="57" ht="27" spans="2:7">
       <c r="B57" s="33"/>
-      <c r="C57" s="67"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="33"/>
       <c r="E57" s="26" t="s">
         <v>581</v>
@@ -6677,61 +6696,61 @@
       <c r="G57" s="24"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="69" t="s">
         <v>583</v>
       </c>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -6779,8 +6798,8 @@
   <sheetPr/>
   <dimension ref="C18:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D63"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7355,20 +7374,20 @@
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="38"/>
-      <c r="F64" s="34" t="s">
+      <c r="F64" s="39" t="s">
         <v>698</v>
       </c>
       <c r="G64" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="H64" s="39" t="s">
+      <c r="H64" s="40" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="65" ht="100" customHeight="1" spans="3:8">
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
-      <c r="E65" s="40"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="33"/>
       <c r="G65" s="26" t="s">
         <v>701</v>
@@ -7436,105 +7455,105 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="75" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="79"/>
-      <c r="C7" s="158" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="158" t="s">
+      <c r="E7" s="159" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="79"/>
-      <c r="C8" s="158" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="74" t="s">
+      <c r="D8" s="159"/>
+      <c r="E8" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="79"/>
-      <c r="C9" s="158" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="158" t="s">
+      <c r="D9" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="75" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="79"/>
-      <c r="C10" s="158" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="71" t="s">
+      <c r="D10" s="159"/>
+      <c r="E10" s="72" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="79"/>
-      <c r="C11" s="51" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="172" t="s">
+      <c r="D11" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="52" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="79"/>
-      <c r="C12" s="51" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="172" t="s">
+      <c r="D12" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="172" t="s">
+      <c r="E12" s="173" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="120" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="I13" s="186"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="I13" s="187"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7567,26 +7586,26 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" ht="27" spans="1:7">
       <c r="A13" s="36" t="s">
@@ -7598,16 +7617,16 @@
       <c r="C13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="177" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="177" t="s">
+      <c r="F13" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="178" t="s">
+      <c r="G13" s="179" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7615,9 +7634,9 @@
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="176"/>
+      <c r="D14" s="177"/>
       <c r="E14" s="33"/>
-      <c r="F14" s="179" t="s">
+      <c r="F14" s="180" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="24" t="s">
@@ -7628,14 +7647,14 @@
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="180"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="181" t="s">
+      <c r="F15" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="182"/>
+      <c r="G15" s="183"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
       <c r="A16" s="25"/>
@@ -7676,11 +7695,11 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="25"/>
-      <c r="B19" s="183" t="s">
+      <c r="B19" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="186"/>
       <c r="E19" s="24" t="s">
         <v>43</v>
       </c>
@@ -7852,78 +7871,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="147" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="171"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="172"/>
+      <c r="C6" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="172" t="s">
+      <c r="E6" s="173" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="174" t="s">
+      <c r="C7" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="175" t="s">
+      <c r="D7" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="175" t="s">
+      <c r="E7" s="176" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="173"/>
-      <c r="C8" s="174" t="s">
+      <c r="B8" s="174"/>
+      <c r="C8" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="174" t="s">
+      <c r="D8" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="176" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="173"/>
-      <c r="C9" s="174" t="s">
+      <c r="B9" s="174"/>
+      <c r="C9" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="174" t="s">
+      <c r="D9" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="176" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="173"/>
-      <c r="C10" s="174" t="s">
+      <c r="B10" s="174"/>
+      <c r="C10" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="174" t="s">
+      <c r="D10" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="175" t="s">
+      <c r="E10" s="176" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7956,228 +7975,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="164" t="s">
+      <c r="E3" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="163" t="s">
+      <c r="G3" s="164" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="164" t="s">
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="164" t="s">
+      <c r="G4" s="165" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="165"/>
-      <c r="F5" s="163" t="s">
+      <c r="E5" s="166"/>
+      <c r="F5" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="163" t="s">
+      <c r="G5" s="164" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="165" t="s">
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="165"/>
-      <c r="F6" s="166" t="s">
+      <c r="E6" s="166"/>
+      <c r="F6" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="164" t="s">
+      <c r="G6" s="165" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163" t="s">
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="167" t="s">
+      <c r="E7" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="163" t="s">
+      <c r="G7" s="164" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="164" t="s">
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="163"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="169" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="164" t="s">
+      <c r="E9" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="166" t="s">
+      <c r="F9" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="164" t="s">
+      <c r="G9" s="165" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="162"/>
-      <c r="C10" s="162" t="s">
+      <c r="B10" s="163"/>
+      <c r="C10" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="170" t="s">
+      <c r="D10" s="163"/>
+      <c r="E10" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="170" t="s">
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="170" t="s">
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="170" t="s">
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="171" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="162"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="170" t="s">
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="170" t="s">
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="162"/>
-      <c r="C16" s="162" t="s">
+      <c r="B16" s="163"/>
+      <c r="C16" s="163" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="170" t="s">
+      <c r="E16" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="163" t="s">
+      <c r="F16" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="170"/>
+      <c r="G16" s="171"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="162"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="170" t="s">
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="171" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="165"/>
-      <c r="G17" s="170"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="171"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="162"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162" t="s">
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="170" t="s">
+      <c r="E18" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="165"/>
-      <c r="G18" s="170"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="171"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="170" t="s">
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="165"/>
-      <c r="G19" s="170"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="171"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="170" t="s">
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="165"/>
-      <c r="G20" s="170"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8221,349 +8240,349 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="145" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145" t="s">
+      <c r="A3" s="145"/>
+      <c r="B3" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="146"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="144"/>
-      <c r="B4" s="145" t="s">
+      <c r="A4" s="145"/>
+      <c r="B4" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="145"/>
+      <c r="D4" s="146"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="144"/>
-      <c r="B5" s="145" t="s">
+      <c r="A5" s="145"/>
+      <c r="B5" s="146" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="145"/>
+      <c r="D5" s="146"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="144"/>
-      <c r="B6" s="145" t="s">
+      <c r="A6" s="145"/>
+      <c r="B6" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="145"/>
+      <c r="D6" s="146"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="144"/>
-      <c r="B7" s="144" t="s">
+      <c r="A7" s="145"/>
+      <c r="B7" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="145"/>
+      <c r="D7" s="146"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="144"/>
-      <c r="B8" s="144" t="s">
+      <c r="A8" s="145"/>
+      <c r="B8" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="147" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="145"/>
+      <c r="D8" s="146"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144" t="s">
+      <c r="A9" s="145"/>
+      <c r="B9" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="147" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="144"/>
-      <c r="B10" s="145" t="s">
+      <c r="A10" s="145"/>
+      <c r="B10" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="147" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="145"/>
+      <c r="D10" s="146"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="144"/>
-      <c r="B11" s="145" t="s">
+      <c r="A11" s="145"/>
+      <c r="B11" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="145"/>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="149" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="149"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="148" t="s">
+      <c r="A13" s="150"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="148" t="s">
+      <c r="D13" s="149" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="149"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="148" t="s">
+      <c r="A14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="148" t="s">
+      <c r="D14" s="149" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="149"/>
-      <c r="B15" s="147" t="s">
+      <c r="A15" s="150"/>
+      <c r="B15" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="148" t="s">
+      <c r="C15" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="151"/>
+      <c r="D15" s="152"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="149"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="148" t="s">
+      <c r="A16" s="150"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="151" t="s">
+      <c r="D16" s="152" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="149"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="148" t="s">
+      <c r="A17" s="150"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="149" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="149"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="148" t="s">
+      <c r="A18" s="150"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="149" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="149"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="148" t="s">
+      <c r="A19" s="150"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="149" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="149"/>
-      <c r="B20" s="147" t="s">
+      <c r="A20" s="150"/>
+      <c r="B20" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="149" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="150"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="148" t="s">
+      <c r="A21" s="151"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="149" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="154" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="154" t="s">
+      <c r="C22" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="154" t="s">
+      <c r="D22" s="155" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="155"/>
-      <c r="B23" s="153" t="s">
+      <c r="A23" s="156"/>
+      <c r="B23" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="154" t="s">
+      <c r="C23" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="154" t="s">
+      <c r="D23" s="155" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="155"/>
-      <c r="B24" s="153" t="s">
+      <c r="A24" s="156"/>
+      <c r="B24" s="154" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="154" t="s">
+      <c r="C24" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="154" t="s">
+      <c r="D24" s="155" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="155"/>
-      <c r="B25" s="153" t="s">
+      <c r="A25" s="156"/>
+      <c r="B25" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="154" t="s">
+      <c r="C25" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="154"/>
+      <c r="D25" s="155"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="155"/>
-      <c r="B26" s="153" t="s">
+      <c r="A26" s="156"/>
+      <c r="B26" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="154" t="s">
+      <c r="C26" s="155" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="154" t="s">
+      <c r="D26" s="155" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="155"/>
-      <c r="B27" s="153" t="s">
+      <c r="A27" s="156"/>
+      <c r="B27" s="154" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="156" t="s">
+      <c r="C27" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="154" t="s">
+      <c r="D27" s="155" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="155"/>
-      <c r="B28" s="153" t="s">
+      <c r="A28" s="156"/>
+      <c r="B28" s="154" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="154" t="s">
+      <c r="C28" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="154" t="s">
+      <c r="D28" s="155" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="155"/>
-      <c r="B29" s="153" t="s">
+      <c r="A29" s="156"/>
+      <c r="B29" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="154" t="s">
+      <c r="C29" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="154" t="s">
+      <c r="D29" s="155" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="157"/>
-      <c r="B30" s="153" t="s">
+      <c r="A30" s="158"/>
+      <c r="B30" s="154" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="157" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="154" t="s">
+      <c r="D30" s="155" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="158" t="s">
+      <c r="A32" s="159" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="75" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>193</v>
       </c>
       <c r="D34" s="24"/>
@@ -8571,28 +8590,28 @@
       <c r="F34" s="24"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="160"/>
-      <c r="B35" s="74" t="s">
+      <c r="A35" s="161"/>
+      <c r="B35" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="75" t="s">
         <v>195</v>
       </c>
       <c r="D35" s="24"/>
-      <c r="E35" s="161"/>
+      <c r="E35" s="162"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="159" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="158" t="s">
+      <c r="C36" s="72"/>
+      <c r="D36" s="159" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="161"/>
+      <c r="E36" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8631,255 +8650,255 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="118"/>
+      <c r="E1" s="119"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="119"/>
+      <c r="E2" s="120"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="119"/>
+      <c r="E3" s="120"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116" t="s">
+      <c r="A4" s="116"/>
+      <c r="B4" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="122" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="119"/>
+      <c r="E4" s="120"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="115"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="121" t="s">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="119"/>
+      <c r="E5" s="120"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="121" t="s">
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="119"/>
+      <c r="E6" s="120"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="115"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="121" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="122" t="s">
         <v>215</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="118" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="115"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="122" t="s">
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="118" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="116"/>
+      <c r="B9" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="117"/>
+      <c r="E9" s="118"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="122" t="s">
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="123" t="s">
         <v>224</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="117"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116" t="s">
+      <c r="A11" s="116"/>
+      <c r="B11" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="117"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="115"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="122" t="s">
+      <c r="A12" s="116"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="123" t="s">
         <v>229</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="117"/>
+      <c r="E12" s="118"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="122" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="123" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="117"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116" t="s">
+      <c r="A14" s="116"/>
+      <c r="B14" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="118" t="s">
         <v>235</v>
       </c>
-      <c r="E14" s="117"/>
+      <c r="E14" s="118"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="115"/>
-      <c r="B15" s="123" t="s">
+      <c r="A15" s="116"/>
+      <c r="B15" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="118" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="118" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="115"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="122" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="123" t="s">
         <v>240</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="117" t="s">
+      <c r="E16" s="118" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116" t="s">
+      <c r="A17" s="116"/>
+      <c r="B17" s="117" t="s">
         <v>243</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="117" t="s">
+      <c r="D17" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="117" t="s">
+      <c r="E17" s="118" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="115"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="118" t="s">
         <v>247</v>
       </c>
-      <c r="E18" s="117" t="s">
+      <c r="E18" s="118" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="126" t="s">
         <v>249</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="120" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="126"/>
+      <c r="E19" s="127"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="125"/>
+      <c r="A20" s="126"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="120" t="s">
         <v>254</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -8887,107 +8906,107 @@
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="125"/>
-      <c r="B21" s="127" t="s">
+      <c r="A21" s="126"/>
+      <c r="B21" s="128" t="s">
         <v>256</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="118" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="128"/>
+      <c r="E21" s="129"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="125"/>
-      <c r="B22" s="129"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="124"/>
+      <c r="E22" s="125"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="130" t="s">
+      <c r="A23" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="118" t="s">
         <v>262</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="116"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="132"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="117" t="s">
+      <c r="A24" s="133"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="118" t="s">
         <v>264</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="115"/>
+      <c r="E24" s="116"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="132"/>
-      <c r="B25" s="134" t="s">
+      <c r="A25" s="133"/>
+      <c r="B25" s="135" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="118" t="s">
         <v>267</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E25" s="115"/>
+      <c r="E25" s="116"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="132"/>
-      <c r="B26" s="134" t="s">
+      <c r="A26" s="133"/>
+      <c r="B26" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="118" t="s">
         <v>270</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E26" s="116" t="s">
+      <c r="E26" s="117" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="132"/>
-      <c r="B27" s="131" t="s">
+      <c r="A27" s="133"/>
+      <c r="B27" s="132" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="118" t="s">
         <v>274</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E27" s="115"/>
+      <c r="E27" s="116"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="132"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="117" t="s">
+      <c r="A28" s="133"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="118" t="s">
         <v>276</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E28" s="115"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="132"/>
+      <c r="A29" s="133"/>
       <c r="B29" s="11" t="s">
         <v>278</v>
       </c>
@@ -8995,10 +9014,10 @@
         <v>279</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="116"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="132"/>
+      <c r="A30" s="133"/>
       <c r="B30" s="11" t="s">
         <v>280</v>
       </c>
@@ -9008,204 +9027,204 @@
       <c r="D30" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E30" s="115"/>
+      <c r="E30" s="116"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="132"/>
-      <c r="B31" s="116" t="s">
+      <c r="A31" s="133"/>
+      <c r="B31" s="117" t="s">
         <v>283</v>
       </c>
-      <c r="C31" s="119" t="s">
+      <c r="C31" s="120" t="s">
         <v>284</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="115"/>
+      <c r="E31" s="116"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="132"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116" t="s">
+      <c r="A32" s="133"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117" t="s">
         <v>286</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="115"/>
+      <c r="E32" s="116"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="132"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
+      <c r="A33" s="133"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E33" s="115"/>
+      <c r="E33" s="116"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="132"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
+      <c r="A34" s="133"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E34" s="115"/>
+      <c r="E34" s="116"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="132"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="133"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="115"/>
+      <c r="E35" s="116"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="132"/>
-      <c r="B36" s="135" t="s">
+      <c r="A36" s="133"/>
+      <c r="B36" s="136" t="s">
         <v>291</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D36" s="136" t="s">
+      <c r="D36" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="E36" s="116"/>
+      <c r="E36" s="117"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="132"/>
-      <c r="B37" s="116" t="s">
+      <c r="A37" s="133"/>
+      <c r="B37" s="117" t="s">
         <v>294</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="120" t="s">
         <v>295</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E37" s="115"/>
+      <c r="E37" s="116"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="132"/>
-      <c r="B38" s="47" t="s">
+      <c r="A38" s="133"/>
+      <c r="B38" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="46" t="s">
         <v>298</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E38" s="115"/>
+      <c r="E38" s="116"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="132"/>
-      <c r="B39" s="116" t="s">
+      <c r="A39" s="133"/>
+      <c r="B39" s="117" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="119" t="s">
+      <c r="C39" s="120" t="s">
         <v>301</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="115"/>
+      <c r="E39" s="116"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="132"/>
+      <c r="A40" s="133"/>
       <c r="B40" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="117" t="s">
+      <c r="C40" s="118" t="s">
         <v>303</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E40" s="115"/>
+      <c r="E40" s="116"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="132"/>
+      <c r="A41" s="133"/>
       <c r="B41" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C41" s="117" t="s">
+      <c r="C41" s="118" t="s">
         <v>306</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="115"/>
+      <c r="E41" s="116"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="132"/>
+      <c r="A42" s="133"/>
       <c r="B42" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C42" s="137" t="s">
+      <c r="C42" s="138" t="s">
         <v>308</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="115"/>
+      <c r="E42" s="116"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="131" t="s">
         <v>309</v>
       </c>
-      <c r="B43" s="138" t="s">
+      <c r="B43" s="139" t="s">
         <v>310</v>
       </c>
-      <c r="C43" s="139"/>
+      <c r="C43" s="140"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="115"/>
+      <c r="E43" s="116"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="132"/>
+      <c r="A44" s="133"/>
       <c r="B44" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="140" t="s">
+      <c r="C44" s="141" t="s">
         <v>312</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="137" t="s">
+      <c r="E44" s="138" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="132"/>
+      <c r="A45" s="133"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E45" s="121" t="s">
+      <c r="E45" s="122" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="132"/>
-      <c r="B46" s="116" t="s">
+      <c r="A46" s="133"/>
+      <c r="B46" s="117" t="s">
         <v>317</v>
       </c>
-      <c r="C46" s="140" t="s">
+      <c r="C46" s="141" t="s">
         <v>318</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E46" s="137" t="s">
+      <c r="E46" s="138" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="141"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="136" t="s">
+      <c r="A47" s="142"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="137" t="s">
         <v>321</v>
       </c>
-      <c r="E47" s="137" t="s">
+      <c r="E47" s="138" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9258,404 +9277,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="92" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="90"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="95"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="92" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="94"/>
+      <c r="D3" s="95"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="93"/>
+      <c r="B4" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="96" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="95"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="94" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="92" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="94"/>
+      <c r="D5" s="95"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="96"/>
-      <c r="B6" s="93" t="s">
+      <c r="A6" s="97"/>
+      <c r="B6" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="97"/>
+      <c r="D6" s="98"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="100" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="101" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="98"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="91" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="91" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="98"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="91" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="92" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="94" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="98"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="91" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="92" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="94" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="98"/>
-      <c r="B11" s="90" t="s">
+      <c r="A11" s="99"/>
+      <c r="B11" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="92" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="91" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="98"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="90" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="91" t="s">
         <v>349</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="104" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="98"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="104" t="s">
+      <c r="A13" s="99"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="105" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="98"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="104" t="s">
+      <c r="A14" s="99"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="105" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="98"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="103" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="104" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="98"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="91" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99" t="s">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100" t="s">
         <v>309</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="94" t="s">
         <v>354</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="106" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="98"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="93" t="s">
+      <c r="A18" s="99"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="94" t="s">
         <v>315</v>
       </c>
-      <c r="D18" s="106"/>
+      <c r="D18" s="107"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="98"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="93" t="s">
+      <c r="A19" s="99"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="94" t="s">
         <v>356</v>
       </c>
-      <c r="D19" s="106"/>
+      <c r="D19" s="107"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="98"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="93" t="s">
+      <c r="A20" s="99"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="D20" s="107"/>
+      <c r="D20" s="108"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="108"/>
-      <c r="B21" s="90" t="s">
+      <c r="A21" s="109"/>
+      <c r="B21" s="91" t="s">
         <v>358</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="95" t="s">
         <v>359</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="91" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="110" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="91"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="98"/>
-      <c r="B23" s="110" t="s">
+      <c r="A23" s="99"/>
+      <c r="B23" s="111" t="s">
         <v>364</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="92" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="92"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="98"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="91" t="s">
+      <c r="A24" s="99"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="D24" s="91"/>
+      <c r="D24" s="92"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="98"/>
-      <c r="B25" s="90" t="s">
+      <c r="A25" s="99"/>
+      <c r="B25" s="91" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="112" t="s">
         <v>368</v>
       </c>
-      <c r="D25" s="112"/>
+      <c r="D25" s="113"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="98"/>
-      <c r="B26" s="90" t="s">
+      <c r="A26" s="99"/>
+      <c r="B26" s="91" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91" t="s">
+      <c r="C26" s="92"/>
+      <c r="D26" s="92" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99" t="s">
+      <c r="A27" s="99"/>
+      <c r="B27" s="100" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="96" t="s">
         <v>372</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="92" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="98"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="95" t="s">
+      <c r="A28" s="99"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="96" t="s">
         <v>374</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="92" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="98"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="95" t="s">
+      <c r="A29" s="99"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="96" t="s">
         <v>376</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="92" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="108"/>
-      <c r="B30" s="90" t="s">
+      <c r="A30" s="109"/>
+      <c r="B30" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="D30" s="91"/>
+      <c r="D30" s="92"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="99" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="111" t="s">
         <v>381</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="D31" s="91"/>
+      <c r="D31" s="92"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="98"/>
-      <c r="B32" s="110" t="s">
+      <c r="A32" s="99"/>
+      <c r="B32" s="111" t="s">
         <v>383</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="D32" s="92" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="91" t="s">
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="92" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="91" t="s">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="D34" s="91" t="s">
+      <c r="D34" s="92" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="98"/>
-      <c r="B35" s="110" t="s">
+      <c r="A35" s="99"/>
+      <c r="B35" s="111" t="s">
         <v>390</v>
       </c>
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="D35" s="91" t="s">
+      <c r="D35" s="92" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="98"/>
-      <c r="B36" s="110" t="s">
+      <c r="A36" s="99"/>
+      <c r="B36" s="111" t="s">
         <v>393</v>
       </c>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="92" t="s">
         <v>394</v>
       </c>
-      <c r="D36" s="91" t="s">
+      <c r="D36" s="92" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="98"/>
-      <c r="B37" s="110" t="s">
+      <c r="A37" s="99"/>
+      <c r="B37" s="111" t="s">
         <v>396</v>
       </c>
-      <c r="C37" s="113" t="s">
+      <c r="C37" s="114" t="s">
         <v>397</v>
       </c>
-      <c r="D37" s="114"/>
+      <c r="D37" s="115"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="98"/>
-      <c r="B38" s="110" t="s">
+      <c r="A38" s="99"/>
+      <c r="B38" s="111" t="s">
         <v>398</v>
       </c>
-      <c r="C38" s="113" t="s">
+      <c r="C38" s="114" t="s">
         <v>399</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="115" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="108"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="95" t="s">
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="96" t="s">
         <v>401</v>
       </c>
-      <c r="D39" s="95" t="s">
+      <c r="D39" s="96" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9702,107 +9721,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="87" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="45" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="46" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="88" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="86" t="s">
         <v>413</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="89" t="s">
         <v>414</v>
       </c>
       <c r="I5" s="24"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="87" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="88" t="s">
         <v>416</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="86"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="87"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="87" t="s">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="88" t="s">
         <v>418</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="86" t="s">
         <v>419</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="88" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="85"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="12"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="14" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="优化" sheetId="6" r:id="rId11"/>
     <sheet name="cv2" sheetId="12" r:id="rId12"/>
     <sheet name="深1" sheetId="13" r:id="rId13"/>
+    <sheet name="推荐算法" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="780">
   <si>
     <t>首先我学习了机器学习，针对不同问题使用不同的方法解决，回归问题，的掌握了线性模型及其变种、决策树、集成学习、支持向量机，
 分类问题：逻辑回归、决策树回归、支持向量机、朴素贝页斯。
@@ -3763,6 +3764,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">“计算梯度”的方法：反向传播
 </t>
     </r>
@@ -3841,8 +3849,14 @@
     <t>支付金额</t>
   </si>
   <si>
-    <t xml:space="preserve">反向计算：
-</t>
+    <t>一层一层的往下计算
+（正向前馈）"上一层的输出" 作为 "下一层的输入" ，
+并且 "每一层神经元"  与  "下一层神经元" 进行全连接。
+的 "逻辑结构"</t>
+  </si>
+  <si>
+    <t>反向计算：
+（核心：链式求导）</t>
   </si>
   <si>
     <t>请计算 "苹果价格上涨" 会在多大程度上 "影响支付金额"（即求: "支付金额" 关于 "苹果单价" 的导数"）</t>
@@ -3858,7 +3872,7 @@
     <t>乘法</t>
   </si>
   <si>
-    <t>直接计算</t>
+    <t>直接计算：</t>
   </si>
   <si>
     <t>（1）通过带入数字，可以直接求出各个环节的导数。</t>
@@ -3873,7 +3887,335 @@
 （上游的导数）传到下游去  *  当前这条边的偏导数</t>
   </si>
   <si>
-    <t>将 "上流的值" 直接传给 "下游"</t>
+    <t>将 "上流的值" 直接传给 "下游"，
+上游在后面下游在前面。</t>
+  </si>
+  <si>
+    <t>反向传播过程</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>"全连接神经网络" 有一定的 "局限性"</t>
+  </si>
+  <si>
+    <t>未考虑数据形状，只能接收一维特征。</t>
+  </si>
+  <si>
+    <t>神经网络理论上可以解决所有问题</t>
+  </si>
+  <si>
+    <t>参数庞大，需要降低参数量。</t>
+  </si>
+  <si>
+    <t>深度受限</t>
+  </si>
+  <si>
+    <t>什么是卷积</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "一个函数" 和 "另一个函数"在 "某个维度上" 的 "加权叠加" 作用</t>
+  </si>
+  <si>
+    <t>还是对应位置相乘之后，再求和。</t>
+  </si>
+  <si>
+    <t>生活中的卷积
+h(t) = f认识(t) * g遗忘(t)</t>
+  </si>
+  <si>
+    <t>离散卷积</t>
+  </si>
+  <si>
+    <t>图像数据：它是离散数据</t>
+  </si>
+  <si>
+    <t>多维卷积</t>
+  </si>
+  <si>
+    <t>卷积运算</t>
+  </si>
+  <si>
+    <t>单通道、二维卷积</t>
+  </si>
+  <si>
+    <t>单通道、二维卷积、同维卷积</t>
+  </si>
+  <si>
+    <t>单通道、二维卷积 + 偏置</t>
+  </si>
+  <si>
+    <t>带填充的: padding，在外部填充1圈0或2圈0</t>
+  </si>
+  <si>
+    <t>步幅: stride</t>
+  </si>
+  <si>
+    <t>多通道</t>
+  </si>
+  <si>
+    <t>还是对应位置相乘之后，再求和，3 个特征图，把它们 "对应位置相加" 。</t>
+  </si>
+  <si>
+    <t>卷积结果维度的计算</t>
+  </si>
+  <si>
+    <t>OH = (H + 2P -FH)/S +1</t>
+  </si>
+  <si>
+    <t>OW = (W + 2P - FW)/S + 1</t>
+  </si>
+  <si>
+    <t>卷积神经网络</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卷积神经网络(Convolutional Neural Network,CNN)
+针对"全连接神经网络" 的局限做出了修改，
+加入了：
+  卷积层（Convolution层）//可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提取特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  池化层（Pooling层）    //可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>降维</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 通常情况下,
+ "卷积神经网络" ：
+   由若干个：
+        卷积层(Convolutional Layer)、
+        激活层(Activation Layer)、
+        池化层(Pooling Layer)
+        及全连接层(Fully Connected Layer) 
+   组成。</t>
+  </si>
+  <si>
+    <t>卷积、激活、池化 组 （是核心）
++
+全连接层</t>
+  </si>
+  <si>
+    <t>卷积 （核心）:提取特征，降维处理</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>激活</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>————激活函数</t>
+    </r>
+  </si>
+  <si>
+    <t>没有要学习的参数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>池化层(Pooling Layer)}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>————降低宽高</t>
+    </r>
+  </si>
+  <si>
+    <t>池化里面 "没有要学习的参数"
+：最大池化
+：平均池化
+鲁棒性：输入数据发生微小变化时， 池化仍会返回相同的结果。</t>
+  </si>
+  <si>
+    <t>全连接层</t>
+  </si>
+  <si>
+    <t>反复提取特征之后，就可以让“全连接”进行计算了。</t>
+  </si>
+  <si>
+    <t>经典CNN</t>
+  </si>
+  <si>
+    <t>LeNet 5层</t>
+  </si>
+  <si>
+    <t>第一个 "卷积神经网络"，开山鼻祖。</t>
+  </si>
+  <si>
+    <t>AlexNet 8层</t>
+  </si>
+  <si>
+    <t>"随机忽略一部分防止过拟合"</t>
+  </si>
+  <si>
+    <t>VGG 19</t>
+  </si>
+  <si>
+    <t>卷中卷</t>
+  </si>
+  <si>
+    <t>GoogLeNet 22层</t>
+  </si>
+  <si>
+    <t>Inception 并行卷积结构，特征融合</t>
+  </si>
+  <si>
+    <t>Res Net 152层</t>
+  </si>
+  <si>
+    <t>残差网络</t>
+  </si>
+  <si>
+    <t>都离不开CNN，它们都要进行 "特征提取"。
+不管什么网络，它都要进行卷积，提取特征</t>
+  </si>
+  <si>
+    <t>推荐算法</t>
+  </si>
+  <si>
+    <t>数据属性</t>
+  </si>
+  <si>
+    <t>人口属性</t>
+  </si>
+  <si>
+    <t>男的、女的、已婚的、未婚的
+是否戴眼镜，是否留胡子，这些都是人口属性</t>
+  </si>
+  <si>
+    <t>地理属性</t>
+  </si>
+  <si>
+    <t>当前你所在的位置，你所在的地区、风俗、习俗。
+是平原、还是盆地</t>
+  </si>
+  <si>
+    <t>资产属性</t>
+  </si>
+  <si>
+    <t>你有多少钱，你的账户余额，你有多少房，有多少车</t>
+  </si>
+  <si>
+    <t>兴趣属性</t>
+  </si>
+  <si>
+    <t>旅游、玩车</t>
+  </si>
+  <si>
+    <t>算法属性</t>
+  </si>
+  <si>
+    <t>"协同过滤"推荐算法</t>
+  </si>
+  <si>
+    <t>"基于内存的协同过滤/
+基于邻域" 的协同过滤</t>
+  </si>
+  <si>
+    <t>UCF 用户与用户之间的相似商</t>
+  </si>
+  <si>
+    <t>ICF 商品与商品的相似度</t>
+  </si>
+  <si>
+    <t>（1）拿到每个商品共同出现的次数</t>
+  </si>
+  <si>
+    <t>基于 "模型的" 协同过滤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用 "分类算法" 做做协同过滤 </t>
+  </si>
+  <si>
+    <t>用 "回归算法" 做做协同过滤</t>
+  </si>
+  <si>
+    <t>用 "矩阵分解" 做做协同过滤</t>
+  </si>
+  <si>
+    <t>用 "神经网络" 做做协同过滤</t>
+  </si>
+  <si>
+    <t>用 "图模型" 做做协同过滤</t>
+  </si>
+  <si>
+    <t>用 "隐语义" 做做协同过滤</t>
+  </si>
+  <si>
+    <t>关联关系</t>
+  </si>
+  <si>
+    <t>"基于内容"的推荐算法</t>
+  </si>
+  <si>
+    <t>"混合推荐"算法</t>
+  </si>
+  <si>
+    <t>"流行度" 推荐算法</t>
   </si>
 </sst>
 </file>
@@ -3886,7 +4228,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4099,6 +4441,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4111,6 +4461,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4163,12 +4519,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4395,7 +4745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -4439,9 +4789,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4452,7 +4800,31 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4512,19 +4884,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -4678,7 +5037,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4690,34 +5049,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4802,219 +5161,471 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5022,309 +5633,84 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5334,34 +5720,34 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5727,7 +6113,7 @@
   </cols>
   <sheetData>
     <row r="12" ht="136" customHeight="1" spans="5:5">
-      <c r="E12" s="162" t="s">
+      <c r="E12" s="171" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5758,134 +6144,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="75"/>
-      <c r="F7" s="76" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="83" t="s">
         <v>422</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="82" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="75"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="75" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="82" t="s">
         <v>425</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="82" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="78" t="s">
         <v>427</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="83" t="s">
         <v>428</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="82" t="s">
         <v>429</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="82" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="71"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85" t="s">
         <v>431</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="86" t="s">
         <v>432</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="88" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="80"/>
-      <c r="F11" s="81" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="88" t="s">
         <v>434</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="85" t="s">
         <v>431</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="86" t="s">
         <v>435</v>
       </c>
-      <c r="I11" s="84"/>
+      <c r="I11" s="91"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="80"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="76" t="s">
+      <c r="E12" s="87"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="83" t="s">
         <v>436</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="86" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="80"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="83" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="90" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="80"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="75" t="s">
+      <c r="E14" s="87"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="82" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="80"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="79" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="86" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="80"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="75" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="82" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="80"/>
-      <c r="F17" s="71" t="s">
+      <c r="E17" s="87"/>
+      <c r="F17" s="78" t="s">
         <v>442</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="78" t="s">
         <v>443</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="82" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="80"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="75" t="s">
+      <c r="E18" s="87"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="82" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="80"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="75" t="s">
+      <c r="E19" s="87"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="82" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5922,60 +6308,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="79" t="s">
         <v>448</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="80" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="71"/>
-      <c r="E10" s="72" t="s">
+      <c r="D10" s="78"/>
+      <c r="E10" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="79" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="74" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="81" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="71"/>
-      <c r="E12" s="74" t="s">
+      <c r="D12" s="78"/>
+      <c r="E12" s="81" t="s">
         <v>455</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="78" t="s">
         <v>456</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="82" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="71"/>
-      <c r="E13" s="72" t="s">
+      <c r="D13" s="78"/>
+      <c r="E13" s="79" t="s">
         <v>458</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="78" t="s">
         <v>459</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="82" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6012,745 +6398,745 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="33" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="30"/>
+      <c r="A3" s="32"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="32"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="32"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="27" spans="2:7">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="26" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="30" t="s">
         <v>475</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="13" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="47" t="s">
         <v>482</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="13" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="40" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="33" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="26" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="30"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="26" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="30"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="26" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="30"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="30"/>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="30"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="24" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="30"/>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="26" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="30"/>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="52" t="s">
         <v>503</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="30"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="52" t="s">
         <v>504</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="54" t="s">
         <v>507</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="54" t="s">
         <v>510</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="55" t="s">
         <v>510</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="46" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="54" t="s">
         <v>512</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="55" t="s">
         <v>512</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="G29" s="24"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="40"/>
-      <c r="C30" s="40" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="48" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="56" t="s">
         <v>517</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="48"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="54" t="s">
         <v>521</v>
       </c>
       <c r="E33" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="46" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="54" t="s">
         <v>524</v>
       </c>
       <c r="E34" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="24"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="57" t="s">
         <v>528</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="46" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="54" t="s">
         <v>530</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="57" t="s">
         <v>531</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="24"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="46" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="54" t="s">
         <v>532</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="24"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="59" t="s">
         <v>535</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="59" t="s">
         <v>536</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="24"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="30" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="52" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="59" t="s">
         <v>542</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="61" t="s">
         <v>543</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="26" t="s">
+      <c r="F40" s="13"/>
+      <c r="G40" s="30" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="55" t="s">
         <v>546</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="G41" s="24"/>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="47" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="55" t="s">
         <v>549</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="40"/>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="55" t="s">
         <v>552</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="62" t="s">
         <v>555</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="62" t="s">
         <v>556</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="55" t="s">
         <v>557</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="55" t="s">
         <v>558</v>
       </c>
-      <c r="F44" s="56" t="s">
+      <c r="F44" s="63" t="s">
         <v>559</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="55"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="47" t="s">
+      <c r="B45" s="62"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="55" t="s">
         <v>560</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="58" t="s">
         <v>561</v>
       </c>
-      <c r="F45" s="47" t="s">
+      <c r="F45" s="55" t="s">
         <v>562</v>
       </c>
-      <c r="G45" s="24"/>
+      <c r="G45" s="13"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="55"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="47" t="s">
+      <c r="B46" s="62"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="55" t="s">
         <v>563</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="24"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="13"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="58"/>
-      <c r="C47" s="55" t="s">
+      <c r="B47" s="65"/>
+      <c r="C47" s="62" t="s">
         <v>564</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="24"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="66" t="s">
         <v>565</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="62" t="s">
         <v>565</v>
       </c>
-      <c r="D48" s="56" t="s">
+      <c r="D48" s="63" t="s">
         <v>566</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="24"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="59"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56" t="s">
+      <c r="B49" s="66"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63" t="s">
         <v>567</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="24"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="59"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63" t="s">
         <v>568</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="24"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="13"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="59"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="38" t="s">
         <v>570</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="67" t="s">
         <v>571</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="F52" s="61" t="s">
+      <c r="F52" s="68" t="s">
         <v>574</v>
       </c>
-      <c r="G52" s="62" t="s">
+      <c r="G52" s="69" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
-      <c r="B53" s="32"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="24" t="s">
+      <c r="B53" s="40"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="65"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="72"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
-      <c r="B54" s="32"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="39" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="38" t="s">
         <v>577</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="74"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
-      <c r="B55" s="32"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="24" t="s">
+      <c r="B55" s="40"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="32"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="24" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="33"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="26" t="s">
+      <c r="B57" s="42"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="G57" s="24"/>
+      <c r="G57" s="13"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="69" t="s">
+      <c r="C62" s="76" t="s">
         <v>583</v>
       </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -6796,641 +7182,1149 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C18:H69"/>
+  <dimension ref="C18:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C84" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="2" max="2" width="40.5840707964602" customWidth="1"/>
     <col min="3" max="3" width="13.4336283185841" customWidth="1"/>
-    <col min="4" max="4" width="30.6017699115044" customWidth="1"/>
+    <col min="4" max="4" width="34.5929203539823" customWidth="1"/>
     <col min="5" max="5" width="53.6902654867257" customWidth="1"/>
     <col min="6" max="6" width="52.6991150442478" customWidth="1"/>
-    <col min="7" max="7" width="92.1681415929203" customWidth="1"/>
+    <col min="7" max="7" width="33.4336283185841" customWidth="1"/>
     <col min="8" max="8" width="50.6902654867257" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" ht="27" spans="3:7">
-      <c r="C18" s="1" t="s">
+    <row r="18" ht="27" spans="3:8">
+      <c r="C18" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" ht="54" spans="3:7">
-      <c r="C19" s="1"/>
-      <c r="D19" s="3" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" ht="54" spans="3:8">
+      <c r="C19" s="9"/>
+      <c r="D19" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="1"/>
-      <c r="D20" s="2" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" ht="72" customHeight="1" spans="3:7">
-      <c r="C21" s="1"/>
-      <c r="D21" s="3" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" ht="72" customHeight="1" spans="3:8">
+      <c r="C21" s="9"/>
+      <c r="D21" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" ht="32" customHeight="1" spans="3:7">
-      <c r="C22" s="5" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" ht="32" customHeight="1" spans="3:8">
+      <c r="C22" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="23" ht="51" customHeight="1" spans="3:7">
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8" t="s">
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" ht="51" customHeight="1" spans="3:8">
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="24" ht="265" customHeight="1" spans="3:7">
-      <c r="C24" s="5"/>
-      <c r="D24" s="9" t="s">
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" ht="265" customHeight="1" spans="3:8">
+      <c r="C24" s="14"/>
+      <c r="D24" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="20" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="25" ht="72" customHeight="1" spans="3:7">
-      <c r="C25" s="5"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="11" t="s">
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" ht="72" customHeight="1" spans="3:8">
+      <c r="C25" s="14"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="20" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="26" ht="38" customHeight="1" spans="3:7">
-      <c r="C26" s="5"/>
-      <c r="D26" s="2" t="s">
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" ht="38" customHeight="1" spans="3:8">
+      <c r="C26" s="14"/>
+      <c r="D26" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" ht="409" customHeight="1" spans="3:7">
-      <c r="C27" s="5"/>
-      <c r="D27" s="3" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" ht="409" customHeight="1" spans="3:8">
+      <c r="C27" s="14"/>
+      <c r="D27" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="11" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="28" ht="58" customHeight="1" spans="3:7">
-      <c r="C28" s="5"/>
-      <c r="D28" s="2" t="s">
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" ht="58" customHeight="1" spans="3:8">
+      <c r="C28" s="14"/>
+      <c r="D28" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="14" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="22" t="s">
         <v>614</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="16"/>
-      <c r="D30" s="15" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" ht="85" customHeight="1" spans="3:7">
-      <c r="C31" s="16"/>
-      <c r="D31" s="15" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" ht="85" customHeight="1" spans="3:8">
+      <c r="C31" s="21"/>
+      <c r="D31" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="12" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="32" ht="37" customHeight="1" spans="3:7">
-      <c r="C32" s="16"/>
-      <c r="D32" s="19" t="s">
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" ht="37" customHeight="1" spans="3:8">
+      <c r="C32" s="21"/>
+      <c r="D32" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" ht="52" customHeight="1" spans="3:7">
-      <c r="C33" s="16"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="17" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" ht="52" customHeight="1" spans="3:8">
+      <c r="C33" s="21"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" ht="83" customHeight="1" spans="3:7">
-      <c r="C34" s="16"/>
-      <c r="D34" s="15" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" ht="83" customHeight="1" spans="3:8">
+      <c r="C34" s="21"/>
+      <c r="D34" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" ht="44" customHeight="1" spans="3:7">
-      <c r="C35" s="16"/>
-      <c r="D35" s="15" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" ht="44" customHeight="1" spans="3:8">
+      <c r="C35" s="21"/>
+      <c r="D35" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="10" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="36" ht="27" spans="3:7">
-      <c r="C36" s="16"/>
-      <c r="D36" s="21" t="s">
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" ht="27" spans="3:8">
+      <c r="C36" s="21"/>
+      <c r="D36" s="27" t="s">
         <v>631</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" ht="53" customHeight="1" spans="3:7">
-      <c r="C37" s="16"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="19" t="s">
+      <c r="G36" s="10"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" ht="53" customHeight="1" spans="3:8">
+      <c r="C37" s="21"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" ht="40.5" spans="3:7">
-      <c r="C38" s="16"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="18" t="s">
+      <c r="G37" s="10"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" ht="40.5" spans="3:8">
+      <c r="C38" s="21"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="10" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="39" ht="40.5" spans="3:7">
-      <c r="C39" s="16"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="18" t="s">
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" ht="40.5" spans="3:8">
+      <c r="C39" s="21"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="11" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="40" ht="40.5" spans="3:7">
-      <c r="C40" s="16"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="8" t="s">
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" ht="40.5" spans="3:8">
+      <c r="C40" s="21"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="28" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="41" ht="54" spans="3:7">
-      <c r="C41" s="16"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="8" t="s">
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" ht="81" spans="3:8">
+      <c r="C41" s="21"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="17" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="42" ht="34" customHeight="1" spans="3:7">
-      <c r="C42" s="23"/>
-      <c r="D42" s="15" t="s">
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" ht="34" customHeight="1" spans="3:8">
+      <c r="C42" s="21"/>
+      <c r="D42" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="C43" s="25" t="s">
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" ht="53" customHeight="1" spans="3:7">
-      <c r="C44" s="25"/>
-      <c r="D44" s="24" t="s">
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" ht="53" customHeight="1" spans="3:8">
+      <c r="C44" s="29"/>
+      <c r="D44" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="30" t="s">
         <v>650</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" ht="27" spans="3:7">
-      <c r="C45" s="25"/>
-      <c r="D45" s="24" t="s">
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" ht="27" spans="3:8">
+      <c r="C45" s="29"/>
+      <c r="D45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="30" t="s">
         <v>651</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" ht="54" spans="3:7">
-      <c r="C46" s="25"/>
-      <c r="D46" s="24" t="s">
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" ht="54" spans="3:8">
+      <c r="C46" s="29"/>
+      <c r="D46" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" ht="99" customHeight="1" spans="3:7">
-      <c r="C47" s="27" t="s">
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" ht="99" customHeight="1" spans="3:8">
+      <c r="C47" s="29" t="s">
         <v>653</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="30" t="s">
         <v>654</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="31" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="48" ht="48" customHeight="1" spans="3:7">
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" ht="48" customHeight="1" spans="3:8">
       <c r="C48" s="29"/>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="30" t="s">
         <v>658</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" ht="34" customHeight="1" spans="3:7">
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" ht="34" customHeight="1" spans="3:8">
       <c r="C49" s="29"/>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" ht="34" customHeight="1" spans="3:7">
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" ht="34" customHeight="1" spans="3:8">
       <c r="C50" s="29"/>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" ht="107" customHeight="1" spans="3:7">
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" ht="107" customHeight="1" spans="3:8">
       <c r="C51" s="29"/>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="32" t="s">
         <v>665</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="G51" s="24"/>
-    </row>
-    <row r="52" spans="3:7">
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="3:8">
       <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="24" t="s">
+      <c r="D52" s="32"/>
+      <c r="E52" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="G52" s="24"/>
-    </row>
-    <row r="53" ht="40.5" spans="3:7">
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" ht="40.5" spans="3:8">
       <c r="C53" s="29"/>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="31" t="s">
         <v>672</v>
       </c>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="3:7">
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="3:8">
       <c r="C54" s="29"/>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="G54" s="33" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="55" ht="20" customHeight="1" spans="3:7">
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="3:8">
       <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="24" t="s">
+      <c r="D55" s="32"/>
+      <c r="E55" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="F55" s="26"/>
+      <c r="F55" s="30"/>
       <c r="G55" s="32"/>
-    </row>
-    <row r="56" ht="27" spans="3:7">
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" ht="27" spans="3:8">
       <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="26" t="s">
+      <c r="D56" s="32"/>
+      <c r="E56" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="30" t="s">
         <v>679</v>
       </c>
-      <c r="G56" s="33"/>
-    </row>
-    <row r="57" ht="77" customHeight="1" spans="3:7">
+      <c r="G56" s="32"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" ht="77" customHeight="1" spans="3:8">
       <c r="C57" s="29"/>
       <c r="D57" s="34" t="s">
         <v>680</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="30" t="s">
         <v>681</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="30" t="s">
         <v>682</v>
       </c>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" ht="77" customHeight="1" spans="3:7">
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" ht="77" customHeight="1" spans="3:8">
       <c r="C58" s="29"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="26" t="s">
+      <c r="D58" s="34"/>
+      <c r="E58" s="30" t="s">
         <v>683</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="G58" s="24"/>
-    </row>
-    <row r="59" ht="148.5" spans="3:7">
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" ht="148.5" spans="3:8">
       <c r="C59" s="29"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="26" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="30" t="s">
         <v>686</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="30" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="60" ht="121.5" spans="3:7">
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" ht="243" spans="3:8">
       <c r="C60" s="29"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="26" t="s">
+      <c r="D60" s="34"/>
+      <c r="E60" s="30" t="s">
         <v>688</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="30" t="s">
         <v>689</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="30" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="61" ht="71" customHeight="1" spans="3:7">
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" ht="71" customHeight="1" spans="3:8">
       <c r="C61" s="29"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="24" t="s">
+      <c r="D61" s="34"/>
+      <c r="E61" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="G61" s="26"/>
-    </row>
-    <row r="62" ht="34" customHeight="1" spans="3:7">
+      <c r="G61" s="30"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" ht="114" customHeight="1" spans="3:8">
       <c r="C62" s="29"/>
-      <c r="D62" s="32"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="35" t="s">
         <v>693</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="G62" s="24"/>
-    </row>
-    <row r="63" ht="106" customHeight="1" spans="3:7">
-      <c r="C63" s="36"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="37" t="s">
+      <c r="G62" s="30" t="s">
         <v>695</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" ht="106" customHeight="1" spans="3:8">
+      <c r="C63" s="29"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="36" t="s">
         <v>696</v>
       </c>
-      <c r="G63" s="26" t="s">
+      <c r="F63" s="30" t="s">
         <v>697</v>
       </c>
+      <c r="G63" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" ht="77" customHeight="1" spans="3:8">
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="39" t="s">
-        <v>698</v>
-      </c>
-      <c r="G64" s="24" t="s">
+      <c r="C64" s="29"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="32" t="s">
         <v>699</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="G64" s="13" t="s">
         <v>700</v>
       </c>
+      <c r="H64" s="33" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="65" ht="100" customHeight="1" spans="3:8">
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="26" t="s">
-        <v>701</v>
-      </c>
-      <c r="H65" s="26" t="s">
+      <c r="C65" s="29"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="30" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="66" ht="54" customHeight="1" spans="6:7">
-      <c r="F66" t="s">
+      <c r="H65" s="30" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="66" ht="54" customHeight="1" spans="3:8">
+      <c r="C66" s="29"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="G66" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="69" spans="8:8">
-      <c r="H69" t="s">
-        <v>419</v>
-      </c>
+      <c r="G66" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" ht="74" customHeight="1" spans="5:5">
+      <c r="E67" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" spans="3:6">
+      <c r="C74" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75" s="29"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="F75" s="40"/>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="C76" s="29"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77" ht="27" spans="3:7">
+      <c r="C77" s="29"/>
+      <c r="D77" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="G77" s="44" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78" s="29"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="F78" s="43" t="s">
+        <v>717</v>
+      </c>
+      <c r="G78" s="45"/>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="C79" s="29"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="F79" s="43"/>
+      <c r="G79" s="46"/>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="C80" s="29"/>
+      <c r="D80" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" s="29"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" s="29"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="83" ht="27" spans="3:6">
+      <c r="C83" s="29"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" ht="62" customHeight="1" spans="3:6">
+      <c r="C84" s="29"/>
+      <c r="D84" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" ht="108" spans="3:6">
+      <c r="C85" s="29"/>
+      <c r="D85" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="E85" s="47" t="s">
+        <v>731</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="C86" s="29"/>
+      <c r="D86" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="C87" s="29"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="88" ht="74" customHeight="1" spans="3:6">
+      <c r="C88" s="29"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="49" t="s">
+        <v>737</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="89" ht="26" customHeight="1" spans="3:6">
+      <c r="C89" s="29"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="C90" s="29"/>
+      <c r="D90" s="38" t="s">
+        <v>741</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" s="29"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="C92" s="29"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="50" t="s">
+        <v>746</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6">
+      <c r="C93" s="29"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="C94" s="29"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="3:6">
+      <c r="C95" s="29"/>
+      <c r="D95" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="F95" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="28">
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C28"/>
     <mergeCell ref="C29:C42"/>
     <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C47:C63"/>
+    <mergeCell ref="C47:C66"/>
+    <mergeCell ref="C74:C95"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="D36:D41"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D63"/>
+    <mergeCell ref="D57:D66"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="D90:D94"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E37:E41"/>
-    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E63:E66"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F74:F76"/>
     <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G77:G79"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B8:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="23.2389380530973" customWidth="1"/>
+    <col min="2" max="2" width="12.0265486725664" customWidth="1"/>
+    <col min="4" max="4" width="22.1504424778761" customWidth="1"/>
+    <col min="5" max="5" width="37.7699115044248" customWidth="1"/>
+    <col min="6" max="6" width="31.7964601769912" customWidth="1"/>
+    <col min="7" max="7" width="32.2477876106195" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" ht="40.5" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="40.5" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" ht="27" spans="2:7">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" ht="74" customHeight="1" spans="2:7">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B8:B23"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="G14:G19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7455,105 +8349,105 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="159" t="s">
+      <c r="D6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="82" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="80"/>
-      <c r="C7" s="159" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="159" t="s">
+      <c r="E7" s="168" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="80"/>
-      <c r="C8" s="159" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="168"/>
+      <c r="E8" s="82" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="80"/>
-      <c r="C9" s="159" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="82" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="80"/>
-      <c r="C10" s="159" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="159"/>
-      <c r="E10" s="72" t="s">
+      <c r="D10" s="168"/>
+      <c r="E10" s="79" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="80"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="173" t="s">
+      <c r="D11" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="80"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="173" t="s">
+      <c r="D12" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="173" t="s">
+      <c r="E12" s="182" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="I13" s="187"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="I13" s="196"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7586,252 +8480,252 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="177" t="s">
+      <c r="D13" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="178" t="s">
+      <c r="F13" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="188" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="180" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="24" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="182" t="s">
+      <c r="F15" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="183"/>
+      <c r="G15" s="192"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="25"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="25"/>
-      <c r="B19" s="184" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="24" t="s">
+      <c r="C19" s="194"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="25"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="25"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="24" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="25"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="24" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="25"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="24" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="25"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="25"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="24" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="25"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="25"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="25"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="24" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="25"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="24" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7871,78 +8765,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="173" t="s">
+      <c r="D5" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="156" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="172"/>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="181"/>
+      <c r="C6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="173" t="s">
+      <c r="E6" s="182" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="176" t="s">
+      <c r="D7" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="176" t="s">
+      <c r="E7" s="185" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="174"/>
-      <c r="C8" s="175" t="s">
+      <c r="B8" s="183"/>
+      <c r="C8" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="175" t="s">
+      <c r="D8" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="176" t="s">
+      <c r="E8" s="185" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="174"/>
-      <c r="C9" s="175" t="s">
+      <c r="B9" s="183"/>
+      <c r="C9" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="175" t="s">
+      <c r="D9" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="176" t="s">
+      <c r="E9" s="185" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="174"/>
-      <c r="C10" s="175" t="s">
+      <c r="B10" s="183"/>
+      <c r="C10" s="184" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="175" t="s">
+      <c r="D10" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="185" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7975,228 +8869,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="172" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="165" t="s">
+      <c r="E3" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="165" t="s">
+      <c r="F3" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="173" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="165" t="s">
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="164" t="s">
+      <c r="F4" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="174" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="164" t="s">
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="166"/>
-      <c r="F5" s="164" t="s">
+      <c r="E5" s="175"/>
+      <c r="F5" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="164" t="s">
+      <c r="G5" s="173" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="166" t="s">
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="167" t="s">
+      <c r="E6" s="175"/>
+      <c r="F6" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="165" t="s">
+      <c r="G6" s="174" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="164" t="s">
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="177" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="169" t="s">
+      <c r="F7" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="164" t="s">
+      <c r="G7" s="173" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="165" t="s">
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="164"/>
+      <c r="G8" s="173"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="170" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="165" t="s">
+      <c r="E9" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="167" t="s">
+      <c r="F9" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="165" t="s">
+      <c r="G9" s="174" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="163"/>
-      <c r="C10" s="163" t="s">
+      <c r="B10" s="172"/>
+      <c r="C10" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="163"/>
-      <c r="E10" s="171" t="s">
+      <c r="D10" s="172"/>
+      <c r="E10" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="171" t="s">
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="180" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="171" t="s">
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="171" t="s">
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="163"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="171" t="s">
+      <c r="B14" s="172"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="171" t="s">
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="163"/>
-      <c r="C16" s="163" t="s">
+      <c r="B16" s="172"/>
+      <c r="C16" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="163" t="s">
+      <c r="D16" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="171" t="s">
+      <c r="E16" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="164" t="s">
+      <c r="F16" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="171"/>
+      <c r="G16" s="180"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="171" t="s">
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="166"/>
-      <c r="G17" s="171"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="180"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163" t="s">
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="171" t="s">
+      <c r="E18" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="166"/>
-      <c r="G18" s="171"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="180"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="171" t="s">
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="166"/>
-      <c r="G19" s="171"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="180"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="171" t="s">
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="166"/>
-      <c r="G20" s="171"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8240,378 +9134,378 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="145"/>
-      <c r="B3" s="146" t="s">
+      <c r="A3" s="154"/>
+      <c r="B3" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="146"/>
+      <c r="D3" s="155"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="145"/>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="154"/>
+      <c r="B4" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="146"/>
+      <c r="D4" s="155"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="145"/>
-      <c r="B5" s="146" t="s">
+      <c r="A5" s="154"/>
+      <c r="B5" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="146"/>
+      <c r="D5" s="155"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="145"/>
-      <c r="B6" s="146" t="s">
+      <c r="A6" s="154"/>
+      <c r="B6" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="146"/>
+      <c r="D6" s="155"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="145"/>
-      <c r="B7" s="145" t="s">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="146"/>
+      <c r="D7" s="155"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="145"/>
-      <c r="B8" s="145" t="s">
+      <c r="A8" s="154"/>
+      <c r="B8" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="146"/>
+      <c r="D8" s="155"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="145"/>
-      <c r="B9" s="145" t="s">
+      <c r="A9" s="154"/>
+      <c r="B9" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="156" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="145"/>
-      <c r="B10" s="146" t="s">
+      <c r="A10" s="154"/>
+      <c r="B10" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="146"/>
+      <c r="D10" s="155"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="145"/>
-      <c r="B11" s="146" t="s">
+      <c r="A11" s="154"/>
+      <c r="B11" s="155" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="146"/>
+      <c r="D11" s="155"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="158" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="150"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="149" t="s">
+      <c r="A13" s="159"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="158" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="149" t="s">
+      <c r="A14" s="159"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="158" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="150"/>
-      <c r="B15" s="148" t="s">
+      <c r="A15" s="159"/>
+      <c r="B15" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="161"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="150"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="149" t="s">
+      <c r="A16" s="159"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="161" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="150"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="149" t="s">
+      <c r="A17" s="159"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="158" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="150"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="149" t="s">
+      <c r="A18" s="159"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="149" t="s">
+      <c r="D18" s="158" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="150"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="149" t="s">
+      <c r="A19" s="159"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="149" t="s">
+      <c r="D19" s="158" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="150"/>
-      <c r="B20" s="148" t="s">
+      <c r="A20" s="159"/>
+      <c r="B20" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="158" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="D20" s="158" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="151"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="149" t="s">
+      <c r="A21" s="160"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="158" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="163" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="164" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="155" t="s">
+      <c r="D22" s="164" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="156"/>
-      <c r="B23" s="154" t="s">
+      <c r="A23" s="165"/>
+      <c r="B23" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="155" t="s">
+      <c r="D23" s="164" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="156"/>
-      <c r="B24" s="154" t="s">
+      <c r="A24" s="165"/>
+      <c r="B24" s="163" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="155" t="s">
+      <c r="C24" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="155" t="s">
+      <c r="D24" s="164" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="156"/>
-      <c r="B25" s="154" t="s">
+      <c r="A25" s="165"/>
+      <c r="B25" s="163" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="155" t="s">
+      <c r="C25" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="155"/>
+      <c r="D25" s="164"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="156"/>
-      <c r="B26" s="154" t="s">
+      <c r="A26" s="165"/>
+      <c r="B26" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="164" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="155" t="s">
+      <c r="D26" s="164" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="156"/>
-      <c r="B27" s="154" t="s">
+      <c r="A27" s="165"/>
+      <c r="B27" s="163" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="157" t="s">
+      <c r="C27" s="166" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="155" t="s">
+      <c r="D27" s="164" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="156"/>
-      <c r="B28" s="154" t="s">
+      <c r="A28" s="165"/>
+      <c r="B28" s="163" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="155" t="s">
+      <c r="D28" s="164" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="156"/>
-      <c r="B29" s="154" t="s">
+      <c r="A29" s="165"/>
+      <c r="B29" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="155" t="s">
+      <c r="D29" s="164" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="158"/>
-      <c r="B30" s="154" t="s">
+      <c r="A30" s="167"/>
+      <c r="B30" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="157" t="s">
+      <c r="C30" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="155" t="s">
+      <c r="D30" s="164" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="82" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="169" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="24"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="161"/>
-      <c r="B35" s="75" t="s">
+      <c r="A35" s="170"/>
+      <c r="B35" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="162"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="171"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="168" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="159" t="s">
+      <c r="C36" s="79"/>
+      <c r="D36" s="168" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="162"/>
+      <c r="E36" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8650,581 +9544,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="125" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="119"/>
+      <c r="E1" s="126"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="120"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="120"/>
+      <c r="E3" s="127"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117" t="s">
+      <c r="A4" s="123"/>
+      <c r="B4" s="124" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="120"/>
+      <c r="E4" s="127"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="122" t="s">
+      <c r="A5" s="123"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="120"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="122" t="s">
+      <c r="A6" s="123"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="125" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="120"/>
+      <c r="E6" s="127"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="122" t="s">
+      <c r="A7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="125" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="123" t="s">
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="125" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="125" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117" t="s">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="125" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="118"/>
+      <c r="E9" s="125"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="123" t="s">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="118"/>
+      <c r="E10" s="125"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="116"/>
-      <c r="B11" s="117" t="s">
+      <c r="A11" s="123"/>
+      <c r="B11" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="118"/>
+      <c r="E11" s="125"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="116"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="123" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="118"/>
+      <c r="E12" s="125"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="123" t="s">
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="125"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="116"/>
-      <c r="B14" s="117" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="124" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="125"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="116"/>
-      <c r="B15" s="124" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="131" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="118" t="s">
+      <c r="D15" s="125" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="118" t="s">
+      <c r="E15" s="125" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="116"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="123" t="s">
+      <c r="A16" s="123"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="118" t="s">
+      <c r="E16" s="125" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117" t="s">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="118" t="s">
+      <c r="E17" s="125" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="118" t="s">
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="125" t="s">
         <v>247</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="125" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="133" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="134" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="127" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="127"/>
+      <c r="E19" s="135"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="126"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="118" t="s">
+      <c r="A20" s="133"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="125" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="120" t="s">
+      <c r="D20" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="137" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="126"/>
-      <c r="B21" s="128" t="s">
+      <c r="A21" s="133"/>
+      <c r="B21" s="138" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="137" t="s">
         <v>257</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="129"/>
+      <c r="E21" s="139"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="126"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="118" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="125" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="132"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="142" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E23" s="116"/>
+      <c r="E23" s="123"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="133"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="118" t="s">
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="116"/>
+      <c r="E24" s="123"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="133"/>
-      <c r="B25" s="135" t="s">
+      <c r="A25" s="143"/>
+      <c r="B25" s="145" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="125" t="s">
         <v>267</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="E25" s="116"/>
+      <c r="E25" s="123"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="133"/>
-      <c r="B26" s="135" t="s">
+      <c r="A26" s="143"/>
+      <c r="B26" s="145" t="s">
         <v>269</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="E26" s="117" t="s">
+      <c r="E26" s="124" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="133"/>
-      <c r="B27" s="132" t="s">
+      <c r="A27" s="143"/>
+      <c r="B27" s="142" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="125" t="s">
         <v>274</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E27" s="116"/>
+      <c r="E27" s="123"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="133"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="118" t="s">
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="125" t="s">
         <v>276</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E28" s="116"/>
+      <c r="E28" s="123"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="133"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="143"/>
+      <c r="B29" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="116"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="123"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="133"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="143"/>
+      <c r="B30" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="E30" s="116"/>
+      <c r="E30" s="123"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="133"/>
-      <c r="B31" s="117" t="s">
+      <c r="A31" s="143"/>
+      <c r="B31" s="124" t="s">
         <v>283</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="116"/>
+      <c r="E31" s="123"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="133"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117" t="s">
+      <c r="A32" s="143"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="116"/>
+      <c r="E32" s="123"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="133"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="11" t="s">
+      <c r="A33" s="143"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="E33" s="116"/>
+      <c r="E33" s="123"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="133"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="11" t="s">
+      <c r="A34" s="143"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="E34" s="116"/>
+      <c r="E34" s="123"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="133"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="11" t="s">
+      <c r="A35" s="143"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="116"/>
+      <c r="E35" s="123"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="133"/>
-      <c r="B36" s="136" t="s">
+      <c r="A36" s="143"/>
+      <c r="B36" s="146" t="s">
         <v>291</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D36" s="137" t="s">
+      <c r="D36" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="E36" s="117"/>
+      <c r="E36" s="124"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="133"/>
-      <c r="B37" s="117" t="s">
+      <c r="A37" s="143"/>
+      <c r="B37" s="124" t="s">
         <v>294</v>
       </c>
-      <c r="C37" s="120" t="s">
+      <c r="C37" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="E37" s="116"/>
+      <c r="E37" s="123"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="133"/>
-      <c r="B38" s="48" t="s">
+      <c r="A38" s="143"/>
+      <c r="B38" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="E38" s="116"/>
+      <c r="E38" s="123"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="133"/>
-      <c r="B39" s="117" t="s">
+      <c r="A39" s="143"/>
+      <c r="B39" s="124" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="127" t="s">
         <v>301</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="116"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="123"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="133"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="143"/>
+      <c r="B40" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="118" t="s">
+      <c r="C40" s="125" t="s">
         <v>303</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="E40" s="116"/>
+      <c r="E40" s="123"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="133"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="143"/>
+      <c r="B41" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C41" s="118" t="s">
+      <c r="C41" s="125" t="s">
         <v>306</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="116"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="123"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="133"/>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="143"/>
+      <c r="B42" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C42" s="138" t="s">
+      <c r="C42" s="147" t="s">
         <v>308</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="116"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="123"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="131" t="s">
+      <c r="A43" s="141" t="s">
         <v>309</v>
       </c>
-      <c r="B43" s="139" t="s">
+      <c r="B43" s="148" t="s">
         <v>310</v>
       </c>
-      <c r="C43" s="140"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="116"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="123"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="133"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="143"/>
+      <c r="B44" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="141" t="s">
+      <c r="C44" s="150" t="s">
         <v>312</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="138" t="s">
+      <c r="E44" s="147" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="133"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11" t="s">
+      <c r="A45" s="143"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="E45" s="122" t="s">
+      <c r="E45" s="129" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="133"/>
-      <c r="B46" s="117" t="s">
+      <c r="A46" s="143"/>
+      <c r="B46" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="C46" s="141" t="s">
+      <c r="C46" s="150" t="s">
         <v>318</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="E46" s="138" t="s">
+      <c r="E46" s="147" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="142"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="137" t="s">
+      <c r="A47" s="151"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="E47" s="138" t="s">
+      <c r="E47" s="147" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9277,404 +10171,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="97" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="98" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="99" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="91"/>
+      <c r="D1" s="98"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="95"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="95"/>
+      <c r="D3" s="102"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="102"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="99" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="95"/>
+      <c r="D5" s="102"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="97"/>
-      <c r="B6" s="94" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="101" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="99" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="98"/>
+      <c r="D6" s="105"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="106" t="s">
         <v>336</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="107" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="99" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="108" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="99"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="92" t="s">
+      <c r="A8" s="106"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="99" t="s">
         <v>340</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="98" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="99"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="92" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="99" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="101" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="99"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="92" t="s">
+      <c r="A10" s="106"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="101" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="99"/>
-      <c r="B11" s="91" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="99" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="98" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="99"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="91" t="s">
+      <c r="A12" s="106"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="98" t="s">
         <v>349</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="111" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="99"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="105" t="s">
+      <c r="A13" s="106"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="112" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="99"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="105" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="112" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="99"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="104" t="s">
+      <c r="A15" s="106"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="111" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="99"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95" t="s">
+      <c r="A16" s="106"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102" t="s">
         <v>286</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="98" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="99"/>
-      <c r="B17" s="100" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="113" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="99"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="94" t="s">
+      <c r="A18" s="106"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="D18" s="107"/>
+      <c r="D18" s="114"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="99"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="94" t="s">
+      <c r="A19" s="106"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="D19" s="107"/>
+      <c r="D19" s="114"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="99"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="94" t="s">
+      <c r="A20" s="106"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="101" t="s">
         <v>357</v>
       </c>
-      <c r="D20" s="108"/>
+      <c r="D20" s="115"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="109"/>
-      <c r="B21" s="91" t="s">
+      <c r="A21" s="116"/>
+      <c r="B21" s="98" t="s">
         <v>358</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="98" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="106" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="117" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="99" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="91"/>
+      <c r="D22" s="98"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="99"/>
-      <c r="B23" s="111" t="s">
+      <c r="A23" s="106"/>
+      <c r="B23" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="92"/>
+      <c r="D23" s="99"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="99"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="92" t="s">
+      <c r="A24" s="106"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="99" t="s">
         <v>366</v>
       </c>
-      <c r="D24" s="92"/>
+      <c r="D24" s="99"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="99"/>
-      <c r="B25" s="91" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="119" t="s">
         <v>368</v>
       </c>
-      <c r="D25" s="113"/>
+      <c r="D25" s="120"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="99"/>
-      <c r="B26" s="91" t="s">
+      <c r="A26" s="106"/>
+      <c r="B26" s="98" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92" t="s">
+      <c r="C26" s="99"/>
+      <c r="D26" s="99" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100" t="s">
+      <c r="A27" s="106"/>
+      <c r="B27" s="107" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="99" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="99"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="96" t="s">
+      <c r="A28" s="106"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="103" t="s">
         <v>374</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="99" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="99"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="96" t="s">
+      <c r="A29" s="106"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="99" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="109"/>
-      <c r="B30" s="91" t="s">
+      <c r="A30" s="116"/>
+      <c r="B30" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="99" t="s">
         <v>379</v>
       </c>
-      <c r="D30" s="92"/>
+      <c r="D30" s="99"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="106" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="118" t="s">
         <v>381</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="99" t="s">
         <v>382</v>
       </c>
-      <c r="D31" s="92"/>
+      <c r="D31" s="99"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="99"/>
-      <c r="B32" s="111" t="s">
+      <c r="A32" s="106"/>
+      <c r="B32" s="118" t="s">
         <v>383</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="99" t="s">
         <v>384</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="99" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="92" t="s">
+      <c r="A33" s="106"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="99" t="s">
         <v>386</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="99" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="92" t="s">
+      <c r="A34" s="106"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="99" t="s">
         <v>388</v>
       </c>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="99" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="99"/>
-      <c r="B35" s="111" t="s">
+      <c r="A35" s="106"/>
+      <c r="B35" s="118" t="s">
         <v>390</v>
       </c>
-      <c r="C35" s="92" t="s">
+      <c r="C35" s="99" t="s">
         <v>391</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="99" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="99"/>
-      <c r="B36" s="111" t="s">
+      <c r="A36" s="106"/>
+      <c r="B36" s="118" t="s">
         <v>393</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="99" t="s">
         <v>394</v>
       </c>
-      <c r="D36" s="92" t="s">
+      <c r="D36" s="99" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="99"/>
-      <c r="B37" s="111" t="s">
+      <c r="A37" s="106"/>
+      <c r="B37" s="118" t="s">
         <v>396</v>
       </c>
-      <c r="C37" s="114" t="s">
+      <c r="C37" s="121" t="s">
         <v>397</v>
       </c>
-      <c r="D37" s="115"/>
+      <c r="D37" s="122"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="99"/>
-      <c r="B38" s="111" t="s">
+      <c r="A38" s="106"/>
+      <c r="B38" s="118" t="s">
         <v>398</v>
       </c>
-      <c r="C38" s="114" t="s">
+      <c r="C38" s="121" t="s">
         <v>399</v>
       </c>
-      <c r="D38" s="115" t="s">
+      <c r="D38" s="122" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="109"/>
-      <c r="B39" s="109"/>
-      <c r="C39" s="96" t="s">
+      <c r="A39" s="116"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="103" t="s">
         <v>401</v>
       </c>
-      <c r="D39" s="96" t="s">
+      <c r="D39" s="103" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9721,107 +10615,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="94" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="94" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="95" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="95" t="s">
         <v>412</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="93" t="s">
         <v>413</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="96" t="s">
         <v>414</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="88" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="95" t="s">
         <v>416</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="87"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="94"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="95" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="95" t="s">
         <v>418</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="93" t="s">
         <v>419</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="95" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="86"/>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="93"/>
+      <c r="B8" s="56" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/002.Artificial_Intelligence/第四阶段/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="13"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="自我介绍" sheetId="14" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="cv2" sheetId="12" r:id="rId12"/>
     <sheet name="深1" sheetId="13" r:id="rId13"/>
     <sheet name="推荐算法" sheetId="16" r:id="rId14"/>
+    <sheet name="TF" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="787">
   <si>
     <t>首先我学习了机器学习，针对不同问题使用不同的方法解决，回归问题，的掌握了线性模型及其变种、决策树、集成学习、支持向量机，
 分类问题：逻辑回归、决策树回归、支持向量机、朴素贝页斯。
@@ -4217,6 +4218,27 @@
   <si>
     <t>"流行度" 推荐算法</t>
   </si>
+  <si>
+    <t>搭建模型</t>
+  </si>
+  <si>
+    <t>机制</t>
+  </si>
+  <si>
+    <t>定义和运行相分离的机制</t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>图</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
 </sst>
 </file>
 
@@ -4230,6 +4252,14 @@
   </numFmts>
   <fonts count="30">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4280,14 +4310,6 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5161,10 +5183,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5201,9 +5226,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5240,7 +5262,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5249,13 +5271,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5267,26 +5283,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5312,9 +5319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5333,7 +5337,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5345,7 +5349,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5390,7 +5394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5432,7 +5436,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5486,7 +5490,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5540,13 +5544,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5576,28 +5580,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5612,7 +5616,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5624,7 +5628,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5696,7 +5700,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5723,13 +5727,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6113,7 +6117,7 @@
   </cols>
   <sheetData>
     <row r="12" ht="136" customHeight="1" spans="5:5">
-      <c r="E12" s="171" t="s">
+      <c r="E12" s="165" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6144,134 +6148,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="82"/>
-      <c r="F7" s="83" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="76" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="76" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="82"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="82" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="76" t="s">
         <v>425</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="76" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="77" t="s">
         <v>428</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="76" t="s">
         <v>429</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="76" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="78"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85" t="s">
+      <c r="E10" s="72"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79" t="s">
         <v>431</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="80" t="s">
         <v>432</v>
       </c>
-      <c r="I10" s="88" t="s">
+      <c r="I10" s="82" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="87"/>
-      <c r="F11" s="88" t="s">
+      <c r="E11" s="81"/>
+      <c r="F11" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="79" t="s">
         <v>431</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="80" t="s">
         <v>435</v>
       </c>
-      <c r="I11" s="91"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="87"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="83" t="s">
+      <c r="E12" s="81"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="80" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="87"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="90" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="84" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="87"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="82" t="s">
+      <c r="E14" s="81"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="76" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="87"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="86" t="s">
+      <c r="E15" s="81"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="80" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="87"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="82" t="s">
+      <c r="E16" s="81"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="76" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="87"/>
-      <c r="F17" s="78" t="s">
+      <c r="E17" s="81"/>
+      <c r="F17" s="72" t="s">
         <v>442</v>
       </c>
-      <c r="G17" s="78" t="s">
+      <c r="G17" s="72" t="s">
         <v>443</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="H17" s="76" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="87"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="82" t="s">
+      <c r="E18" s="81"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="76" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="87"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="82" t="s">
+      <c r="E19" s="81"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="76" t="s">
         <v>446</v>
       </c>
     </row>
@@ -6308,60 +6312,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="72" t="s">
         <v>447</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="73" t="s">
         <v>448</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="73" t="s">
         <v>449</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="74" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="78"/>
-      <c r="E10" s="79" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="73" t="s">
         <v>452</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="73" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="81" t="s">
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="75" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="78"/>
-      <c r="E12" s="81" t="s">
+      <c r="D12" s="72"/>
+      <c r="E12" s="75" t="s">
         <v>455</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="72" t="s">
         <v>456</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="76" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="78"/>
-      <c r="E13" s="79" t="s">
+      <c r="D13" s="72"/>
+      <c r="E13" s="73" t="s">
         <v>458</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="72" t="s">
         <v>459</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="76" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6398,745 +6402,745 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="32"/>
+      <c r="A3" s="30"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="32"/>
+      <c r="A4" s="30"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="30"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="27" spans="2:7">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="30" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="45" t="s">
         <v>478</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="3" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="3" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="30" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="30" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="30" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="30" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>493</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="32"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="32"/>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="30" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="32"/>
-      <c r="C25" s="52" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="32"/>
-      <c r="C26" s="52" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="31" t="s">
         <v>505</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="49" t="s">
         <v>510</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="54" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="48" t="s">
         <v>512</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31" t="s">
         <v>514</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="48" t="s">
         <v>515</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="56" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="49" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
         <v>520</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="44" t="s">
         <v>522</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="54" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="48" t="s">
         <v>524</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31" t="s">
         <v>526</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="48" t="s">
         <v>527</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="51" t="s">
         <v>528</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="54" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="51" t="s">
         <v>531</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="13"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="54" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="52" t="s">
         <v>533</v>
       </c>
-      <c r="F37" s="32"/>
-      <c r="G37" s="13"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="53" t="s">
         <v>536</v>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="13"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="53" t="s">
         <v>538</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="54" t="s">
         <v>539</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="4" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="59" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="53" t="s">
         <v>542</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="55" t="s">
         <v>543</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="30" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="4" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31" t="s">
         <v>545</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="49" t="s">
         <v>546</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="55" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="49" t="s">
         <v>549</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="33"/>
-      <c r="C43" s="30" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="49" t="s">
         <v>552</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="G43" s="13"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="56" t="s">
         <v>555</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="56" t="s">
         <v>556</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="49" t="s">
         <v>557</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="49" t="s">
         <v>558</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="F44" s="57" t="s">
         <v>559</v>
       </c>
-      <c r="G44" s="13"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="62"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="55" t="s">
+      <c r="B45" s="56"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="49" t="s">
         <v>560</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="52" t="s">
         <v>561</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="49" t="s">
         <v>562</v>
       </c>
-      <c r="G45" s="13"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="62"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="55" t="s">
+      <c r="B46" s="56"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="49" t="s">
         <v>563</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="13"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="65"/>
-      <c r="C47" s="62" t="s">
+      <c r="B47" s="59"/>
+      <c r="C47" s="56" t="s">
         <v>564</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="13"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="60" t="s">
         <v>565</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="57" t="s">
         <v>566</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="13"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="66"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63" t="s">
+      <c r="B49" s="60"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57" t="s">
         <v>567</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="13"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="66"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63" t="s">
+      <c r="B50" s="60"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57" t="s">
         <v>568</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="F50" s="63"/>
-      <c r="G50" s="13"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="66"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="F52" s="62" t="s">
         <v>574</v>
       </c>
-      <c r="G52" s="69" t="s">
+      <c r="G52" s="63" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
-      <c r="B53" s="40"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="13" t="s">
+      <c r="B53" s="36"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="72"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
-      <c r="B54" s="40"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="38" t="s">
+      <c r="B54" s="36"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="35" t="s">
         <v>577</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="F54" s="73"/>
-      <c r="G54" s="74"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
-      <c r="B55" s="40"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="13" t="s">
+      <c r="B55" s="36"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="40"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="13" t="s">
+      <c r="B56" s="36"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="42"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="30" t="s">
+      <c r="B57" s="37"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="G57" s="13"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="76" t="s">
+      <c r="C62" s="70" t="s">
         <v>583</v>
       </c>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7200,54 +7204,54 @@
   </cols>
   <sheetData>
     <row r="18" ht="27" spans="3:8">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" ht="54" spans="3:8">
-      <c r="C19" s="9"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>589</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>591</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" ht="72" customHeight="1" spans="3:8">
-      <c r="C21" s="9"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" ht="32" customHeight="1" spans="3:8">
       <c r="C22" s="14" t="s">
@@ -7263,7 +7267,7 @@
       <c r="G22" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" ht="51" customHeight="1" spans="3:8">
       <c r="C23" s="14"/>
@@ -7273,7 +7277,7 @@
       <c r="G23" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" ht="265" customHeight="1" spans="3:8">
       <c r="C24" s="14"/>
@@ -7289,7 +7293,7 @@
       <c r="G24" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" ht="72" customHeight="1" spans="3:8">
       <c r="C25" s="14"/>
@@ -7301,49 +7305,49 @@
       <c r="G25" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" ht="38" customHeight="1" spans="3:8">
       <c r="C26" s="14"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" ht="409" customHeight="1" spans="3:8">
       <c r="C27" s="14"/>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" ht="58" customHeight="1" spans="3:8">
       <c r="C28" s="14"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="21" t="s">
@@ -7355,9 +7359,9 @@
       <c r="E29" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="13"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="3:8">
       <c r="C30" s="21"/>
@@ -7367,11 +7371,11 @@
       <c r="E30" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" ht="85" customHeight="1" spans="3:8">
       <c r="C31" s="21"/>
@@ -7384,10 +7388,10 @@
       <c r="F31" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" ht="37" customHeight="1" spans="3:8">
       <c r="C32" s="21"/>
@@ -7397,9 +7401,9 @@
       <c r="E32" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="13"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" ht="52" customHeight="1" spans="3:8">
       <c r="C33" s="21"/>
@@ -7407,9 +7411,9 @@
       <c r="E33" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="13"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" ht="83" customHeight="1" spans="3:8">
       <c r="C34" s="21"/>
@@ -7419,9 +7423,9 @@
       <c r="E34" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="13"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" ht="44" customHeight="1" spans="3:8">
       <c r="C35" s="21"/>
@@ -7431,13 +7435,13 @@
       <c r="E35" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" ht="27" spans="3:8">
       <c r="C36" s="21"/>
@@ -7450,8 +7454,8 @@
       <c r="F36" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="13"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" ht="53" customHeight="1" spans="3:8">
       <c r="C37" s="21"/>
@@ -7459,11 +7463,11 @@
       <c r="E37" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="13"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" ht="40.5" spans="3:8">
       <c r="C38" s="21"/>
@@ -7472,10 +7476,10 @@
       <c r="F38" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" ht="40.5" spans="3:8">
       <c r="C39" s="21"/>
@@ -7484,10 +7488,10 @@
       <c r="F39" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" ht="40.5" spans="3:8">
       <c r="C40" s="21"/>
@@ -7499,7 +7503,7 @@
       <c r="G40" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" ht="81" spans="3:8">
       <c r="C41" s="21"/>
@@ -7511,7 +7515,7 @@
       <c r="G41" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" ht="34" customHeight="1" spans="3:8">
       <c r="C42" s="21"/>
@@ -7521,327 +7525,327 @@
       <c r="E42" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" ht="53" customHeight="1" spans="3:8">
-      <c r="C44" s="29"/>
-      <c r="D44" s="13" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" ht="27" spans="3:8">
-      <c r="C45" s="29"/>
-      <c r="D45" s="13" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" ht="54" spans="3:8">
-      <c r="C46" s="29"/>
-      <c r="D46" s="13" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" ht="99" customHeight="1" spans="3:8">
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G47" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" ht="48" customHeight="1" spans="3:8">
-      <c r="C48" s="29"/>
-      <c r="D48" s="13" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" ht="34" customHeight="1" spans="3:8">
-      <c r="C49" s="29"/>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" ht="34" customHeight="1" spans="3:8">
-      <c r="C50" s="29"/>
-      <c r="D50" s="30" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" ht="107" customHeight="1" spans="3:8">
-      <c r="C51" s="29"/>
-      <c r="D51" s="32" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="30" t="s">
         <v>665</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" spans="3:8">
-      <c r="C52" s="29"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="13" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" ht="40.5" spans="3:8">
-      <c r="C53" s="29"/>
-      <c r="D53" s="13" t="s">
+      <c r="C53" s="2"/>
+      <c r="D53" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="3:8">
-      <c r="C54" s="29"/>
-      <c r="D54" s="32" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="31" t="s">
         <v>676</v>
       </c>
-      <c r="H54" s="13"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" ht="20" customHeight="1" spans="3:8">
-      <c r="C55" s="29"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="13" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="13"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" ht="27" spans="3:8">
-      <c r="C56" s="29"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="30" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="13"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" ht="77" customHeight="1" spans="3:8">
-      <c r="C57" s="29"/>
-      <c r="D57" s="34" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" s="32" t="s">
         <v>680</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" ht="77" customHeight="1" spans="3:8">
-      <c r="C58" s="29"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="30" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" ht="148.5" spans="3:8">
-      <c r="C59" s="29"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="30" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="G59" s="30" t="s">
+      <c r="G59" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="H59" s="13"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" ht="243" spans="3:8">
-      <c r="C60" s="29"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="30" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="G60" s="30" t="s">
+      <c r="G60" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="H60" s="13"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" ht="71" customHeight="1" spans="3:8">
-      <c r="C61" s="29"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="13" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="G61" s="30"/>
-      <c r="H61" s="13"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" ht="114" customHeight="1" spans="3:8">
-      <c r="C62" s="29"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="35" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="G62" s="30" t="s">
+      <c r="G62" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="H62" s="13"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" ht="106" customHeight="1" spans="3:8">
-      <c r="C63" s="29"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="36" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="34" t="s">
         <v>696</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="G63" s="30" t="s">
+      <c r="G63" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="H63" s="13"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" ht="77" customHeight="1" spans="3:8">
-      <c r="C64" s="29"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="32" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="30" t="s">
         <v>699</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="H64" s="33" t="s">
+      <c r="H64" s="31" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="65" ht="100" customHeight="1" spans="3:8">
-      <c r="C65" s="29"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="30" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="H65" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="66" ht="54" customHeight="1" spans="3:8">
-      <c r="C66" s="29"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="13" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="G66" s="30" t="s">
+      <c r="G66" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" ht="74" customHeight="1" spans="5:5">
       <c r="E67" t="s">
@@ -7849,235 +7853,235 @@
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="3:6">
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="F74" s="38" t="s">
+      <c r="F74" s="35" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="75" spans="3:6">
-      <c r="C75" s="29"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="13" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="F75" s="40"/>
+      <c r="F75" s="36"/>
     </row>
     <row r="76" spans="3:6">
-      <c r="C76" s="29"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="13" t="s">
+      <c r="C76" s="2"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="F76" s="42"/>
+      <c r="F76" s="37"/>
     </row>
     <row r="77" ht="27" spans="3:7">
-      <c r="C77" s="29"/>
-      <c r="D77" s="38" t="s">
+      <c r="C77" s="2"/>
+      <c r="D77" s="35" t="s">
         <v>712</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="F77" s="43" t="s">
+      <c r="F77" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="G77" s="44" t="s">
+      <c r="G77" s="39" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="78" spans="3:7">
-      <c r="C78" s="29"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="13" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="F78" s="43" t="s">
+      <c r="F78" s="38" t="s">
         <v>717</v>
       </c>
-      <c r="G78" s="45"/>
+      <c r="G78" s="40"/>
     </row>
     <row r="79" spans="3:7">
-      <c r="C79" s="29"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="13" t="s">
+      <c r="C79" s="2"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="F79" s="43"/>
-      <c r="G79" s="46"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="41"/>
     </row>
     <row r="80" spans="3:6">
-      <c r="C80" s="29"/>
-      <c r="D80" s="32" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="30" t="s">
         <v>719</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="3" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="81" spans="3:6">
-      <c r="C81" s="29"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="13" t="s">
+      <c r="C81" s="2"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="3" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="82" spans="3:6">
-      <c r="C82" s="29"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="83" ht="27" spans="3:6">
-      <c r="C83" s="29"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="13" t="s">
+      <c r="C83" s="2"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="4" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="84" customFormat="1" ht="62" customHeight="1" spans="3:6">
-      <c r="C84" s="29"/>
-      <c r="D84" s="32" t="s">
+      <c r="C84" s="2"/>
+      <c r="D84" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="F84" s="30" t="s">
+      <c r="F84" s="4" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="108" spans="3:6">
-      <c r="C85" s="29"/>
-      <c r="D85" s="13" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="E85" s="47" t="s">
+      <c r="E85" s="42" t="s">
         <v>731</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="4" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="86" spans="3:6">
-      <c r="C86" s="29"/>
-      <c r="D86" s="48" t="s">
+      <c r="C86" s="2"/>
+      <c r="D86" s="43" t="s">
         <v>733</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="F86" s="13"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="3:6">
-      <c r="C87" s="29"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="49" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="44" t="s">
         <v>735</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="3" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="88" ht="74" customHeight="1" spans="3:6">
-      <c r="C88" s="29"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="49" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="44" t="s">
         <v>737</v>
       </c>
-      <c r="F88" s="30" t="s">
+      <c r="F88" s="4" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="89" ht="26" customHeight="1" spans="3:6">
-      <c r="C89" s="29"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="13" t="s">
+      <c r="C89" s="2"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="3" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="90" spans="3:6">
-      <c r="C90" s="29"/>
-      <c r="D90" s="38" t="s">
+      <c r="C90" s="2"/>
+      <c r="D90" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="3" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="91" spans="3:6">
-      <c r="C91" s="29"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="13" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F91" s="3" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="92" spans="3:6">
-      <c r="C92" s="29"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="50" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="3" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="93" spans="3:6">
-      <c r="C93" s="29"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="13" t="s">
+      <c r="C93" s="2"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="3" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="94" spans="3:6">
-      <c r="C94" s="29"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="13" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="3" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="95" ht="27" spans="3:6">
-      <c r="C95" s="29"/>
-      <c r="D95" s="13" t="s">
+      <c r="C95" s="2"/>
+      <c r="D95" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="E95" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="F95" s="13"/>
+      <c r="F95" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -8120,7 +8124,7 @@
   <sheetPr/>
   <dimension ref="B8:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -8135,186 +8139,186 @@
   </cols>
   <sheetData>
     <row r="8" ht="40.5" spans="2:7">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="40.5" spans="2:7">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" ht="27" spans="2:7">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" ht="74" customHeight="1" spans="2:7">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="7" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8326,6 +8330,53 @@
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="G14:G19"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D15:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="24.5663716814159" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="4:4">
+      <c r="D15" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10">
+      <c r="F17" t="s">
+        <v>781</v>
+      </c>
+      <c r="G17" t="s">
+        <v>782</v>
+      </c>
+      <c r="H17" t="s">
+        <v>783</v>
+      </c>
+      <c r="I17" t="s">
+        <v>784</v>
+      </c>
+      <c r="J17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" t="s">
+        <v>786</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8349,105 +8400,105 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="76" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="87"/>
-      <c r="C7" s="168" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="162" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="87"/>
-      <c r="C8" s="168" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="168"/>
-      <c r="E8" s="82" t="s">
+      <c r="D8" s="162"/>
+      <c r="E8" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="87"/>
-      <c r="C9" s="168" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="76" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="87"/>
-      <c r="C10" s="168" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="168"/>
-      <c r="E10" s="79" t="s">
+      <c r="D10" s="162"/>
+      <c r="E10" s="73" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="87"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="182" t="s">
+      <c r="D11" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="87"/>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="182" t="s">
+      <c r="E12" s="176" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="121" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="I13" s="196"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8480,252 +8531,252 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="186" t="s">
+      <c r="D13" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="187" t="s">
+      <c r="F13" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="188" t="s">
+      <c r="G13" s="182" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="189" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="191" t="s">
+      <c r="F15" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="192"/>
+      <c r="G15" s="186"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="29"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29"/>
-      <c r="B19" s="193" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
-      <c r="E19" s="13" t="s">
+      <c r="C19" s="188"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="29"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="13" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="29"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="13" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="29"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="13" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="29"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="29"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="29"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="29"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="29"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="29"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8765,78 +8816,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="156" t="s">
+      <c r="E5" s="150" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="181"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="182" t="s">
+      <c r="E6" s="176" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="184" t="s">
+      <c r="C7" s="178" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="185" t="s">
+      <c r="D7" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="185" t="s">
+      <c r="E7" s="179" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="183"/>
-      <c r="C8" s="184" t="s">
+      <c r="B8" s="177"/>
+      <c r="C8" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="185" t="s">
+      <c r="E8" s="179" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="183"/>
-      <c r="C9" s="184" t="s">
+      <c r="B9" s="177"/>
+      <c r="C9" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="184" t="s">
+      <c r="D9" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="185" t="s">
+      <c r="E9" s="179" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="183"/>
-      <c r="C10" s="184" t="s">
+      <c r="B10" s="177"/>
+      <c r="C10" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="185" t="s">
+      <c r="E10" s="179" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8869,228 +8920,228 @@
   </cols>
   <sheetData>
     <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="173" t="s">
+      <c r="D3" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="173" t="s">
+      <c r="G3" s="167" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="174" t="s">
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="173" t="s">
+      <c r="F4" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="174" t="s">
+      <c r="G4" s="168" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="173" t="s">
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="175"/>
-      <c r="F5" s="173" t="s">
+      <c r="E5" s="169"/>
+      <c r="F5" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="173" t="s">
+      <c r="G5" s="167" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="175" t="s">
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="175"/>
-      <c r="F6" s="176" t="s">
+      <c r="E6" s="169"/>
+      <c r="F6" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="174" t="s">
+      <c r="G6" s="168" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="173" t="s">
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="167" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="178" t="s">
+      <c r="F7" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="173" t="s">
+      <c r="G7" s="167" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="174" t="s">
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="173"/>
+      <c r="G8" s="167"/>
     </row>
     <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="179" t="s">
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="174" t="s">
+      <c r="E9" s="168" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="176" t="s">
+      <c r="F9" s="170" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="174" t="s">
+      <c r="G9" s="168" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="172"/>
-      <c r="C10" s="172" t="s">
+      <c r="B10" s="166"/>
+      <c r="C10" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="172"/>
-      <c r="E10" s="180" t="s">
+      <c r="D10" s="166"/>
+      <c r="E10" s="174" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="180" t="s">
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="174" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="180" t="s">
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="180" t="s">
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="180" t="s">
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="180" t="s">
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="172"/>
-      <c r="C16" s="172" t="s">
+      <c r="B16" s="166"/>
+      <c r="C16" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="172" t="s">
+      <c r="D16" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="173" t="s">
+      <c r="F16" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="180"/>
+      <c r="G16" s="174"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="180" t="s">
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="175"/>
-      <c r="G17" s="180"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="174"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172" t="s">
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="180" t="s">
+      <c r="E18" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="175"/>
-      <c r="G18" s="180"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="174"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="180" t="s">
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="175"/>
-      <c r="G19" s="180"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="174"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="180" t="s">
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="175"/>
-      <c r="G20" s="180"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -9134,378 +9185,378 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="154"/>
-      <c r="B3" s="155" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="155"/>
+      <c r="D3" s="149"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="154"/>
-      <c r="B4" s="155" t="s">
+      <c r="A4" s="148"/>
+      <c r="B4" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="155"/>
+      <c r="D4" s="149"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="154"/>
-      <c r="B5" s="155" t="s">
+      <c r="A5" s="148"/>
+      <c r="B5" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="155"/>
+      <c r="D5" s="149"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="154"/>
-      <c r="B6" s="155" t="s">
+      <c r="A6" s="148"/>
+      <c r="B6" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="155"/>
+      <c r="D6" s="149"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154" t="s">
+      <c r="A7" s="148"/>
+      <c r="B7" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="155"/>
+      <c r="D7" s="149"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="154"/>
-      <c r="B8" s="154" t="s">
+      <c r="A8" s="148"/>
+      <c r="B8" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="149"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="154"/>
-      <c r="B9" s="154" t="s">
+      <c r="A9" s="148"/>
+      <c r="B9" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="150" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="154"/>
-      <c r="B10" s="155" t="s">
+      <c r="A10" s="148"/>
+      <c r="B10" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="149"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="154"/>
-      <c r="B11" s="155" t="s">
+      <c r="A11" s="148"/>
+      <c r="B11" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="149"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="152" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="159"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="158" t="s">
+      <c r="A13" s="153"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="158" t="s">
+      <c r="D13" s="152" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="159"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="158" t="s">
+      <c r="A14" s="153"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="152" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="152" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="159"/>
-      <c r="B15" s="157" t="s">
+      <c r="A15" s="153"/>
+      <c r="B15" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="161"/>
+      <c r="D15" s="155"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="159"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="158" t="s">
+      <c r="A16" s="153"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="155" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="159"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="158" t="s">
+      <c r="A17" s="153"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="152" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="158" t="s">
+      <c r="D17" s="152" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="159"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="158" t="s">
+      <c r="A18" s="153"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="152" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="152" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="159"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="158" t="s">
+      <c r="A19" s="153"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="152" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="152" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="159"/>
-      <c r="B20" s="157" t="s">
+      <c r="A20" s="153"/>
+      <c r="B20" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="158" t="s">
+      <c r="C20" s="152" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="152" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="160"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="158" t="s">
+      <c r="A21" s="154"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="152" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="152" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="162" t="s">
+      <c r="A22" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="157" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="164" t="s">
+      <c r="C22" s="158" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="164" t="s">
+      <c r="D22" s="158" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="165"/>
-      <c r="B23" s="163" t="s">
+      <c r="A23" s="159"/>
+      <c r="B23" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="164" t="s">
+      <c r="C23" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="164" t="s">
+      <c r="D23" s="158" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="165"/>
-      <c r="B24" s="163" t="s">
+      <c r="A24" s="159"/>
+      <c r="B24" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="164" t="s">
+      <c r="C24" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="164" t="s">
+      <c r="D24" s="158" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="165"/>
-      <c r="B25" s="163" t="s">
+      <c r="A25" s="159"/>
+      <c r="B25" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="158" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="164"/>
+      <c r="D25" s="158"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="165"/>
-      <c r="B26" s="163" t="s">
+      <c r="A26" s="159"/>
+      <c r="B26" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="164" t="s">
+      <c r="C26" s="158" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="164" t="s">
+      <c r="D26" s="158" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="165"/>
-      <c r="B27" s="163" t="s">
+      <c r="A27" s="159"/>
+      <c r="B27" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="166" t="s">
+      <c r="C27" s="160" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="164" t="s">
+      <c r="D27" s="158" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="165"/>
-      <c r="B28" s="163" t="s">
+      <c r="A28" s="159"/>
+      <c r="B28" s="157" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="164" t="s">
+      <c r="C28" s="158" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="164" t="s">
+      <c r="D28" s="158" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="165"/>
-      <c r="B29" s="163" t="s">
+      <c r="A29" s="159"/>
+      <c r="B29" s="157" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="158" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="164" t="s">
+      <c r="D29" s="158" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="167"/>
-      <c r="B30" s="163" t="s">
+      <c r="A30" s="161"/>
+      <c r="B30" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="166" t="s">
+      <c r="C30" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="164" t="s">
+      <c r="D30" s="158" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="168" t="s">
+      <c r="A32" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="76" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="13"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="170"/>
-      <c r="B35" s="82" t="s">
+      <c r="A35" s="164"/>
+      <c r="B35" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="171"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="162" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="168" t="s">
+      <c r="C36" s="73"/>
+      <c r="D36" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="171"/>
+      <c r="E36" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9544,363 +9595,363 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="119" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="126"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="123"/>
-      <c r="B2" s="124" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="127"/>
+      <c r="E2" s="121"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="127"/>
+      <c r="E3" s="121"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="123"/>
-      <c r="B4" s="124" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="118" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="127"/>
+      <c r="E4" s="121"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="123"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="129" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="127"/>
+      <c r="E5" s="121"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="129" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="127"/>
+      <c r="E6" s="121"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="123"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="129" t="s">
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="123" t="s">
         <v>215</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="119" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="123"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="130" t="s">
+      <c r="A8" s="117"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="119" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="119" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124" t="s">
+      <c r="A9" s="117"/>
+      <c r="B9" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="124" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="125"/>
+      <c r="E9" s="119"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="123"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="130" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="124" t="s">
         <v>224</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="125"/>
+      <c r="E10" s="119"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="123"/>
-      <c r="B11" s="124" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="118" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="125"/>
+      <c r="E11" s="119"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="123"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="130" t="s">
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="124" t="s">
         <v>229</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="125"/>
+      <c r="E12" s="119"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="123"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="130" t="s">
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="124" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="D13" s="119" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="125"/>
+      <c r="E13" s="119"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="123"/>
-      <c r="B14" s="124" t="s">
+      <c r="A14" s="117"/>
+      <c r="B14" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="E14" s="125"/>
+      <c r="E14" s="119"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="123"/>
-      <c r="B15" s="131" t="s">
+      <c r="A15" s="117"/>
+      <c r="B15" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="124" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="125" t="s">
+      <c r="E15" s="119" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="123"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="130" t="s">
+      <c r="A16" s="117"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="124" t="s">
         <v>240</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="119" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="123"/>
-      <c r="B17" s="124" t="s">
+      <c r="A17" s="117"/>
+      <c r="B17" s="118" t="s">
         <v>243</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="D17" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="125" t="s">
+      <c r="E17" s="119" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="123"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="119" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="127" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="128" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="135"/>
+      <c r="E19" s="129"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="133"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="125" t="s">
+      <c r="A20" s="127"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="137" t="s">
+      <c r="E20" s="131" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="133"/>
-      <c r="B21" s="138" t="s">
+      <c r="A21" s="127"/>
+      <c r="B21" s="132" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="131" t="s">
         <v>257</v>
       </c>
-      <c r="D21" s="125" t="s">
+      <c r="D21" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="139"/>
+      <c r="E21" s="133"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="133"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="125" t="s">
+      <c r="A22" s="127"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="132"/>
+      <c r="E22" s="126"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="119" t="s">
         <v>262</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E23" s="123"/>
+      <c r="E23" s="117"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="125" t="s">
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="119" t="s">
         <v>264</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="123"/>
+      <c r="E24" s="117"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="143"/>
-      <c r="B25" s="145" t="s">
+      <c r="A25" s="137"/>
+      <c r="B25" s="139" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="119" t="s">
         <v>267</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="E25" s="123"/>
+      <c r="E25" s="117"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="143"/>
-      <c r="B26" s="145" t="s">
+      <c r="A26" s="137"/>
+      <c r="B26" s="139" t="s">
         <v>269</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="119" t="s">
         <v>270</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="118" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="143"/>
-      <c r="B27" s="142" t="s">
+      <c r="A27" s="137"/>
+      <c r="B27" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="125" t="s">
+      <c r="C27" s="119" t="s">
         <v>274</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E27" s="123"/>
+      <c r="E27" s="117"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="125" t="s">
+      <c r="A28" s="137"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="119" t="s">
         <v>276</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E28" s="123"/>
+      <c r="E28" s="117"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="143"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="18" t="s">
         <v>278</v>
       </c>
@@ -9908,10 +9959,10 @@
         <v>279</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="123"/>
+      <c r="E29" s="117"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="143"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="18" t="s">
         <v>280</v>
       </c>
@@ -9921,62 +9972,62 @@
       <c r="D30" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="E30" s="123"/>
+      <c r="E30" s="117"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="143"/>
-      <c r="B31" s="124" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="121" t="s">
         <v>284</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="123"/>
+      <c r="E31" s="117"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="143"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="124" t="s">
+      <c r="A32" s="137"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118" t="s">
         <v>286</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="123"/>
+      <c r="E32" s="117"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="143"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="E33" s="123"/>
+      <c r="E33" s="117"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="143"/>
-      <c r="B34" s="124"/>
-      <c r="C34" s="124"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="E34" s="123"/>
+      <c r="E34" s="117"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="143"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="123"/>
+      <c r="E35" s="117"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="143"/>
-      <c r="B36" s="146" t="s">
+      <c r="A36" s="137"/>
+      <c r="B36" s="140" t="s">
         <v>291</v>
       </c>
       <c r="C36" s="18" t="s">
@@ -9985,140 +10036,140 @@
       <c r="D36" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="E36" s="124"/>
+      <c r="E36" s="118"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="143"/>
-      <c r="B37" s="124" t="s">
+      <c r="A37" s="137"/>
+      <c r="B37" s="118" t="s">
         <v>294</v>
       </c>
-      <c r="C37" s="127" t="s">
+      <c r="C37" s="121" t="s">
         <v>295</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="E37" s="123"/>
+      <c r="E37" s="117"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="143"/>
-      <c r="B38" s="56" t="s">
+      <c r="A38" s="137"/>
+      <c r="B38" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="48" t="s">
         <v>298</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="E38" s="123"/>
+      <c r="E38" s="117"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="143"/>
-      <c r="B39" s="124" t="s">
+      <c r="A39" s="137"/>
+      <c r="B39" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="127" t="s">
+      <c r="C39" s="121" t="s">
         <v>301</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="123"/>
+      <c r="E39" s="117"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="143"/>
+      <c r="A40" s="137"/>
       <c r="B40" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="125" t="s">
+      <c r="C40" s="119" t="s">
         <v>303</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="E40" s="123"/>
+      <c r="E40" s="117"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="143"/>
+      <c r="A41" s="137"/>
       <c r="B41" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C41" s="125" t="s">
+      <c r="C41" s="119" t="s">
         <v>306</v>
       </c>
       <c r="D41" s="18"/>
-      <c r="E41" s="123"/>
+      <c r="E41" s="117"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="143"/>
+      <c r="A42" s="137"/>
       <c r="B42" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C42" s="147" t="s">
+      <c r="C42" s="141" t="s">
         <v>308</v>
       </c>
       <c r="D42" s="18"/>
-      <c r="E42" s="123"/>
+      <c r="E42" s="117"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="141" t="s">
+      <c r="A43" s="135" t="s">
         <v>309</v>
       </c>
-      <c r="B43" s="148" t="s">
+      <c r="B43" s="142" t="s">
         <v>310</v>
       </c>
-      <c r="C43" s="149"/>
+      <c r="C43" s="143"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="123"/>
+      <c r="E43" s="117"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="143"/>
+      <c r="A44" s="137"/>
       <c r="B44" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="150" t="s">
+      <c r="C44" s="144" t="s">
         <v>312</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="147" t="s">
+      <c r="E44" s="141" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="143"/>
+      <c r="A45" s="137"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="E45" s="129" t="s">
+      <c r="E45" s="123" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="143"/>
-      <c r="B46" s="124" t="s">
+      <c r="A46" s="137"/>
+      <c r="B46" s="118" t="s">
         <v>317</v>
       </c>
-      <c r="C46" s="150" t="s">
+      <c r="C46" s="144" t="s">
         <v>318</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="E46" s="147" t="s">
+      <c r="E46" s="141" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="151"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="124"/>
+      <c r="A47" s="145"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="E47" s="147" t="s">
+      <c r="E47" s="141" t="s">
         <v>322</v>
       </c>
     </row>
@@ -10171,404 +10222,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="92" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="98"/>
+      <c r="D1" s="92"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="96" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="102"/>
+      <c r="D2" s="96"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="93" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="102"/>
+      <c r="D3" s="96"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="95" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="97" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="96"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="102"/>
+      <c r="D5" s="96"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="104"/>
-      <c r="B6" s="101" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="105"/>
+      <c r="D6" s="99"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="100" t="s">
         <v>336</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="102" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="106"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="99" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="92" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="106"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="99" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="93" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="95" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="106"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="99" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="93" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="95" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="106"/>
-      <c r="B11" s="98" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="92" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="93" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="92" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="106"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="98" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="105" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="106"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="112" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="106" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="106"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="112" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="106" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="106"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="111" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="105" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="106"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96" t="s">
         <v>286</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="D16" s="92" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="106"/>
-      <c r="B17" s="107" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="95" t="s">
         <v>354</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="107" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="106"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="101" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="95" t="s">
         <v>315</v>
       </c>
-      <c r="D18" s="114"/>
+      <c r="D18" s="108"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="106"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="101" t="s">
+      <c r="A19" s="100"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="95" t="s">
         <v>356</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="108"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="106"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="101" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="95" t="s">
         <v>357</v>
       </c>
-      <c r="D20" s="115"/>
+      <c r="D20" s="109"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="116"/>
-      <c r="B21" s="98" t="s">
+      <c r="A21" s="110"/>
+      <c r="B21" s="92" t="s">
         <v>358</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="96" t="s">
         <v>359</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="92" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="100" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="111" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="93" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="98"/>
+      <c r="D22" s="92"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="106"/>
-      <c r="B23" s="118" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="112" t="s">
         <v>364</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="93" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="99"/>
+      <c r="D23" s="93"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="106"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="99" t="s">
+      <c r="A24" s="100"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="D24" s="99"/>
+      <c r="D24" s="93"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="106"/>
-      <c r="B25" s="98" t="s">
+      <c r="A25" s="100"/>
+      <c r="B25" s="92" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="D25" s="120"/>
+      <c r="D25" s="114"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="106"/>
-      <c r="B26" s="98" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="92" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99" t="s">
+      <c r="C26" s="93"/>
+      <c r="D26" s="93" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="106"/>
-      <c r="B27" s="107" t="s">
+      <c r="A27" s="100"/>
+      <c r="B27" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="93" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="106"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="103" t="s">
+      <c r="A28" s="100"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="93" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="106"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="103" t="s">
+      <c r="A29" s="100"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="97" t="s">
         <v>376</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="93" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="116"/>
-      <c r="B30" s="98" t="s">
+      <c r="A30" s="110"/>
+      <c r="B30" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="93" t="s">
         <v>379</v>
       </c>
-      <c r="D30" s="99"/>
+      <c r="D30" s="93"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="100" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="112" t="s">
         <v>381</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="93" t="s">
         <v>382</v>
       </c>
-      <c r="D31" s="99"/>
+      <c r="D31" s="93"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="106"/>
-      <c r="B32" s="118" t="s">
+      <c r="A32" s="100"/>
+      <c r="B32" s="112" t="s">
         <v>383</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="93" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="106"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="99" t="s">
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="93" t="s">
         <v>386</v>
       </c>
-      <c r="D33" s="99" t="s">
+      <c r="D33" s="93" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="106"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="99" t="s">
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="93" t="s">
         <v>388</v>
       </c>
-      <c r="D34" s="99" t="s">
+      <c r="D34" s="93" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="106"/>
-      <c r="B35" s="118" t="s">
+      <c r="A35" s="100"/>
+      <c r="B35" s="112" t="s">
         <v>390</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C35" s="93" t="s">
         <v>391</v>
       </c>
-      <c r="D35" s="99" t="s">
+      <c r="D35" s="93" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="106"/>
-      <c r="B36" s="118" t="s">
+      <c r="A36" s="100"/>
+      <c r="B36" s="112" t="s">
         <v>393</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="93" t="s">
         <v>394</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="93" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="106"/>
-      <c r="B37" s="118" t="s">
+      <c r="A37" s="100"/>
+      <c r="B37" s="112" t="s">
         <v>396</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C37" s="115" t="s">
         <v>397</v>
       </c>
-      <c r="D37" s="122"/>
+      <c r="D37" s="116"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="106"/>
-      <c r="B38" s="118" t="s">
+      <c r="A38" s="100"/>
+      <c r="B38" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="C38" s="121" t="s">
+      <c r="C38" s="115" t="s">
         <v>399</v>
       </c>
-      <c r="D38" s="122" t="s">
+      <c r="D38" s="116" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="103" t="s">
+      <c r="A39" s="110"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="97" t="s">
         <v>401</v>
       </c>
-      <c r="D39" s="103" t="s">
+      <c r="D39" s="97" t="s">
         <v>402</v>
       </c>
     </row>
@@ -10615,107 +10666,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="87" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="88" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="54" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="48" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="54" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="89" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="89" t="s">
         <v>412</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="87" t="s">
         <v>413</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="90" t="s">
         <v>414</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="94"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="88"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="93"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="89" t="s">
         <v>418</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="87" t="s">
         <v>419</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="89" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="93"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
